--- a/DataMD/MDHealthDepartmentDashboard.xlsx
+++ b/DataMD/MDHealthDepartmentDashboard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="97">
   <si>
     <t>Anne Arundel</t>
   </si>
@@ -300,6 +300,21 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Female: 1,915       Male: 1,694</t>
+  </si>
+  <si>
+    <t> 3609</t>
+  </si>
+  <si>
+    <t> 24,728</t>
+  </si>
+  <si>
+    <t> 67</t>
+  </si>
+  <si>
+    <t>1:52PM</t>
   </si>
 </sst>
 </file>
@@ -796,21 +811,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N236"/>
+  <dimension ref="A1:N278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I237" sqref="I237:L241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="43" customWidth="1"/>
-    <col min="2" max="3" width="13.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="10" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="1.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" style="27" hidden="1" customWidth="1"/>
+    <col min="2" max="4" width="13.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="1.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="45.85546875" style="27" customWidth="1"/>
     <col min="8" max="8" width="13" style="16" customWidth="1"/>
     <col min="9" max="9" width="13" style="19" customWidth="1"/>
     <col min="10" max="12" width="13" style="20" customWidth="1"/>
@@ -6925,7 +6939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15.75">
+    <row r="225" spans="1:12" ht="15.75">
       <c r="A225" s="43">
         <f t="shared" ref="A225:C225" si="191">A224</f>
         <v>43925</v>
@@ -6945,7 +6959,7 @@
       </c>
       <c r="H225" s="34"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:12">
       <c r="A226" s="43">
         <f t="shared" ref="A226:C226" si="192">A225</f>
         <v>43925</v>
@@ -6971,7 +6985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:12">
       <c r="A227" s="43">
         <f t="shared" ref="A227:C227" si="193">A226</f>
         <v>43925</v>
@@ -6997,7 +7011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:12">
       <c r="A228" s="43">
         <f t="shared" ref="A228:C228" si="194">A227</f>
         <v>43925</v>
@@ -7023,7 +7037,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:12">
       <c r="A229" s="43">
         <f t="shared" ref="A229:C229" si="195">A228</f>
         <v>43925</v>
@@ -7049,7 +7063,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:12">
       <c r="A230" s="43">
         <f t="shared" ref="A230:C230" si="196">A229</f>
         <v>43925</v>
@@ -7075,7 +7089,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:12">
       <c r="A231" s="43">
         <f t="shared" ref="A231:C231" si="197">A230</f>
         <v>43925</v>
@@ -7101,7 +7115,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:12">
       <c r="A232" s="43">
         <f t="shared" ref="A232:C232" si="198">A231</f>
         <v>43925</v>
@@ -7127,7 +7141,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:12">
       <c r="A233" s="43">
         <f t="shared" ref="A233:C233" si="199">A232</f>
         <v>43925</v>
@@ -7153,7 +7167,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:12">
       <c r="A234" s="43">
         <f t="shared" ref="A234:C234" si="200">A233</f>
         <v>43925</v>
@@ -7179,7 +7193,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15" customHeight="1">
+    <row r="235" spans="1:12" ht="15" customHeight="1">
       <c r="A235" s="43">
         <f>A234</f>
         <v>43925</v>
@@ -7205,7 +7219,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:12">
       <c r="A236" s="43">
         <f>A235</f>
         <v>43925</v>
@@ -7226,6 +7240,1169 @@
       </c>
       <c r="H236" s="16">
         <v>1485</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="15.75">
+      <c r="A237" s="42">
+        <v>43926</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C237" s="49">
+        <f>A237</f>
+        <v>43926</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G237" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H237" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="I237" s="21" t="str">
+        <f>H238</f>
+        <v> 24,728</v>
+      </c>
+      <c r="J237" s="22" t="str">
+        <f>H239</f>
+        <v> 67</v>
+      </c>
+      <c r="K237" s="38">
+        <f>H240</f>
+        <v>936</v>
+      </c>
+      <c r="L237" s="22" t="str">
+        <f>H241</f>
+        <v> 159</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="31.5">
+      <c r="A238" s="43">
+        <f t="shared" ref="A238:C238" si="203">A237</f>
+        <v>43926</v>
+      </c>
+      <c r="B238" s="4" t="str">
+        <f t="shared" si="203"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C238" s="44">
+        <f t="shared" si="203"/>
+        <v>43926</v>
+      </c>
+      <c r="D238" s="4"/>
+      <c r="E238" s="11"/>
+      <c r="G238" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H238" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I238" s="21"/>
+      <c r="J238" s="22"/>
+      <c r="K238" s="22"/>
+      <c r="L238" s="22"/>
+    </row>
+    <row r="239" spans="1:12" ht="15.75">
+      <c r="A239" s="43">
+        <f t="shared" ref="A239:C239" si="204">A238</f>
+        <v>43926</v>
+      </c>
+      <c r="B239" s="4" t="str">
+        <f t="shared" si="204"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C239" s="44">
+        <f t="shared" si="204"/>
+        <v>43926</v>
+      </c>
+      <c r="D239" s="4"/>
+      <c r="E239" s="11"/>
+      <c r="G239" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H239" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I239" s="21"/>
+      <c r="J239" s="22"/>
+      <c r="K239" s="22"/>
+      <c r="L239" s="22"/>
+    </row>
+    <row r="240" spans="1:12" ht="30.75">
+      <c r="A240" s="43">
+        <f t="shared" ref="A240:C240" si="205">A239</f>
+        <v>43926</v>
+      </c>
+      <c r="B240" s="4" t="str">
+        <f t="shared" si="205"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C240" s="44">
+        <f t="shared" si="205"/>
+        <v>43926</v>
+      </c>
+      <c r="D240" s="4"/>
+      <c r="E240" s="11"/>
+      <c r="G240" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H240" s="34">
+        <v>936</v>
+      </c>
+      <c r="I240" s="21"/>
+      <c r="J240" s="22"/>
+      <c r="K240" s="22"/>
+      <c r="L240" s="22"/>
+    </row>
+    <row r="241" spans="1:12" ht="15.75">
+      <c r="A241" s="43">
+        <f t="shared" ref="A241:C241" si="206">A240</f>
+        <v>43926</v>
+      </c>
+      <c r="B241" s="4" t="str">
+        <f t="shared" si="206"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C241" s="44">
+        <f t="shared" si="206"/>
+        <v>43926</v>
+      </c>
+      <c r="D241" s="4"/>
+      <c r="E241" s="11"/>
+      <c r="G241" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H241" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I241" s="21"/>
+      <c r="J241" s="22"/>
+      <c r="K241" s="22"/>
+      <c r="L241" s="22"/>
+    </row>
+    <row r="242" spans="1:12" ht="31.5">
+      <c r="A242" s="43">
+        <f t="shared" ref="A242:C242" si="207">A241</f>
+        <v>43926</v>
+      </c>
+      <c r="B242" s="4" t="str">
+        <f t="shared" si="207"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C242" s="44">
+        <f t="shared" si="207"/>
+        <v>43926</v>
+      </c>
+      <c r="D242" s="4"/>
+      <c r="E242" s="11"/>
+      <c r="G242" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H242" s="34"/>
+    </row>
+    <row r="243" spans="1:12" ht="15.75">
+      <c r="A243" s="43">
+        <f t="shared" ref="A243:C243" si="208">A242</f>
+        <v>43926</v>
+      </c>
+      <c r="B243" s="4" t="str">
+        <f t="shared" si="208"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C243" s="44">
+        <f t="shared" si="208"/>
+        <v>43926</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E243" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G243" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H243" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="31.5">
+      <c r="A244" s="43">
+        <f t="shared" ref="A244:C244" si="209">A243</f>
+        <v>43926</v>
+      </c>
+      <c r="B244" s="4" t="str">
+        <f t="shared" si="209"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C244" s="44">
+        <f t="shared" si="209"/>
+        <v>43926</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E244" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G244" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H244" s="35">
+        <v>319</v>
+      </c>
+      <c r="I244" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J244" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="31.5">
+      <c r="A245" s="43">
+        <f t="shared" ref="A245:C245" si="210">A244</f>
+        <v>43926</v>
+      </c>
+      <c r="B245" s="4" t="str">
+        <f t="shared" si="210"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C245" s="44">
+        <f t="shared" si="210"/>
+        <v>43926</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E245" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H245" s="35">
+        <v>394</v>
+      </c>
+      <c r="I245" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J245" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="31.5">
+      <c r="A246" s="43">
+        <f t="shared" ref="A246:C246" si="211">A245</f>
+        <v>43926</v>
+      </c>
+      <c r="B246" s="4" t="str">
+        <f t="shared" si="211"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C246" s="44">
+        <f t="shared" si="211"/>
+        <v>43926</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E246" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G246" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H246" s="35">
+        <v>590</v>
+      </c>
+      <c r="I246" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J246" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="15.75">
+      <c r="A247" s="43">
+        <f t="shared" ref="A247:C247" si="212">A246</f>
+        <v>43926</v>
+      </c>
+      <c r="B247" s="4" t="str">
+        <f t="shared" si="212"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C247" s="44">
+        <f t="shared" si="212"/>
+        <v>43926</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E247" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G247" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H247" s="35">
+        <v>39</v>
+      </c>
+      <c r="I247" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J247" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="15.75">
+      <c r="A248" s="43">
+        <f t="shared" ref="A248:C248" si="213">A247</f>
+        <v>43926</v>
+      </c>
+      <c r="B248" s="4" t="str">
+        <f t="shared" si="213"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C248" s="44">
+        <f t="shared" si="213"/>
+        <v>43926</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E248" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G248" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H248" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="15.75">
+      <c r="A249" s="43">
+        <f t="shared" ref="A249:C249" si="214">A248</f>
+        <v>43926</v>
+      </c>
+      <c r="B249" s="4" t="str">
+        <f t="shared" si="214"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C249" s="44">
+        <f t="shared" si="214"/>
+        <v>43926</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E249" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G249" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H249" s="35">
+        <v>142</v>
+      </c>
+      <c r="I249" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J249" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="15.75">
+      <c r="A250" s="43">
+        <f t="shared" ref="A250:C250" si="215">A249</f>
+        <v>43926</v>
+      </c>
+      <c r="B250" s="4" t="str">
+        <f t="shared" si="215"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C250" s="44">
+        <f t="shared" si="215"/>
+        <v>43926</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E250" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G250" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H250" s="35">
+        <v>36</v>
+      </c>
+      <c r="I250" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J250" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="15.75">
+      <c r="A251" s="43">
+        <f t="shared" ref="A251:C251" si="216">A250</f>
+        <v>43926</v>
+      </c>
+      <c r="B251" s="4" t="str">
+        <f t="shared" si="216"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C251" s="44">
+        <f t="shared" si="216"/>
+        <v>43926</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E251" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G251" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H251" s="35">
+        <v>111</v>
+      </c>
+      <c r="I251" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J251" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="15.75">
+      <c r="A252" s="43">
+        <f t="shared" ref="A252:C252" si="217">A251</f>
+        <v>43926</v>
+      </c>
+      <c r="B252" s="4" t="str">
+        <f t="shared" si="217"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C252" s="44">
+        <f t="shared" si="217"/>
+        <v>43926</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E252" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G252" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H252" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="15.75">
+      <c r="A253" s="43">
+        <f t="shared" ref="A253:C253" si="218">A252</f>
+        <v>43926</v>
+      </c>
+      <c r="B253" s="4" t="str">
+        <f t="shared" si="218"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C253" s="44">
+        <f t="shared" si="218"/>
+        <v>43926</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E253" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G253" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H253" s="35">
+        <v>112</v>
+      </c>
+      <c r="I253" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J253" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="15.75">
+      <c r="A254" s="43">
+        <f t="shared" ref="A254:C254" si="219">A253</f>
+        <v>43926</v>
+      </c>
+      <c r="B254" s="4" t="str">
+        <f t="shared" si="219"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C254" s="44">
+        <f t="shared" si="219"/>
+        <v>43926</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E254" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G254" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H254" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="15.75">
+      <c r="A255" s="43">
+        <f t="shared" ref="A255:C255" si="220">A254</f>
+        <v>43926</v>
+      </c>
+      <c r="B255" s="4" t="str">
+        <f t="shared" si="220"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C255" s="44">
+        <f t="shared" si="220"/>
+        <v>43926</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E255" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H255" s="35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="15.75">
+      <c r="A256" s="43">
+        <f t="shared" ref="A256:C256" si="221">A255</f>
+        <v>43926</v>
+      </c>
+      <c r="B256" s="4" t="str">
+        <f t="shared" si="221"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C256" s="44">
+        <f t="shared" si="221"/>
+        <v>43926</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E256" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G256" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H256" s="35">
+        <v>199</v>
+      </c>
+      <c r="I256" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J256" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="15.75">
+      <c r="A257" s="43">
+        <f t="shared" ref="A257:C257" si="222">A256</f>
+        <v>43926</v>
+      </c>
+      <c r="B257" s="4" t="str">
+        <f t="shared" si="222"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C257" s="44">
+        <f t="shared" si="222"/>
+        <v>43926</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E257" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G257" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H257" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" ht="15.75">
+      <c r="A258" s="43">
+        <f t="shared" ref="A258:C258" si="223">A257</f>
+        <v>43926</v>
+      </c>
+      <c r="B258" s="4" t="str">
+        <f t="shared" si="223"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C258" s="44">
+        <f t="shared" si="223"/>
+        <v>43926</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E258" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G258" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H258" s="35">
+        <v>693</v>
+      </c>
+      <c r="I258" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J258" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="31.5">
+      <c r="A259" s="43">
+        <f t="shared" ref="A259:C259" si="224">A258</f>
+        <v>43926</v>
+      </c>
+      <c r="B259" s="4" t="str">
+        <f t="shared" si="224"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C259" s="44">
+        <f t="shared" si="224"/>
+        <v>43926</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E259" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G259" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H259" s="35">
+        <v>785</v>
+      </c>
+      <c r="I259" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J259" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="31.5">
+      <c r="A260" s="43">
+        <f t="shared" ref="A260:C260" si="225">A259</f>
+        <v>43926</v>
+      </c>
+      <c r="B260" s="4" t="str">
+        <f t="shared" si="225"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C260" s="44">
+        <f t="shared" si="225"/>
+        <v>43926</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E260" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G260" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H260" s="35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="15.75">
+      <c r="A261" s="43">
+        <f t="shared" ref="A261:C261" si="226">A260</f>
+        <v>43926</v>
+      </c>
+      <c r="B261" s="4" t="str">
+        <f t="shared" si="226"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C261" s="44">
+        <f t="shared" si="226"/>
+        <v>43926</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E261" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G261" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H261" s="35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="15.75">
+      <c r="A262" s="43">
+        <f t="shared" ref="A262:C262" si="227">A261</f>
+        <v>43926</v>
+      </c>
+      <c r="B262" s="4" t="str">
+        <f t="shared" si="227"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C262" s="44">
+        <f t="shared" si="227"/>
+        <v>43926</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E262" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G262" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H262" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="15.75">
+      <c r="A263" s="43">
+        <f t="shared" ref="A263:C263" si="228">A262</f>
+        <v>43926</v>
+      </c>
+      <c r="B263" s="4" t="str">
+        <f t="shared" si="228"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C263" s="44">
+        <f t="shared" si="228"/>
+        <v>43926</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E263" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G263" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H263" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="15.75">
+      <c r="A264" s="43">
+        <f t="shared" ref="A264:C264" si="229">A263</f>
+        <v>43926</v>
+      </c>
+      <c r="B264" s="4" t="str">
+        <f t="shared" si="229"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C264" s="44">
+        <f t="shared" si="229"/>
+        <v>43926</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E264" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G264" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H264" s="35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="15.75">
+      <c r="A265" s="43">
+        <f t="shared" ref="A265:C265" si="230">A264</f>
+        <v>43926</v>
+      </c>
+      <c r="B265" s="4" t="str">
+        <f t="shared" si="230"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C265" s="44">
+        <f t="shared" si="230"/>
+        <v>43926</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E265" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G265" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H265" s="35">
+        <v>11</v>
+      </c>
+      <c r="I265" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J265" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="15.75">
+      <c r="A266" s="43">
+        <f t="shared" ref="A266:C266" si="231">A265</f>
+        <v>43926</v>
+      </c>
+      <c r="B266" s="4" t="str">
+        <f t="shared" si="231"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C266" s="44">
+        <f t="shared" si="231"/>
+        <v>43926</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E266" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G266" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H266" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="15.75">
+      <c r="A267" s="43">
+        <f t="shared" ref="A267:C267" si="232">A266</f>
+        <v>43926</v>
+      </c>
+      <c r="B267" s="4" t="str">
+        <f t="shared" si="232"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C267" s="44">
+        <f t="shared" si="232"/>
+        <v>43926</v>
+      </c>
+      <c r="D267" s="4"/>
+      <c r="E267" s="11"/>
+      <c r="G267" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H267" s="34"/>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="A268" s="43">
+        <f t="shared" ref="A268:C268" si="233">A267</f>
+        <v>43926</v>
+      </c>
+      <c r="B268" s="4" t="str">
+        <f t="shared" si="233"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C268" s="44">
+        <f t="shared" si="233"/>
+        <v>43926</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E268" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G268" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H268" s="35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="A269" s="43">
+        <f t="shared" ref="A269:C269" si="234">A268</f>
+        <v>43926</v>
+      </c>
+      <c r="B269" s="4" t="str">
+        <f t="shared" si="234"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C269" s="44">
+        <f t="shared" si="234"/>
+        <v>43926</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E269" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G269" s="36">
+        <v>44123</v>
+      </c>
+      <c r="H269" s="35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
+      <c r="A270" s="43">
+        <f t="shared" ref="A270:C270" si="235">A269</f>
+        <v>43926</v>
+      </c>
+      <c r="B270" s="4" t="str">
+        <f t="shared" si="235"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C270" s="44">
+        <f t="shared" si="235"/>
+        <v>43926</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E270" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G270" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H270" s="35">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
+      <c r="A271" s="43">
+        <f t="shared" ref="A271:C271" si="236">A270</f>
+        <v>43926</v>
+      </c>
+      <c r="B271" s="4" t="str">
+        <f t="shared" si="236"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C271" s="44">
+        <f t="shared" si="236"/>
+        <v>43926</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G271" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H271" s="35">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10">
+      <c r="A272" s="43">
+        <f t="shared" ref="A272:C272" si="237">A271</f>
+        <v>43926</v>
+      </c>
+      <c r="B272" s="4" t="str">
+        <f t="shared" si="237"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C272" s="44">
+        <f t="shared" si="237"/>
+        <v>43926</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E272" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G272" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H272" s="35">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="43">
+        <f t="shared" ref="A273:C273" si="238">A272</f>
+        <v>43926</v>
+      </c>
+      <c r="B273" s="4" t="str">
+        <f t="shared" si="238"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C273" s="44">
+        <f t="shared" si="238"/>
+        <v>43926</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E273" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G273" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H273" s="35">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="43">
+        <f t="shared" ref="A274:C274" si="239">A273</f>
+        <v>43926</v>
+      </c>
+      <c r="B274" s="4" t="str">
+        <f t="shared" si="239"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C274" s="44">
+        <f t="shared" si="239"/>
+        <v>43926</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G274" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H274" s="35">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="43">
+        <f t="shared" ref="A275:C275" si="240">A274</f>
+        <v>43926</v>
+      </c>
+      <c r="B275" s="4" t="str">
+        <f t="shared" si="240"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C275" s="44">
+        <f t="shared" si="240"/>
+        <v>43926</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E275" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G275" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H275" s="35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="43">
+        <f t="shared" ref="A276:C278" si="241">A275</f>
+        <v>43926</v>
+      </c>
+      <c r="B276" s="4" t="str">
+        <f t="shared" si="241"/>
+        <v>1:52PM</v>
+      </c>
+      <c r="C276" s="44">
+        <f t="shared" si="241"/>
+        <v>43926</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E276" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G276" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H276" s="35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="15" customHeight="1">
+      <c r="A277" s="43">
+        <f>A276</f>
+        <v>43926</v>
+      </c>
+      <c r="B277" s="4" t="str">
+        <f>B276</f>
+        <v>1:52PM</v>
+      </c>
+      <c r="C277" s="44">
+        <f t="shared" si="241"/>
+        <v>43926</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E277" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G277" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H277" s="35">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="43">
+        <f>A277</f>
+        <v>43926</v>
+      </c>
+      <c r="B278" s="4" t="str">
+        <f>B277</f>
+        <v>1:52PM</v>
+      </c>
+      <c r="C278" s="44">
+        <f t="shared" si="241"/>
+        <v>43926</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H278" s="16">
+        <v>1694</v>
       </c>
     </row>
   </sheetData>

--- a/DataMD/MDHealthDepartmentDashboard.xlsx
+++ b/DataMD/MDHealthDepartmentDashboard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="109">
   <si>
     <t>Anne Arundel</t>
   </si>
@@ -331,6 +331,27 @@
   <si>
     <t> 184</t>
   </si>
+  <si>
+    <t>Female: 2,329       Male: 2,042</t>
+  </si>
+  <si>
+    <t> 4,371</t>
+  </si>
+  <si>
+    <t> 27,256</t>
+  </si>
+  <si>
+    <t> 103</t>
+  </si>
+  <si>
+    <t> 288</t>
+  </si>
+  <si>
+    <t> 41</t>
+  </si>
+  <si>
+    <t>12:37PM</t>
+  </si>
 </sst>
 </file>
 
@@ -419,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -559,6 +580,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -842,11 +869,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N320"/>
+  <dimension ref="A1:N362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q265" sqref="Q265"/>
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I321" sqref="I321:L325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -859,9 +886,10 @@
     <col min="8" max="8" width="13" style="44" customWidth="1"/>
     <col min="9" max="9" width="13" style="15" customWidth="1"/>
     <col min="10" max="12" width="13" style="16" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>85</v>
       </c>
@@ -894,8 +922,9 @@
       <c r="L1" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="38">
         <v>43925</v>
       </c>
@@ -920,8 +949,9 @@
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
-    </row>
-    <row r="3" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="38">
         <f>A2</f>
         <v>43925</v>
@@ -948,8 +978,9 @@
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
-    </row>
-    <row r="4" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="38">
         <f t="shared" ref="A4:A29" si="0">A3</f>
         <v>43925</v>
@@ -976,8 +1007,9 @@
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
-    </row>
-    <row r="5" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1004,8 +1036,9 @@
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
-    </row>
-    <row r="6" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A6" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1032,8 +1065,9 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
-    </row>
-    <row r="7" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1060,8 +1094,9 @@
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
-    </row>
-    <row r="8" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1088,8 +1123,9 @@
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1116,8 +1152,9 @@
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
-    </row>
-    <row r="10" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1144,8 +1181,9 @@
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
-    </row>
-    <row r="11" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1172,8 +1210,9 @@
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
-    </row>
-    <row r="12" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1200,8 +1239,9 @@
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
-    </row>
-    <row r="13" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1228,8 +1268,9 @@
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
-    </row>
-    <row r="14" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1256,8 +1297,9 @@
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
-    </row>
-    <row r="15" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1284,8 +1326,9 @@
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
-    </row>
-    <row r="16" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1312,8 +1355,9 @@
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
-    </row>
-    <row r="17" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M16" s="39"/>
+    </row>
+    <row r="17" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1340,8 +1384,9 @@
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
-    </row>
-    <row r="18" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M17" s="39"/>
+    </row>
+    <row r="18" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1368,8 +1413,9 @@
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
       <c r="L18" s="39"/>
-    </row>
-    <row r="19" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M18" s="39"/>
+    </row>
+    <row r="19" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1396,8 +1442,9 @@
       <c r="J19" s="39"/>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
-    </row>
-    <row r="20" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M19" s="39"/>
+    </row>
+    <row r="20" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1424,8 +1471,9 @@
       <c r="J20" s="39"/>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
-    </row>
-    <row r="21" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M20" s="39"/>
+    </row>
+    <row r="21" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1452,8 +1500,9 @@
       <c r="J21" s="39"/>
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
-    </row>
-    <row r="22" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M21" s="39"/>
+    </row>
+    <row r="22" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1480,8 +1529,9 @@
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
-    </row>
-    <row r="23" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M22" s="39"/>
+    </row>
+    <row r="23" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1508,8 +1558,9 @@
       <c r="J23" s="39"/>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
-    </row>
-    <row r="24" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M23" s="39"/>
+    </row>
+    <row r="24" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A24" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1536,8 +1587,9 @@
       <c r="J24" s="39"/>
       <c r="K24" s="39"/>
       <c r="L24" s="39"/>
-    </row>
-    <row r="25" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M24" s="39"/>
+    </row>
+    <row r="25" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1564,8 +1616,9 @@
       <c r="J25" s="39"/>
       <c r="K25" s="39"/>
       <c r="L25" s="39"/>
-    </row>
-    <row r="26" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M25" s="39"/>
+    </row>
+    <row r="26" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1592,8 +1645,9 @@
       <c r="J26" s="39"/>
       <c r="K26" s="39"/>
       <c r="L26" s="39"/>
-    </row>
-    <row r="27" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M26" s="39"/>
+    </row>
+    <row r="27" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A27" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1618,8 +1672,9 @@
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
-    </row>
-    <row r="28" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M27" s="39"/>
+    </row>
+    <row r="28" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A28" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1644,8 +1699,9 @@
       <c r="J28" s="39"/>
       <c r="K28" s="39"/>
       <c r="L28" s="39"/>
-    </row>
-    <row r="29" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M28" s="39"/>
+    </row>
+    <row r="29" spans="1:13" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A29" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
@@ -1666,8 +1722,9 @@
       <c r="J29" s="39"/>
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
-    </row>
-    <row r="30" spans="1:12" ht="19.5" customHeight="1">
+      <c r="M29" s="39"/>
+    </row>
+    <row r="30" spans="1:13" ht="19.5" customHeight="1">
       <c r="A30" s="35">
         <v>43921</v>
       </c>
@@ -1708,7 +1765,7 @@
         <v> 53</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="19.5" customHeight="1">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1">
       <c r="A31" s="36">
         <f t="shared" ref="A31:C67" si="2">A30</f>
         <v>43921</v>
@@ -1735,7 +1792,7 @@
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
     </row>
-    <row r="32" spans="1:12" ht="19.5" customHeight="1">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1">
       <c r="A32" s="36">
         <f t="shared" si="2"/>
         <v>43921</v>
@@ -8478,7 +8535,7 @@
     </row>
     <row r="280" spans="1:12" ht="15.75">
       <c r="A280" s="36">
-        <f t="shared" ref="A280:E280" si="242">A279</f>
+        <f t="shared" ref="A280:C280" si="242">A279</f>
         <v>43927</v>
       </c>
       <c r="B280" s="4" t="str">
@@ -8504,7 +8561,7 @@
     </row>
     <row r="281" spans="1:12" ht="15.75">
       <c r="A281" s="36">
-        <f t="shared" ref="A281:E281" si="243">A280</f>
+        <f t="shared" ref="A281:C281" si="243">A280</f>
         <v>43927</v>
       </c>
       <c r="B281" s="4" t="str">
@@ -8530,7 +8587,7 @@
     </row>
     <row r="282" spans="1:12" ht="15.75">
       <c r="A282" s="36">
-        <f t="shared" ref="A282:E282" si="244">A281</f>
+        <f t="shared" ref="A282:C282" si="244">A281</f>
         <v>43927</v>
       </c>
       <c r="B282" s="4" t="str">
@@ -8556,7 +8613,7 @@
     </row>
     <row r="283" spans="1:12" ht="15.75">
       <c r="A283" s="36">
-        <f t="shared" ref="A283:E283" si="245">A282</f>
+        <f t="shared" ref="A283:C283" si="245">A282</f>
         <v>43927</v>
       </c>
       <c r="B283" s="4" t="str">
@@ -8582,7 +8639,7 @@
     </row>
     <row r="284" spans="1:12" ht="31.5">
       <c r="A284" s="36">
-        <f t="shared" ref="A284:E284" si="246">A283</f>
+        <f t="shared" ref="A284:C284" si="246">A283</f>
         <v>43927</v>
       </c>
       <c r="B284" s="4" t="str">
@@ -8602,7 +8659,7 @@
     </row>
     <row r="285" spans="1:12" ht="15.75">
       <c r="A285" s="36">
-        <f t="shared" ref="A285:E285" si="247">A284</f>
+        <f t="shared" ref="A285:C285" si="247">A284</f>
         <v>43927</v>
       </c>
       <c r="B285" s="4" t="str">
@@ -8628,7 +8685,7 @@
     </row>
     <row r="286" spans="1:12" ht="31.5">
       <c r="A286" s="36">
-        <f t="shared" ref="A286:E286" si="248">A285</f>
+        <f t="shared" ref="A286:C286" si="248">A285</f>
         <v>43927</v>
       </c>
       <c r="B286" s="4" t="str">
@@ -8660,7 +8717,7 @@
     </row>
     <row r="287" spans="1:12" ht="31.5">
       <c r="A287" s="36">
-        <f t="shared" ref="A287:E287" si="249">A286</f>
+        <f t="shared" ref="A287:C287" si="249">A286</f>
         <v>43927</v>
       </c>
       <c r="B287" s="4" t="str">
@@ -8692,7 +8749,7 @@
     </row>
     <row r="288" spans="1:12" ht="31.5">
       <c r="A288" s="36">
-        <f t="shared" ref="A288:E288" si="250">A287</f>
+        <f t="shared" ref="A288:C288" si="250">A287</f>
         <v>43927</v>
       </c>
       <c r="B288" s="4" t="str">
@@ -8724,7 +8781,7 @@
     </row>
     <row r="289" spans="1:10" ht="15.75">
       <c r="A289" s="36">
-        <f t="shared" ref="A289:E289" si="251">A288</f>
+        <f t="shared" ref="A289:C289" si="251">A288</f>
         <v>43927</v>
       </c>
       <c r="B289" s="4" t="str">
@@ -8756,7 +8813,7 @@
     </row>
     <row r="290" spans="1:10" ht="15.75">
       <c r="A290" s="36">
-        <f t="shared" ref="A290:E290" si="252">A289</f>
+        <f t="shared" ref="A290:C290" si="252">A289</f>
         <v>43927</v>
       </c>
       <c r="B290" s="4" t="str">
@@ -8782,7 +8839,7 @@
     </row>
     <row r="291" spans="1:10" ht="15.75">
       <c r="A291" s="36">
-        <f t="shared" ref="A291:E291" si="253">A290</f>
+        <f t="shared" ref="A291:C291" si="253">A290</f>
         <v>43927</v>
       </c>
       <c r="B291" s="4" t="str">
@@ -8814,7 +8871,7 @@
     </row>
     <row r="292" spans="1:10" ht="15.75">
       <c r="A292" s="36">
-        <f t="shared" ref="A292:E292" si="254">A291</f>
+        <f t="shared" ref="A292:C292" si="254">A291</f>
         <v>43927</v>
       </c>
       <c r="B292" s="4" t="str">
@@ -8846,7 +8903,7 @@
     </row>
     <row r="293" spans="1:10" ht="15.75">
       <c r="A293" s="36">
-        <f t="shared" ref="A293:E293" si="255">A292</f>
+        <f t="shared" ref="A293:C293" si="255">A292</f>
         <v>43927</v>
       </c>
       <c r="B293" s="4" t="str">
@@ -8878,7 +8935,7 @@
     </row>
     <row r="294" spans="1:10" ht="15.75">
       <c r="A294" s="36">
-        <f t="shared" ref="A294:E294" si="256">A293</f>
+        <f t="shared" ref="A294:C294" si="256">A293</f>
         <v>43927</v>
       </c>
       <c r="B294" s="4" t="str">
@@ -8904,7 +8961,7 @@
     </row>
     <row r="295" spans="1:10" ht="15.75">
       <c r="A295" s="36">
-        <f t="shared" ref="A295:E295" si="257">A294</f>
+        <f t="shared" ref="A295:C295" si="257">A294</f>
         <v>43927</v>
       </c>
       <c r="B295" s="4" t="str">
@@ -8936,7 +8993,7 @@
     </row>
     <row r="296" spans="1:10" ht="15.75">
       <c r="A296" s="36">
-        <f t="shared" ref="A296:E296" si="258">A295</f>
+        <f t="shared" ref="A296:C296" si="258">A295</f>
         <v>43927</v>
       </c>
       <c r="B296" s="4" t="str">
@@ -8962,7 +9019,7 @@
     </row>
     <row r="297" spans="1:10" ht="15.75">
       <c r="A297" s="36">
-        <f t="shared" ref="A297:E297" si="259">A296</f>
+        <f t="shared" ref="A297:C297" si="259">A296</f>
         <v>43927</v>
       </c>
       <c r="B297" s="4" t="str">
@@ -8988,7 +9045,7 @@
     </row>
     <row r="298" spans="1:10" ht="15.75">
       <c r="A298" s="36">
-        <f t="shared" ref="A298:E298" si="260">A297</f>
+        <f t="shared" ref="A298:C298" si="260">A297</f>
         <v>43927</v>
       </c>
       <c r="B298" s="4" t="str">
@@ -9020,7 +9077,7 @@
     </row>
     <row r="299" spans="1:10" ht="15.75">
       <c r="A299" s="36">
-        <f t="shared" ref="A299:E299" si="261">A298</f>
+        <f t="shared" ref="A299:C299" si="261">A298</f>
         <v>43927</v>
       </c>
       <c r="B299" s="4" t="str">
@@ -9046,7 +9103,7 @@
     </row>
     <row r="300" spans="1:10" ht="15.75">
       <c r="A300" s="36">
-        <f t="shared" ref="A300:E300" si="262">A299</f>
+        <f t="shared" ref="A300:C300" si="262">A299</f>
         <v>43927</v>
       </c>
       <c r="B300" s="4" t="str">
@@ -9078,7 +9135,7 @@
     </row>
     <row r="301" spans="1:10" ht="31.5">
       <c r="A301" s="36">
-        <f t="shared" ref="A301:E301" si="263">A300</f>
+        <f t="shared" ref="A301:C301" si="263">A300</f>
         <v>43927</v>
       </c>
       <c r="B301" s="4" t="str">
@@ -9110,7 +9167,7 @@
     </row>
     <row r="302" spans="1:10" ht="31.5">
       <c r="A302" s="36">
-        <f t="shared" ref="A302:E302" si="264">A301</f>
+        <f t="shared" ref="A302:C302" si="264">A301</f>
         <v>43927</v>
       </c>
       <c r="B302" s="4" t="str">
@@ -9136,7 +9193,7 @@
     </row>
     <row r="303" spans="1:10" ht="15.75">
       <c r="A303" s="36">
-        <f t="shared" ref="A303:E303" si="265">A302</f>
+        <f t="shared" ref="A303:C303" si="265">A302</f>
         <v>43927</v>
       </c>
       <c r="B303" s="4" t="str">
@@ -9162,7 +9219,7 @@
     </row>
     <row r="304" spans="1:10" ht="15.75">
       <c r="A304" s="36">
-        <f t="shared" ref="A304:E304" si="266">A303</f>
+        <f t="shared" ref="A304:C304" si="266">A303</f>
         <v>43927</v>
       </c>
       <c r="B304" s="4" t="str">
@@ -9188,7 +9245,7 @@
     </row>
     <row r="305" spans="1:10" ht="15.75">
       <c r="A305" s="36">
-        <f t="shared" ref="A305:E305" si="267">A304</f>
+        <f t="shared" ref="A305:C305" si="267">A304</f>
         <v>43927</v>
       </c>
       <c r="B305" s="4" t="str">
@@ -9214,7 +9271,7 @@
     </row>
     <row r="306" spans="1:10" ht="15.75">
       <c r="A306" s="36">
-        <f t="shared" ref="A306:E306" si="268">A305</f>
+        <f t="shared" ref="A306:C306" si="268">A305</f>
         <v>43927</v>
       </c>
       <c r="B306" s="4" t="str">
@@ -9240,7 +9297,7 @@
     </row>
     <row r="307" spans="1:10" ht="15.75">
       <c r="A307" s="36">
-        <f t="shared" ref="A307:E307" si="269">A306</f>
+        <f t="shared" ref="A307:C307" si="269">A306</f>
         <v>43927</v>
       </c>
       <c r="B307" s="4" t="str">
@@ -9272,7 +9329,7 @@
     </row>
     <row r="308" spans="1:10" ht="15.75">
       <c r="A308" s="36">
-        <f t="shared" ref="A308:E308" si="270">A307</f>
+        <f t="shared" ref="A308:C308" si="270">A307</f>
         <v>43927</v>
       </c>
       <c r="B308" s="4" t="str">
@@ -9298,7 +9355,7 @@
     </row>
     <row r="309" spans="1:10" ht="15.75">
       <c r="A309" s="36">
-        <f t="shared" ref="A309:E309" si="271">A308</f>
+        <f t="shared" ref="A309:C309" si="271">A308</f>
         <v>43927</v>
       </c>
       <c r="B309" s="4" t="str">
@@ -9318,7 +9375,7 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" s="36">
-        <f t="shared" ref="A310:E310" si="272">A309</f>
+        <f t="shared" ref="A310:C310" si="272">A309</f>
         <v>43927</v>
       </c>
       <c r="B310" s="4" t="str">
@@ -9344,7 +9401,7 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="36">
-        <f t="shared" ref="A311:E311" si="273">A310</f>
+        <f t="shared" ref="A311:C311" si="273">A310</f>
         <v>43927</v>
       </c>
       <c r="B311" s="4" t="str">
@@ -9370,7 +9427,7 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="36">
-        <f t="shared" ref="A312:E312" si="274">A311</f>
+        <f t="shared" ref="A312:C312" si="274">A311</f>
         <v>43927</v>
       </c>
       <c r="B312" s="4" t="str">
@@ -9396,7 +9453,7 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" s="36">
-        <f t="shared" ref="A313:E313" si="275">A312</f>
+        <f t="shared" ref="A313:C313" si="275">A312</f>
         <v>43927</v>
       </c>
       <c r="B313" s="4" t="str">
@@ -9422,7 +9479,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" s="36">
-        <f t="shared" ref="A314:E314" si="276">A313</f>
+        <f t="shared" ref="A314:C314" si="276">A313</f>
         <v>43927</v>
       </c>
       <c r="B314" s="4" t="str">
@@ -9448,7 +9505,7 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" s="36">
-        <f t="shared" ref="A315:E315" si="277">A314</f>
+        <f t="shared" ref="A315:C315" si="277">A314</f>
         <v>43927</v>
       </c>
       <c r="B315" s="4" t="str">
@@ -9474,7 +9531,7 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" s="36">
-        <f t="shared" ref="A316:E316" si="278">A315</f>
+        <f t="shared" ref="A316:C316" si="278">A315</f>
         <v>43927</v>
       </c>
       <c r="B316" s="4" t="str">
@@ -9500,7 +9557,7 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" s="36">
-        <f t="shared" ref="A317:E317" si="279">A316</f>
+        <f t="shared" ref="A317:C317" si="279">A316</f>
         <v>43927</v>
       </c>
       <c r="B317" s="4" t="str">
@@ -9526,7 +9583,7 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" s="36">
-        <f t="shared" ref="A318:E318" si="280">A317</f>
+        <f t="shared" ref="A318:C318" si="280">A317</f>
         <v>43927</v>
       </c>
       <c r="B318" s="4" t="str">
@@ -9560,7 +9617,7 @@
         <v>1:52PM</v>
       </c>
       <c r="C319" s="37">
-        <f t="shared" ref="C319:E319" si="281">C318</f>
+        <f t="shared" ref="C319" si="281">C318</f>
         <v>43927</v>
       </c>
       <c r="D319" s="4" t="s">
@@ -9586,7 +9643,7 @@
         <v>1:52PM</v>
       </c>
       <c r="C320" s="37">
-        <f t="shared" ref="C320:E320" si="282">C319</f>
+        <f t="shared" ref="C320" si="282">C319</f>
         <v>43927</v>
       </c>
       <c r="D320" s="4" t="s">
@@ -9597,6 +9654,1157 @@
       </c>
       <c r="H320" s="44">
         <v>1890</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" ht="15.75">
+      <c r="A321" s="35">
+        <v>43928</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C321" s="42">
+        <f>A321</f>
+        <v>43928</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E321" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G321" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H321" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="I321" s="17" t="str">
+        <f>H322</f>
+        <v> 27,256</v>
+      </c>
+      <c r="J321" s="18" t="str">
+        <f>H323</f>
+        <v> 103</v>
+      </c>
+      <c r="K321" s="33">
+        <f>H324</f>
+        <v>1106</v>
+      </c>
+      <c r="L321" s="18" t="str">
+        <f>H325</f>
+        <v> 288</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" ht="15.75">
+      <c r="A322" s="36">
+        <f t="shared" ref="A322:E322" si="283">A321</f>
+        <v>43928</v>
+      </c>
+      <c r="B322" s="4" t="str">
+        <f t="shared" si="283"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C322" s="37">
+        <f t="shared" si="283"/>
+        <v>43928</v>
+      </c>
+      <c r="D322" s="4"/>
+      <c r="E322" s="11"/>
+      <c r="G322" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H322" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I322" s="17"/>
+      <c r="J322" s="18"/>
+      <c r="K322" s="18"/>
+      <c r="L322" s="18"/>
+    </row>
+    <row r="323" spans="1:12" ht="15.75">
+      <c r="A323" s="36">
+        <f t="shared" ref="A323:E323" si="284">A322</f>
+        <v>43928</v>
+      </c>
+      <c r="B323" s="4" t="str">
+        <f t="shared" si="284"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C323" s="37">
+        <f t="shared" si="284"/>
+        <v>43928</v>
+      </c>
+      <c r="D323" s="4"/>
+      <c r="E323" s="11"/>
+      <c r="G323" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H323" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="I323" s="17"/>
+      <c r="J323" s="18"/>
+      <c r="K323" s="18"/>
+      <c r="L323" s="18"/>
+    </row>
+    <row r="324" spans="1:12" ht="15.75">
+      <c r="A324" s="36">
+        <f t="shared" ref="A324:E324" si="285">A323</f>
+        <v>43928</v>
+      </c>
+      <c r="B324" s="4" t="str">
+        <f t="shared" si="285"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C324" s="37">
+        <f t="shared" si="285"/>
+        <v>43928</v>
+      </c>
+      <c r="D324" s="4"/>
+      <c r="E324" s="11"/>
+      <c r="G324" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H324" s="51">
+        <v>1106</v>
+      </c>
+      <c r="I324" s="17"/>
+      <c r="J324" s="18"/>
+      <c r="K324" s="18"/>
+      <c r="L324" s="18"/>
+    </row>
+    <row r="325" spans="1:12" ht="15.75">
+      <c r="A325" s="36">
+        <f t="shared" ref="A325:E325" si="286">A324</f>
+        <v>43928</v>
+      </c>
+      <c r="B325" s="4" t="str">
+        <f t="shared" si="286"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C325" s="37">
+        <f t="shared" si="286"/>
+        <v>43928</v>
+      </c>
+      <c r="D325" s="4"/>
+      <c r="E325" s="11"/>
+      <c r="G325" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H325" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="I325" s="17"/>
+      <c r="J325" s="18"/>
+      <c r="K325" s="18"/>
+      <c r="L325" s="18"/>
+    </row>
+    <row r="326" spans="1:12" ht="31.5">
+      <c r="A326" s="36">
+        <f t="shared" ref="A326:E326" si="287">A325</f>
+        <v>43928</v>
+      </c>
+      <c r="B326" s="4" t="str">
+        <f t="shared" si="287"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C326" s="37">
+        <f t="shared" si="287"/>
+        <v>43928</v>
+      </c>
+      <c r="D326" s="4"/>
+      <c r="E326" s="11"/>
+      <c r="G326" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H326" s="51"/>
+      <c r="I326" s="51"/>
+    </row>
+    <row r="327" spans="1:12" ht="15.75">
+      <c r="A327" s="36">
+        <f t="shared" ref="A327:E327" si="288">A326</f>
+        <v>43928</v>
+      </c>
+      <c r="B327" s="4" t="str">
+        <f t="shared" si="288"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C327" s="37">
+        <f t="shared" si="288"/>
+        <v>43928</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E327" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G327" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H327" s="52">
+        <v>7</v>
+      </c>
+      <c r="I327" s="16"/>
+    </row>
+    <row r="328" spans="1:12" ht="31.5">
+      <c r="A328" s="36">
+        <f t="shared" ref="A328:E328" si="289">A327</f>
+        <v>43928</v>
+      </c>
+      <c r="B328" s="4" t="str">
+        <f t="shared" si="289"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C328" s="37">
+        <f t="shared" si="289"/>
+        <v>43928</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E328" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G328" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H328" s="52">
+        <v>370</v>
+      </c>
+      <c r="I328" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" ht="31.5">
+      <c r="A329" s="36">
+        <f t="shared" ref="A329:E329" si="290">A328</f>
+        <v>43928</v>
+      </c>
+      <c r="B329" s="4" t="str">
+        <f t="shared" si="290"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C329" s="37">
+        <f t="shared" si="290"/>
+        <v>43928</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E329" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G329" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H329" s="52">
+        <v>459</v>
+      </c>
+      <c r="I329" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" ht="31.5">
+      <c r="A330" s="36">
+        <f t="shared" ref="A330:E330" si="291">A329</f>
+        <v>43928</v>
+      </c>
+      <c r="B330" s="4" t="str">
+        <f t="shared" si="291"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C330" s="37">
+        <f t="shared" si="291"/>
+        <v>43928</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E330" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G330" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H330" s="52">
+        <v>652</v>
+      </c>
+      <c r="I330" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="15.75">
+      <c r="A331" s="36">
+        <f t="shared" ref="A331:E331" si="292">A330</f>
+        <v>43928</v>
+      </c>
+      <c r="B331" s="4" t="str">
+        <f t="shared" si="292"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C331" s="37">
+        <f t="shared" si="292"/>
+        <v>43928</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E331" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G331" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H331" s="52">
+        <v>41</v>
+      </c>
+      <c r="I331" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" ht="15.75">
+      <c r="A332" s="36">
+        <f t="shared" ref="A332:E332" si="293">A331</f>
+        <v>43928</v>
+      </c>
+      <c r="B332" s="4" t="str">
+        <f t="shared" si="293"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C332" s="37">
+        <f t="shared" si="293"/>
+        <v>43928</v>
+      </c>
+      <c r="D332" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E332" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G332" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H332" s="52">
+        <v>11</v>
+      </c>
+      <c r="I332" s="16"/>
+    </row>
+    <row r="333" spans="1:12" ht="15.75">
+      <c r="A333" s="36">
+        <f t="shared" ref="A333:E333" si="294">A332</f>
+        <v>43928</v>
+      </c>
+      <c r="B333" s="4" t="str">
+        <f t="shared" si="294"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C333" s="37">
+        <f t="shared" si="294"/>
+        <v>43928</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E333" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G333" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H333" s="52">
+        <v>159</v>
+      </c>
+      <c r="I333" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" ht="15.75">
+      <c r="A334" s="36">
+        <f t="shared" ref="A334:E334" si="295">A333</f>
+        <v>43928</v>
+      </c>
+      <c r="B334" s="4" t="str">
+        <f t="shared" si="295"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C334" s="37">
+        <f t="shared" si="295"/>
+        <v>43928</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E334" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G334" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H334" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="I334" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" ht="15.75">
+      <c r="A335" s="36">
+        <f t="shared" ref="A335:E335" si="296">A334</f>
+        <v>43928</v>
+      </c>
+      <c r="B335" s="4" t="str">
+        <f t="shared" si="296"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C335" s="37">
+        <f t="shared" si="296"/>
+        <v>43928</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E335" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G335" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H335" s="52">
+        <v>136</v>
+      </c>
+      <c r="I335" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" ht="15.75">
+      <c r="A336" s="36">
+        <f t="shared" ref="A336:E336" si="297">A335</f>
+        <v>43928</v>
+      </c>
+      <c r="B336" s="4" t="str">
+        <f t="shared" si="297"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C336" s="37">
+        <f t="shared" si="297"/>
+        <v>43928</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E336" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G336" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H336" s="52">
+        <v>3</v>
+      </c>
+      <c r="I336" s="16"/>
+    </row>
+    <row r="337" spans="1:9" ht="15.75">
+      <c r="A337" s="36">
+        <f t="shared" ref="A337:E337" si="298">A336</f>
+        <v>43928</v>
+      </c>
+      <c r="B337" s="4" t="str">
+        <f t="shared" si="298"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C337" s="37">
+        <f t="shared" si="298"/>
+        <v>43928</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E337" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G337" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H337" s="52">
+        <v>151</v>
+      </c>
+      <c r="I337" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="15.75">
+      <c r="A338" s="36">
+        <f t="shared" ref="A338:E338" si="299">A337</f>
+        <v>43928</v>
+      </c>
+      <c r="B338" s="4" t="str">
+        <f t="shared" si="299"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C338" s="37">
+        <f t="shared" si="299"/>
+        <v>43928</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E338" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G338" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H338" s="52">
+        <v>3</v>
+      </c>
+      <c r="I338" s="16"/>
+    </row>
+    <row r="339" spans="1:9" ht="15.75">
+      <c r="A339" s="36">
+        <f t="shared" ref="A339:E339" si="300">A338</f>
+        <v>43928</v>
+      </c>
+      <c r="B339" s="4" t="str">
+        <f t="shared" si="300"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C339" s="37">
+        <f t="shared" si="300"/>
+        <v>43928</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E339" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G339" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H339" s="52">
+        <v>59</v>
+      </c>
+      <c r="I339" s="16"/>
+    </row>
+    <row r="340" spans="1:9" ht="15.75">
+      <c r="A340" s="36">
+        <f t="shared" ref="A340:E340" si="301">A339</f>
+        <v>43928</v>
+      </c>
+      <c r="B340" s="4" t="str">
+        <f t="shared" si="301"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C340" s="37">
+        <f t="shared" si="301"/>
+        <v>43928</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E340" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G340" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H340" s="52">
+        <v>236</v>
+      </c>
+      <c r="I340" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" ht="15.75">
+      <c r="A341" s="36">
+        <f t="shared" ref="A341:E341" si="302">A340</f>
+        <v>43928</v>
+      </c>
+      <c r="B341" s="4" t="str">
+        <f t="shared" si="302"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C341" s="37">
+        <f t="shared" si="302"/>
+        <v>43928</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E341" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G341" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H341" s="52">
+        <v>8</v>
+      </c>
+      <c r="I341" s="16"/>
+    </row>
+    <row r="342" spans="1:9" ht="15.75">
+      <c r="A342" s="36">
+        <f t="shared" ref="A342:E342" si="303">A341</f>
+        <v>43928</v>
+      </c>
+      <c r="B342" s="4" t="str">
+        <f t="shared" si="303"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C342" s="37">
+        <f t="shared" si="303"/>
+        <v>43928</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E342" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G342" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H342" s="52">
+        <v>871</v>
+      </c>
+      <c r="I342" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="31.5">
+      <c r="A343" s="36">
+        <f t="shared" ref="A343:E343" si="304">A342</f>
+        <v>43928</v>
+      </c>
+      <c r="B343" s="4" t="str">
+        <f t="shared" si="304"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C343" s="37">
+        <f t="shared" si="304"/>
+        <v>43928</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E343" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G343" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H343" s="52">
+        <v>1020</v>
+      </c>
+      <c r="I343" s="16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="31.5">
+      <c r="A344" s="36">
+        <f t="shared" ref="A344:E344" si="305">A343</f>
+        <v>43928</v>
+      </c>
+      <c r="B344" s="4" t="str">
+        <f t="shared" si="305"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C344" s="37">
+        <f t="shared" si="305"/>
+        <v>43928</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E344" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G344" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H344" s="52">
+        <v>15</v>
+      </c>
+      <c r="I344" s="16"/>
+    </row>
+    <row r="345" spans="1:9" ht="15.75">
+      <c r="A345" s="36">
+        <f t="shared" ref="A345:E345" si="306">A344</f>
+        <v>43928</v>
+      </c>
+      <c r="B345" s="4" t="str">
+        <f t="shared" si="306"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C345" s="37">
+        <f t="shared" si="306"/>
+        <v>43928</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E345" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G345" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H345" s="52">
+        <v>46</v>
+      </c>
+      <c r="I345" s="16"/>
+    </row>
+    <row r="346" spans="1:9" ht="15.75">
+      <c r="A346" s="36">
+        <f t="shared" ref="A346:E346" si="307">A345</f>
+        <v>43928</v>
+      </c>
+      <c r="B346" s="4" t="str">
+        <f t="shared" si="307"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C346" s="37">
+        <f t="shared" si="307"/>
+        <v>43928</v>
+      </c>
+      <c r="D346" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E346" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G346" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H346" s="52">
+        <v>4</v>
+      </c>
+      <c r="I346" s="16"/>
+    </row>
+    <row r="347" spans="1:9" ht="15.75">
+      <c r="A347" s="36">
+        <f t="shared" ref="A347:E347" si="308">A346</f>
+        <v>43928</v>
+      </c>
+      <c r="B347" s="4" t="str">
+        <f t="shared" si="308"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C347" s="37">
+        <f t="shared" si="308"/>
+        <v>43928</v>
+      </c>
+      <c r="D347" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E347" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G347" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H347" s="52">
+        <v>8</v>
+      </c>
+      <c r="I347" s="16"/>
+    </row>
+    <row r="348" spans="1:9" ht="15.75">
+      <c r="A348" s="36">
+        <f t="shared" ref="A348:E348" si="309">A347</f>
+        <v>43928</v>
+      </c>
+      <c r="B348" s="4" t="str">
+        <f t="shared" si="309"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C348" s="37">
+        <f t="shared" si="309"/>
+        <v>43928</v>
+      </c>
+      <c r="D348" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E348" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G348" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H348" s="52">
+        <v>44</v>
+      </c>
+      <c r="I348" s="16"/>
+    </row>
+    <row r="349" spans="1:9" ht="15.75">
+      <c r="A349" s="36">
+        <f t="shared" ref="A349:E349" si="310">A348</f>
+        <v>43928</v>
+      </c>
+      <c r="B349" s="4" t="str">
+        <f t="shared" si="310"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C349" s="37">
+        <f t="shared" si="310"/>
+        <v>43928</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E349" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G349" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H349" s="52">
+        <v>17</v>
+      </c>
+      <c r="I349" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" ht="15.75">
+      <c r="A350" s="36">
+        <f t="shared" ref="A350:E350" si="311">A349</f>
+        <v>43928</v>
+      </c>
+      <c r="B350" s="4" t="str">
+        <f t="shared" si="311"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C350" s="37">
+        <f t="shared" si="311"/>
+        <v>43928</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E350" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G350" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H350" s="52">
+        <v>10</v>
+      </c>
+      <c r="I350" s="16"/>
+    </row>
+    <row r="351" spans="1:9" ht="15.75">
+      <c r="A351" s="36">
+        <f t="shared" ref="A351:E351" si="312">A350</f>
+        <v>43928</v>
+      </c>
+      <c r="B351" s="4" t="str">
+        <f t="shared" si="312"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C351" s="37">
+        <f t="shared" si="312"/>
+        <v>43928</v>
+      </c>
+      <c r="D351" s="4"/>
+      <c r="E351" s="11"/>
+      <c r="G351" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H351" s="51"/>
+      <c r="I351" s="16"/>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" s="36">
+        <f t="shared" ref="A352:E352" si="313">A351</f>
+        <v>43928</v>
+      </c>
+      <c r="B352" s="4" t="str">
+        <f t="shared" si="313"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C352" s="37">
+        <f t="shared" si="313"/>
+        <v>43928</v>
+      </c>
+      <c r="D352" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E352" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G352" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H352" s="52">
+        <v>21</v>
+      </c>
+      <c r="I352" s="16"/>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" s="36">
+        <f t="shared" ref="A353:E353" si="314">A352</f>
+        <v>43928</v>
+      </c>
+      <c r="B353" s="4" t="str">
+        <f t="shared" si="314"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C353" s="37">
+        <f t="shared" si="314"/>
+        <v>43928</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E353" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G353" s="31">
+        <v>44123</v>
+      </c>
+      <c r="H353" s="52">
+        <v>82</v>
+      </c>
+      <c r="I353" s="16"/>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" s="36">
+        <f t="shared" ref="A354:E354" si="315">A353</f>
+        <v>43928</v>
+      </c>
+      <c r="B354" s="4" t="str">
+        <f t="shared" si="315"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C354" s="37">
+        <f t="shared" si="315"/>
+        <v>43928</v>
+      </c>
+      <c r="D354" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E354" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G354" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H354" s="52">
+        <v>505</v>
+      </c>
+      <c r="I354" s="16"/>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" s="36">
+        <f t="shared" ref="A355:E355" si="316">A354</f>
+        <v>43928</v>
+      </c>
+      <c r="B355" s="4" t="str">
+        <f t="shared" si="316"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C355" s="37">
+        <f t="shared" si="316"/>
+        <v>43928</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E355" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G355" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H355" s="52">
+        <v>773</v>
+      </c>
+      <c r="I355" s="16"/>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" s="36">
+        <f t="shared" ref="A356:E356" si="317">A355</f>
+        <v>43928</v>
+      </c>
+      <c r="B356" s="4" t="str">
+        <f t="shared" si="317"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C356" s="37">
+        <f t="shared" si="317"/>
+        <v>43928</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E356" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G356" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H356" s="52">
+        <v>795</v>
+      </c>
+      <c r="I356" s="16"/>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" s="36">
+        <f t="shared" ref="A357:E357" si="318">A356</f>
+        <v>43928</v>
+      </c>
+      <c r="B357" s="4" t="str">
+        <f t="shared" si="318"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C357" s="37">
+        <f t="shared" si="318"/>
+        <v>43928</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E357" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G357" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H357" s="52">
+        <v>891</v>
+      </c>
+      <c r="I357" s="16"/>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" s="36">
+        <f t="shared" ref="A358:E358" si="319">A357</f>
+        <v>43928</v>
+      </c>
+      <c r="B358" s="4" t="str">
+        <f t="shared" si="319"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C358" s="37">
+        <f t="shared" si="319"/>
+        <v>43928</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E358" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G358" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H358" s="52">
+        <v>643</v>
+      </c>
+      <c r="I358" s="16"/>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" s="36">
+        <f t="shared" ref="A359:E359" si="320">A358</f>
+        <v>43928</v>
+      </c>
+      <c r="B359" s="4" t="str">
+        <f t="shared" si="320"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C359" s="37">
+        <f t="shared" si="320"/>
+        <v>43928</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E359" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G359" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H359" s="52">
+        <v>445</v>
+      </c>
+      <c r="I359" s="16"/>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" s="36">
+        <f t="shared" ref="A360:E360" si="321">A359</f>
+        <v>43928</v>
+      </c>
+      <c r="B360" s="4" t="str">
+        <f t="shared" si="321"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C360" s="37">
+        <f t="shared" si="321"/>
+        <v>43928</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E360" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G360" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H360" s="52">
+        <v>216</v>
+      </c>
+      <c r="I360" s="16"/>
+    </row>
+    <row r="361" spans="1:9" ht="15" customHeight="1">
+      <c r="A361" s="36">
+        <f>A360</f>
+        <v>43928</v>
+      </c>
+      <c r="B361" s="4" t="str">
+        <f>B360</f>
+        <v>12:37PM</v>
+      </c>
+      <c r="C361" s="37">
+        <f t="shared" ref="C361:C362" si="322">C360</f>
+        <v>43928</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E361" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G361" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H361" s="30">
+        <v>2329</v>
+      </c>
+      <c r="I361" s="16"/>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" s="36">
+        <f>A361</f>
+        <v>43928</v>
+      </c>
+      <c r="B362" s="4" t="str">
+        <f>B361</f>
+        <v>12:37PM</v>
+      </c>
+      <c r="C362" s="37">
+        <f t="shared" si="322"/>
+        <v>43928</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E362" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H362" s="44">
+        <v>2042</v>
       </c>
     </row>
   </sheetData>

--- a/DataMD/MDHealthDepartmentDashboard.xlsx
+++ b/DataMD/MDHealthDepartmentDashboard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" tabRatio="322"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13278" tabRatio="322"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="140">
   <si>
     <t>Anne Arundel</t>
   </si>
@@ -352,6 +352,99 @@
   <si>
     <t>12:37PM</t>
   </si>
+  <si>
+    <t>Female: 2,955      Male: 2,574</t>
+  </si>
+  <si>
+    <t> 49</t>
+  </si>
+  <si>
+    <t> 5,529</t>
+  </si>
+  <si>
+    <t> 32,933</t>
+  </si>
+  <si>
+    <t> 124</t>
+  </si>
+  <si>
+    <t> 365</t>
+  </si>
+  <si>
+    <t>Cases and Deaths by County (deaths):</t>
+  </si>
+  <si>
+    <t>Cases and Deaths by Age Range and Gender (deaths):</t>
+  </si>
+  <si>
+    <t>Female:</t>
+  </si>
+  <si>
+    <t>Male:</t>
+  </si>
+  <si>
+    <t>2,865 </t>
+  </si>
+  <si>
+    <t>Cases and Deaths by Race (deaths):</t>
+  </si>
+  <si>
+    <t>African-American</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Data not available</t>
+  </si>
+  <si>
+    <t>4:42PM</t>
+  </si>
+  <si>
+    <t> 6,185</t>
+  </si>
+  <si>
+    <t> 35,344</t>
+  </si>
+  <si>
+    <t> 138</t>
+  </si>
+  <si>
+    <t> 376</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,348 </t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing </t>
+  </si>
+  <si>
+    <t> 54</t>
+  </si>
+  <si>
+    <t> 64</t>
+  </si>
+  <si>
+    <t> 6,968</t>
+  </si>
+  <si>
+    <t> 37,480</t>
+  </si>
+  <si>
+    <t> 171</t>
+  </si>
+  <si>
+    <t> 397</t>
+  </si>
 </sst>
 </file>
 
@@ -364,7 +457,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +492,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Avenir Next"/>
     </font>
   </fonts>
   <fills count="5">
@@ -440,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -586,6 +688,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -869,24 +990,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N362"/>
+  <dimension ref="A1:N500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I321" sqref="I321:L325"/>
+      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M468" sqref="M468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="36" customWidth="1"/>
-    <col min="2" max="4" width="13.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="1.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="13.41796875" style="36" customWidth="1"/>
+    <col min="2" max="4" width="13.41796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.26171875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="1.83984375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="45.83984375" style="23" customWidth="1"/>
     <col min="8" max="8" width="13" style="44" customWidth="1"/>
     <col min="9" max="9" width="13" style="15" customWidth="1"/>
     <col min="10" max="12" width="13" style="16" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="16"/>
+    <col min="13" max="13" width="9.15625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1">
@@ -1752,9 +1873,8 @@
         <f>H31</f>
         <v> 14,868</v>
       </c>
-      <c r="J30" s="18" t="str">
-        <f>H32</f>
-        <v> 18</v>
+      <c r="J30" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="K30" s="33" t="str">
         <f>H33</f>
@@ -2807,7 +2927,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15.75">
+    <row r="70" spans="1:14" ht="19.5" customHeight="1">
       <c r="A70" s="35">
         <v>43922</v>
       </c>
@@ -2835,9 +2955,8 @@
         <f>H71</f>
         <v> 17,233</v>
       </c>
-      <c r="J70" s="18" t="str">
-        <f>H72</f>
-        <v> 31</v>
+      <c r="J70" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="K70" s="33">
         <f>H73</f>
@@ -2848,7 +2967,7 @@
         <v> 69</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15.75">
+    <row r="71" spans="1:14" ht="19.5" customHeight="1">
       <c r="A71" s="36">
         <f t="shared" ref="A71:C71" si="41">A70</f>
         <v>43922</v>
@@ -2875,7 +2994,7 @@
       <c r="K71" s="18"/>
       <c r="L71" s="18"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75">
+    <row r="72" spans="1:14" ht="19.5" customHeight="1">
       <c r="A72" s="36">
         <f t="shared" ref="A72:C72" si="42">A71</f>
         <v>43922</v>
@@ -2902,7 +3021,7 @@
       <c r="K72" s="18"/>
       <c r="L72" s="18"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75">
+    <row r="73" spans="1:14" ht="19.5" customHeight="1">
       <c r="A73" s="36">
         <f t="shared" ref="A73:C73" si="43">A72</f>
         <v>43922</v>
@@ -2929,7 +3048,7 @@
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75">
+    <row r="74" spans="1:14" ht="19.5" customHeight="1">
       <c r="A74" s="36">
         <f t="shared" ref="A74:C74" si="44">A73</f>
         <v>43922</v>
@@ -2956,7 +3075,7 @@
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75">
+    <row r="75" spans="1:14" ht="19.5" customHeight="1">
       <c r="A75" s="36">
         <f t="shared" ref="A75:C75" si="45">A74</f>
         <v>43922</v>
@@ -2977,7 +3096,7 @@
       </c>
       <c r="H75" s="45"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" ht="19.5" customHeight="1">
       <c r="A76" s="36">
         <f t="shared" ref="A76:C76" si="46">A75</f>
         <v>43922</v>
@@ -3004,7 +3123,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="30">
+    <row r="77" spans="1:14" ht="19.5" customHeight="1">
       <c r="A77" s="36">
         <f t="shared" ref="A77:C77" si="47">A76</f>
         <v>43922</v>
@@ -3031,7 +3150,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="30">
+    <row r="78" spans="1:14" ht="19.5" customHeight="1">
       <c r="A78" s="36">
         <f t="shared" ref="A78:C78" si="48">A77</f>
         <v>43922</v>
@@ -3058,7 +3177,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" ht="19.5" customHeight="1">
       <c r="A79" s="36">
         <f t="shared" ref="A79:C79" si="49">A78</f>
         <v>43922</v>
@@ -3085,7 +3204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" ht="19.5" customHeight="1">
       <c r="A80" s="36">
         <f t="shared" ref="A80:C80" si="50">A79</f>
         <v>43922</v>
@@ -3112,7 +3231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="19.5" customHeight="1">
       <c r="A81" s="36">
         <f t="shared" ref="A81:C81" si="51">A80</f>
         <v>43922</v>
@@ -3139,7 +3258,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" ht="19.5" customHeight="1">
       <c r="A82" s="36">
         <f t="shared" ref="A82:C82" si="52">A81</f>
         <v>43922</v>
@@ -3166,7 +3285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" ht="19.5" customHeight="1">
       <c r="A83" s="36">
         <f t="shared" ref="A83:C83" si="53">A82</f>
         <v>43922</v>
@@ -3193,7 +3312,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" ht="19.5" customHeight="1">
       <c r="A84" s="36">
         <f t="shared" ref="A84:C84" si="54">A83</f>
         <v>43922</v>
@@ -3220,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" ht="19.5" customHeight="1">
       <c r="A85" s="36">
         <f t="shared" ref="A85:C85" si="55">A84</f>
         <v>43922</v>
@@ -3247,7 +3366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" ht="19.5" customHeight="1">
       <c r="A86" s="36">
         <f t="shared" ref="A86:C86" si="56">A85</f>
         <v>43922</v>
@@ -3274,7 +3393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" ht="19.5" customHeight="1">
       <c r="A87" s="36">
         <f t="shared" ref="A87:C87" si="57">A86</f>
         <v>43922</v>
@@ -3301,7 +3420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" ht="19.5" customHeight="1">
       <c r="A88" s="36">
         <f t="shared" ref="A88:C88" si="58">A87</f>
         <v>43922</v>
@@ -3328,7 +3447,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" ht="19.5" customHeight="1">
       <c r="A89" s="36">
         <f t="shared" ref="A89:C89" si="59">A88</f>
         <v>43922</v>
@@ -3355,7 +3474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" ht="19.5" customHeight="1">
       <c r="A90" s="36">
         <f t="shared" ref="A90:C90" si="60">A89</f>
         <v>43922</v>
@@ -3382,7 +3501,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30">
+    <row r="91" spans="1:8" ht="19.5" customHeight="1">
       <c r="A91" s="36">
         <f t="shared" ref="A91:C91" si="61">A90</f>
         <v>43922</v>
@@ -3409,7 +3528,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30">
+    <row r="92" spans="1:8" ht="19.5" customHeight="1">
       <c r="A92" s="36">
         <f t="shared" ref="A92:C92" si="62">A91</f>
         <v>43922</v>
@@ -3436,7 +3555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" ht="19.5" customHeight="1">
       <c r="A93" s="36">
         <f t="shared" ref="A93:C93" si="63">A92</f>
         <v>43922</v>
@@ -3463,7 +3582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" ht="19.5" customHeight="1">
       <c r="A94" s="36">
         <f t="shared" ref="A94:C94" si="64">A93</f>
         <v>43922</v>
@@ -3490,7 +3609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" ht="19.5" customHeight="1">
       <c r="A95" s="36">
         <f t="shared" ref="A95:C95" si="65">A94</f>
         <v>43922</v>
@@ -3517,7 +3636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" ht="19.5" customHeight="1">
       <c r="A96" s="36">
         <f t="shared" ref="A96:C96" si="66">A95</f>
         <v>43922</v>
@@ -3544,7 +3663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" ht="19.5" customHeight="1">
       <c r="A97" s="36">
         <f t="shared" ref="A97:C97" si="67">A96</f>
         <v>43922</v>
@@ -3571,7 +3690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" ht="19.5" customHeight="1">
       <c r="A98" s="36">
         <f t="shared" ref="A98:C98" si="68">A97</f>
         <v>43922</v>
@@ -3598,7 +3717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75">
+    <row r="99" spans="1:12" ht="19.5" customHeight="1">
       <c r="A99" s="36">
         <f t="shared" ref="A99:C99" si="69">A98</f>
         <v>43922</v>
@@ -3619,7 +3738,7 @@
       </c>
       <c r="H99" s="45"/>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" ht="19.5" customHeight="1">
       <c r="A100" s="36">
         <f t="shared" ref="A100:C100" si="70">A99</f>
         <v>43922</v>
@@ -3646,7 +3765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" ht="19.5" customHeight="1">
       <c r="A101" s="36">
         <f t="shared" ref="A101:C101" si="71">A100</f>
         <v>43922</v>
@@ -3673,7 +3792,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" ht="19.5" customHeight="1">
       <c r="A102" s="36">
         <f t="shared" ref="A102:C102" si="72">A101</f>
         <v>43922</v>
@@ -3700,7 +3819,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" ht="19.5" customHeight="1">
       <c r="A103" s="36">
         <f t="shared" ref="A103:C103" si="73">A102</f>
         <v>43922</v>
@@ -3727,7 +3846,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" ht="19.5" customHeight="1">
       <c r="A104" s="36">
         <f t="shared" ref="A104:C104" si="74">A103</f>
         <v>43922</v>
@@ -3754,7 +3873,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" ht="19.5" customHeight="1">
       <c r="A105" s="36">
         <f t="shared" ref="A105:C105" si="75">A104</f>
         <v>43922</v>
@@ -3781,7 +3900,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" ht="19.5" customHeight="1">
       <c r="A106" s="36">
         <f t="shared" ref="A106:C106" si="76">A105</f>
         <v>43922</v>
@@ -3808,7 +3927,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" ht="19.5" customHeight="1">
       <c r="A107" s="36">
         <f t="shared" ref="A107:C107" si="77">A106</f>
         <v>43922</v>
@@ -3835,7 +3954,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" ht="19.5" customHeight="1">
       <c r="A108" s="36">
         <f t="shared" ref="A108:C108" si="78">A107</f>
         <v>43922</v>
@@ -3862,7 +3981,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15" customHeight="1">
+    <row r="109" spans="1:12" ht="19.5" customHeight="1">
       <c r="A109" s="36">
         <f>A108</f>
         <v>43922</v>
@@ -3889,7 +4008,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" ht="19.5" customHeight="1">
       <c r="A110" s="36">
         <f>A109</f>
         <v>43922</v>
@@ -3913,7 +4032,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75">
+    <row r="111" spans="1:12" ht="19.5" customHeight="1">
       <c r="A111" s="35">
         <v>43923</v>
       </c>
@@ -3940,9 +4059,8 @@
         <f>H112</f>
         <v> 18,890</v>
       </c>
-      <c r="J111" s="18" t="str">
-        <f>H113</f>
-        <v> 36</v>
+      <c r="J111" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="K111" s="33" t="str">
         <f>H114</f>
@@ -3953,7 +4071,7 @@
         <v> 81</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75">
+    <row r="112" spans="1:12" ht="19.5" customHeight="1">
       <c r="A112" s="36">
         <f t="shared" ref="A112:C112" si="81">A111</f>
         <v>43923</v>
@@ -3979,7 +4097,7 @@
       <c r="K112" s="18"/>
       <c r="L112" s="18"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75">
+    <row r="113" spans="1:12" ht="19.5" customHeight="1">
       <c r="A113" s="36">
         <f t="shared" ref="A113:C113" si="82">A112</f>
         <v>43923</v>
@@ -4005,7 +4123,7 @@
       <c r="K113" s="18"/>
       <c r="L113" s="18"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75">
+    <row r="114" spans="1:12" ht="19.5" customHeight="1">
       <c r="A114" s="36">
         <f t="shared" ref="A114:C114" si="83">A113</f>
         <v>43923</v>
@@ -4031,7 +4149,7 @@
       <c r="K114" s="18"/>
       <c r="L114" s="18"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75">
+    <row r="115" spans="1:12" ht="19.5" customHeight="1">
       <c r="A115" s="36">
         <f t="shared" ref="A115:C115" si="84">A114</f>
         <v>43923</v>
@@ -4057,7 +4175,7 @@
       <c r="K115" s="18"/>
       <c r="L115" s="18"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75">
+    <row r="116" spans="1:12" ht="19.5" customHeight="1">
       <c r="A116" s="36">
         <f t="shared" ref="A116:C117" si="85">A115</f>
         <v>43923</v>
@@ -4077,7 +4195,7 @@
       </c>
       <c r="H116" s="48"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75">
+    <row r="117" spans="1:12" ht="19.5" customHeight="1">
       <c r="A117" s="36">
         <f t="shared" si="85"/>
         <v>43923</v>
@@ -4103,7 +4221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="31.5">
+    <row r="118" spans="1:12" ht="19.5" customHeight="1">
       <c r="A118" s="36">
         <f t="shared" ref="A118:C118" si="86">A117</f>
         <v>43923</v>
@@ -4129,7 +4247,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="31.5">
+    <row r="119" spans="1:12" ht="19.5" customHeight="1">
       <c r="A119" s="36">
         <f t="shared" ref="A119:C119" si="87">A118</f>
         <v>43923</v>
@@ -4155,7 +4273,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="31.5">
+    <row r="120" spans="1:12" ht="19.5" customHeight="1">
       <c r="A120" s="36">
         <f t="shared" ref="A120:C120" si="88">A119</f>
         <v>43923</v>
@@ -4181,7 +4299,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75">
+    <row r="121" spans="1:12" ht="19.5" customHeight="1">
       <c r="A121" s="36">
         <f t="shared" ref="A121:C121" si="89">A120</f>
         <v>43923</v>
@@ -4207,7 +4325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75">
+    <row r="122" spans="1:12" ht="19.5" customHeight="1">
       <c r="A122" s="36">
         <f t="shared" ref="A122:C122" si="90">A121</f>
         <v>43923</v>
@@ -4233,7 +4351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75">
+    <row r="123" spans="1:12" ht="19.5" customHeight="1">
       <c r="A123" s="36">
         <f t="shared" ref="A123:C123" si="91">A122</f>
         <v>43923</v>
@@ -4259,7 +4377,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75">
+    <row r="124" spans="1:12" ht="19.5" customHeight="1">
       <c r="A124" s="36">
         <f t="shared" ref="A124:C124" si="92">A123</f>
         <v>43923</v>
@@ -4285,7 +4403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75">
+    <row r="125" spans="1:12" ht="19.5" customHeight="1">
       <c r="A125" s="36">
         <f t="shared" ref="A125:C125" si="93">A124</f>
         <v>43923</v>
@@ -4311,7 +4429,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75">
+    <row r="126" spans="1:12" ht="19.5" customHeight="1">
       <c r="A126" s="36">
         <f t="shared" ref="A126:C126" si="94">A125</f>
         <v>43923</v>
@@ -4337,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75">
+    <row r="127" spans="1:12" ht="19.5" customHeight="1">
       <c r="A127" s="36">
         <f t="shared" ref="A127:C127" si="95">A126</f>
         <v>43923</v>
@@ -4363,7 +4481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75">
+    <row r="128" spans="1:12" ht="19.5" customHeight="1">
       <c r="A128" s="36">
         <f t="shared" ref="A128:C128" si="96">A127</f>
         <v>43923</v>
@@ -4389,7 +4507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.75">
+    <row r="129" spans="1:8" ht="19.5" customHeight="1">
       <c r="A129" s="36">
         <f t="shared" ref="A129:C129" si="97">A128</f>
         <v>43923</v>
@@ -4415,7 +4533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15.75">
+    <row r="130" spans="1:8" ht="19.5" customHeight="1">
       <c r="A130" s="36">
         <f t="shared" ref="A130:C130" si="98">A129</f>
         <v>43923</v>
@@ -4441,7 +4559,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.75">
+    <row r="131" spans="1:8" ht="19.5" customHeight="1">
       <c r="A131" s="36">
         <f t="shared" ref="A131:C131" si="99">A130</f>
         <v>43923</v>
@@ -4467,7 +4585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15.75">
+    <row r="132" spans="1:8" ht="19.5" customHeight="1">
       <c r="A132" s="36">
         <f t="shared" ref="A132:C132" si="100">A131</f>
         <v>43923</v>
@@ -4493,7 +4611,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="31.5">
+    <row r="133" spans="1:8" ht="19.5" customHeight="1">
       <c r="A133" s="36">
         <f t="shared" ref="A133:C133" si="101">A132</f>
         <v>43923</v>
@@ -4519,7 +4637,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="31.5">
+    <row r="134" spans="1:8" ht="19.5" customHeight="1">
       <c r="A134" s="36">
         <f t="shared" ref="A134:C134" si="102">A133</f>
         <v>43923</v>
@@ -4545,7 +4663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75">
+    <row r="135" spans="1:8" ht="19.5" customHeight="1">
       <c r="A135" s="36">
         <f t="shared" ref="A135:C135" si="103">A134</f>
         <v>43923</v>
@@ -4571,7 +4689,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15.75">
+    <row r="136" spans="1:8" ht="19.5" customHeight="1">
       <c r="A136" s="36">
         <f t="shared" ref="A136:C136" si="104">A135</f>
         <v>43923</v>
@@ -4597,7 +4715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.75">
+    <row r="137" spans="1:8" ht="19.5" customHeight="1">
       <c r="A137" s="36">
         <f t="shared" ref="A137:C137" si="105">A136</f>
         <v>43923</v>
@@ -4623,7 +4741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75">
+    <row r="138" spans="1:8" ht="19.5" customHeight="1">
       <c r="A138" s="36">
         <f t="shared" ref="A138:C138" si="106">A137</f>
         <v>43923</v>
@@ -4649,7 +4767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15.75">
+    <row r="139" spans="1:8" ht="19.5" customHeight="1">
       <c r="A139" s="36">
         <f t="shared" ref="A139:C139" si="107">A138</f>
         <v>43923</v>
@@ -4675,7 +4793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.75">
+    <row r="140" spans="1:8" ht="19.5" customHeight="1">
       <c r="A140" s="36">
         <f t="shared" ref="A140:C140" si="108">A139</f>
         <v>43923</v>
@@ -4701,7 +4819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.75">
+    <row r="141" spans="1:8" ht="19.5" customHeight="1">
       <c r="A141" s="36">
         <f t="shared" ref="A141:C141" si="109">A140</f>
         <v>43923</v>
@@ -4721,7 +4839,7 @@
       </c>
       <c r="H141" s="48"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" ht="19.5" customHeight="1">
       <c r="A142" s="36">
         <f t="shared" ref="A142:C142" si="110">A141</f>
         <v>43923</v>
@@ -4747,7 +4865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" ht="19.5" customHeight="1">
       <c r="A143" s="36">
         <f t="shared" ref="A143:C143" si="111">A142</f>
         <v>43923</v>
@@ -4773,7 +4891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" ht="19.5" customHeight="1">
       <c r="A144" s="36">
         <f t="shared" ref="A144:C144" si="112">A143</f>
         <v>43923</v>
@@ -4799,7 +4917,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" ht="19.5" customHeight="1">
       <c r="A145" s="36">
         <f t="shared" ref="A145:C145" si="113">A144</f>
         <v>43923</v>
@@ -4825,7 +4943,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" ht="19.5" customHeight="1">
       <c r="A146" s="36">
         <f t="shared" ref="A146:C146" si="114">A145</f>
         <v>43923</v>
@@ -4851,7 +4969,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" ht="19.5" customHeight="1">
       <c r="A147" s="36">
         <f t="shared" ref="A147:C147" si="115">A146</f>
         <v>43923</v>
@@ -4877,7 +4995,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" ht="19.5" customHeight="1">
       <c r="A148" s="36">
         <f t="shared" ref="A148:C148" si="116">A147</f>
         <v>43923</v>
@@ -4903,7 +5021,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" ht="19.5" customHeight="1">
       <c r="A149" s="36">
         <f t="shared" ref="A149:C149" si="117">A148</f>
         <v>43923</v>
@@ -4929,7 +5047,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" ht="19.5" customHeight="1">
       <c r="A150" s="36">
         <f t="shared" ref="A150:C150" si="118">A149</f>
         <v>43923</v>
@@ -4955,7 +5073,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15" customHeight="1">
+    <row r="151" spans="1:12" ht="19.5" customHeight="1">
       <c r="A151" s="36">
         <f>A150</f>
         <v>43923</v>
@@ -4981,7 +5099,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" ht="19.5" customHeight="1">
       <c r="A152" s="36">
         <f>A151</f>
         <v>43923</v>
@@ -5004,7 +5122,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15.75">
+    <row r="153" spans="1:12" ht="19.5" customHeight="1">
       <c r="A153" s="35">
         <v>43924</v>
       </c>
@@ -5031,9 +5149,8 @@
         <f>H154</f>
         <v> 20,932</v>
       </c>
-      <c r="J153" s="18" t="str">
-        <f>H155</f>
-        <v> 42</v>
+      <c r="J153" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="K153" s="33" t="str">
         <f>H156</f>
@@ -5044,7 +5161,7 @@
         <v> 159</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15.75">
+    <row r="154" spans="1:12" ht="19.5" customHeight="1">
       <c r="A154" s="36">
         <f t="shared" ref="A154:C154" si="121">A153</f>
         <v>43924</v>
@@ -5070,7 +5187,7 @@
       <c r="K154" s="18"/>
       <c r="L154" s="18"/>
     </row>
-    <row r="155" spans="1:12" ht="15.75">
+    <row r="155" spans="1:12" ht="19.5" customHeight="1">
       <c r="A155" s="36">
         <f t="shared" ref="A155:C155" si="122">A154</f>
         <v>43924</v>
@@ -5096,7 +5213,7 @@
       <c r="K155" s="18"/>
       <c r="L155" s="18"/>
     </row>
-    <row r="156" spans="1:12" ht="15.75">
+    <row r="156" spans="1:12" ht="19.5" customHeight="1">
       <c r="A156" s="36">
         <f t="shared" ref="A156:C156" si="123">A155</f>
         <v>43924</v>
@@ -5122,7 +5239,7 @@
       <c r="K156" s="18"/>
       <c r="L156" s="18"/>
     </row>
-    <row r="157" spans="1:12" ht="15.75">
+    <row r="157" spans="1:12" ht="19.5" customHeight="1">
       <c r="A157" s="36">
         <f t="shared" ref="A157:C157" si="124">A156</f>
         <v>43924</v>
@@ -5148,7 +5265,7 @@
       <c r="K157" s="18"/>
       <c r="L157" s="18"/>
     </row>
-    <row r="158" spans="1:12" ht="31.5">
+    <row r="158" spans="1:12" ht="19.5" customHeight="1">
       <c r="A158" s="36">
         <f t="shared" ref="A158:C158" si="125">A157</f>
         <v>43924</v>
@@ -5168,7 +5285,7 @@
       </c>
       <c r="H158" s="48"/>
     </row>
-    <row r="159" spans="1:12" ht="15.75">
+    <row r="159" spans="1:12" ht="19.5" customHeight="1">
       <c r="A159" s="36">
         <f t="shared" ref="A159:C159" si="126">A158</f>
         <v>43924</v>
@@ -5194,7 +5311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="31.5">
+    <row r="160" spans="1:12" ht="19.5" customHeight="1">
       <c r="A160" s="36">
         <f t="shared" ref="A160:C160" si="127">A159</f>
         <v>43924</v>
@@ -5226,7 +5343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="31.5">
+    <row r="161" spans="1:10" ht="19.5" customHeight="1">
       <c r="A161" s="36">
         <f t="shared" ref="A161:C161" si="128">A160</f>
         <v>43924</v>
@@ -5258,7 +5375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="31.5">
+    <row r="162" spans="1:10" ht="19.5" customHeight="1">
       <c r="A162" s="36">
         <f t="shared" ref="A162:C162" si="129">A161</f>
         <v>43924</v>
@@ -5290,7 +5407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15.75">
+    <row r="163" spans="1:10" ht="19.5" customHeight="1">
       <c r="A163" s="36">
         <f t="shared" ref="A163:C163" si="130">A162</f>
         <v>43924</v>
@@ -5322,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15.75">
+    <row r="164" spans="1:10" ht="19.5" customHeight="1">
       <c r="A164" s="36">
         <f t="shared" ref="A164:C164" si="131">A163</f>
         <v>43924</v>
@@ -5348,7 +5465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15.75">
+    <row r="165" spans="1:10" ht="19.5" customHeight="1">
       <c r="A165" s="36">
         <f t="shared" ref="A165:C165" si="132">A164</f>
         <v>43924</v>
@@ -5380,7 +5497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15.75">
+    <row r="166" spans="1:10" ht="19.5" customHeight="1">
       <c r="A166" s="36">
         <f t="shared" ref="A166:C166" si="133">A165</f>
         <v>43924</v>
@@ -5412,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15.75">
+    <row r="167" spans="1:10" ht="19.5" customHeight="1">
       <c r="A167" s="36">
         <f t="shared" ref="A167:C167" si="134">A166</f>
         <v>43924</v>
@@ -5444,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15.75">
+    <row r="168" spans="1:10" ht="19.5" customHeight="1">
       <c r="A168" s="36">
         <f t="shared" ref="A168:C168" si="135">A167</f>
         <v>43924</v>
@@ -5470,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15.75">
+    <row r="169" spans="1:10" ht="19.5" customHeight="1">
       <c r="A169" s="36">
         <f t="shared" ref="A169:C169" si="136">A168</f>
         <v>43924</v>
@@ -5502,7 +5619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15.75">
+    <row r="170" spans="1:10" ht="19.5" customHeight="1">
       <c r="A170" s="36">
         <f t="shared" ref="A170:C170" si="137">A169</f>
         <v>43924</v>
@@ -5528,7 +5645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15.75">
+    <row r="171" spans="1:10" ht="19.5" customHeight="1">
       <c r="A171" s="36">
         <f t="shared" ref="A171:C171" si="138">A170</f>
         <v>43924</v>
@@ -5554,7 +5671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15.75">
+    <row r="172" spans="1:10" ht="19.5" customHeight="1">
       <c r="A172" s="36">
         <f t="shared" ref="A172:C172" si="139">A171</f>
         <v>43924</v>
@@ -5586,7 +5703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15.75">
+    <row r="173" spans="1:10" ht="19.5" customHeight="1">
       <c r="A173" s="36">
         <f t="shared" ref="A173:C173" si="140">A172</f>
         <v>43924</v>
@@ -5612,7 +5729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15.75">
+    <row r="174" spans="1:10" ht="19.5" customHeight="1">
       <c r="A174" s="36">
         <f t="shared" ref="A174:C174" si="141">A173</f>
         <v>43924</v>
@@ -5644,7 +5761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="31.5">
+    <row r="175" spans="1:10" ht="19.5" customHeight="1">
       <c r="A175" s="36">
         <f t="shared" ref="A175:C175" si="142">A174</f>
         <v>43924</v>
@@ -5676,7 +5793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="31.5">
+    <row r="176" spans="1:10" ht="19.5" customHeight="1">
       <c r="A176" s="36">
         <f t="shared" ref="A176:C176" si="143">A175</f>
         <v>43924</v>
@@ -5702,7 +5819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.75">
+    <row r="177" spans="1:10" ht="19.5" customHeight="1">
       <c r="A177" s="36">
         <f t="shared" ref="A177:C177" si="144">A176</f>
         <v>43924</v>
@@ -5728,7 +5845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15.75">
+    <row r="178" spans="1:10" ht="19.5" customHeight="1">
       <c r="A178" s="36">
         <f t="shared" ref="A178:C178" si="145">A177</f>
         <v>43924</v>
@@ -5754,7 +5871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15.75">
+    <row r="179" spans="1:10" ht="19.5" customHeight="1">
       <c r="A179" s="36">
         <f t="shared" ref="A179:C179" si="146">A178</f>
         <v>43924</v>
@@ -5780,7 +5897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75">
+    <row r="180" spans="1:10" ht="19.5" customHeight="1">
       <c r="A180" s="36">
         <f t="shared" ref="A180:C180" si="147">A179</f>
         <v>43924</v>
@@ -5806,7 +5923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.75">
+    <row r="181" spans="1:10" ht="19.5" customHeight="1">
       <c r="A181" s="36">
         <f t="shared" ref="A181:C181" si="148">A180</f>
         <v>43924</v>
@@ -5838,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15.75">
+    <row r="182" spans="1:10" ht="19.5" customHeight="1">
       <c r="A182" s="36">
         <f t="shared" ref="A182:C182" si="149">A181</f>
         <v>43924</v>
@@ -5864,7 +5981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15.75">
+    <row r="183" spans="1:10" ht="19.5" customHeight="1">
       <c r="A183" s="36">
         <f t="shared" ref="A183:C183" si="150">A182</f>
         <v>43924</v>
@@ -5884,7 +6001,7 @@
       </c>
       <c r="H183" s="48"/>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" ht="19.5" customHeight="1">
       <c r="A184" s="36">
         <f t="shared" ref="A184:C184" si="151">A183</f>
         <v>43924</v>
@@ -5910,7 +6027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" ht="19.5" customHeight="1">
       <c r="A185" s="36">
         <f t="shared" ref="A185:C185" si="152">A184</f>
         <v>43924</v>
@@ -5936,7 +6053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" ht="19.5" customHeight="1">
       <c r="A186" s="36">
         <f t="shared" ref="A186:C186" si="153">A185</f>
         <v>43924</v>
@@ -5962,7 +6079,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" ht="19.5" customHeight="1">
       <c r="A187" s="36">
         <f t="shared" ref="A187:C187" si="154">A186</f>
         <v>43924</v>
@@ -5988,7 +6105,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" ht="19.5" customHeight="1">
       <c r="A188" s="36">
         <f t="shared" ref="A188:C188" si="155">A187</f>
         <v>43924</v>
@@ -6014,7 +6131,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" ht="19.5" customHeight="1">
       <c r="A189" s="36">
         <f t="shared" ref="A189:C189" si="156">A188</f>
         <v>43924</v>
@@ -6040,7 +6157,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" ht="19.5" customHeight="1">
       <c r="A190" s="36">
         <f t="shared" ref="A190:C190" si="157">A189</f>
         <v>43924</v>
@@ -6066,7 +6183,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" ht="19.5" customHeight="1">
       <c r="A191" s="36">
         <f t="shared" ref="A191:C191" si="158">A190</f>
         <v>43924</v>
@@ -6092,7 +6209,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" ht="19.5" customHeight="1">
       <c r="A192" s="36">
         <f t="shared" ref="A192:C192" si="159">A191</f>
         <v>43924</v>
@@ -6118,7 +6235,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="15" customHeight="1">
+    <row r="193" spans="1:12" ht="19.5" customHeight="1">
       <c r="A193" s="36">
         <f>A192</f>
         <v>43924</v>
@@ -6144,7 +6261,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" ht="19.5" customHeight="1">
       <c r="A194" s="36">
         <f>A193</f>
         <v>43924</v>
@@ -6167,7 +6284,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="15.75">
+    <row r="195" spans="1:12" ht="19.5" customHeight="1">
       <c r="A195" s="35">
         <v>43925</v>
       </c>
@@ -6194,9 +6311,8 @@
         <f>H196</f>
         <v> 22,485</v>
       </c>
-      <c r="J195" s="18" t="str">
-        <f>H197</f>
-        <v> 53</v>
+      <c r="J195" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="K195" s="33">
         <f>H198</f>
@@ -6207,7 +6323,7 @@
         <v> 159</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="15.75">
+    <row r="196" spans="1:12" ht="19.5" customHeight="1">
       <c r="A196" s="36">
         <f t="shared" ref="A196:C196" si="162">A195</f>
         <v>43925</v>
@@ -6233,7 +6349,7 @@
       <c r="K196" s="18"/>
       <c r="L196" s="18"/>
     </row>
-    <row r="197" spans="1:12" ht="15.75">
+    <row r="197" spans="1:12" ht="19.5" customHeight="1">
       <c r="A197" s="36">
         <f t="shared" ref="A197:C197" si="163">A196</f>
         <v>43925</v>
@@ -6259,7 +6375,7 @@
       <c r="K197" s="18"/>
       <c r="L197" s="18"/>
     </row>
-    <row r="198" spans="1:12" ht="15.75">
+    <row r="198" spans="1:12" ht="19.5" customHeight="1">
       <c r="A198" s="36">
         <f t="shared" ref="A198:C198" si="164">A197</f>
         <v>43925</v>
@@ -6285,7 +6401,7 @@
       <c r="K198" s="18"/>
       <c r="L198" s="18"/>
     </row>
-    <row r="199" spans="1:12" ht="15.75">
+    <row r="199" spans="1:12" ht="19.5" customHeight="1">
       <c r="A199" s="36">
         <f t="shared" ref="A199:C199" si="165">A198</f>
         <v>43925</v>
@@ -6311,7 +6427,7 @@
       <c r="K199" s="18"/>
       <c r="L199" s="18"/>
     </row>
-    <row r="200" spans="1:12" ht="31.5">
+    <row r="200" spans="1:12" ht="19.5" customHeight="1">
       <c r="A200" s="36">
         <f t="shared" ref="A200:C200" si="166">A199</f>
         <v>43925</v>
@@ -6331,7 +6447,7 @@
       </c>
       <c r="H200" s="48"/>
     </row>
-    <row r="201" spans="1:12" ht="15.75">
+    <row r="201" spans="1:12" ht="19.5" customHeight="1">
       <c r="A201" s="36">
         <f t="shared" ref="A201:C201" si="167">A200</f>
         <v>43925</v>
@@ -6357,7 +6473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="31.5">
+    <row r="202" spans="1:12" ht="19.5" customHeight="1">
       <c r="A202" s="36">
         <f t="shared" ref="A202:C202" si="168">A201</f>
         <v>43925</v>
@@ -6389,7 +6505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="31.5">
+    <row r="203" spans="1:12" ht="19.5" customHeight="1">
       <c r="A203" s="36">
         <f t="shared" ref="A203:C203" si="169">A202</f>
         <v>43925</v>
@@ -6421,7 +6537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="31.5">
+    <row r="204" spans="1:12" ht="19.5" customHeight="1">
       <c r="A204" s="36">
         <f t="shared" ref="A204:C204" si="170">A203</f>
         <v>43925</v>
@@ -6453,7 +6569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15.75">
+    <row r="205" spans="1:12" ht="19.5" customHeight="1">
       <c r="A205" s="36">
         <f t="shared" ref="A205:C205" si="171">A204</f>
         <v>43925</v>
@@ -6485,7 +6601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15.75">
+    <row r="206" spans="1:12" ht="19.5" customHeight="1">
       <c r="A206" s="36">
         <f t="shared" ref="A206:C206" si="172">A205</f>
         <v>43925</v>
@@ -6511,7 +6627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="15.75">
+    <row r="207" spans="1:12" ht="19.5" customHeight="1">
       <c r="A207" s="36">
         <f t="shared" ref="A207:C207" si="173">A206</f>
         <v>43925</v>
@@ -6543,7 +6659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="15.75">
+    <row r="208" spans="1:12" ht="19.5" customHeight="1">
       <c r="A208" s="36">
         <f t="shared" ref="A208:C208" si="174">A207</f>
         <v>43925</v>
@@ -6575,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="15.75">
+    <row r="209" spans="1:10" ht="19.5" customHeight="1">
       <c r="A209" s="36">
         <f t="shared" ref="A209:C209" si="175">A208</f>
         <v>43925</v>
@@ -6607,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15.75">
+    <row r="210" spans="1:10" ht="19.5" customHeight="1">
       <c r="A210" s="36">
         <f t="shared" ref="A210:C210" si="176">A209</f>
         <v>43925</v>
@@ -6633,7 +6749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15.75">
+    <row r="211" spans="1:10" ht="19.5" customHeight="1">
       <c r="A211" s="36">
         <f t="shared" ref="A211:C211" si="177">A210</f>
         <v>43925</v>
@@ -6665,7 +6781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="15.75">
+    <row r="212" spans="1:10" ht="19.5" customHeight="1">
       <c r="A212" s="36">
         <f t="shared" ref="A212:C212" si="178">A211</f>
         <v>43925</v>
@@ -6691,7 +6807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="15.75">
+    <row r="213" spans="1:10" ht="19.5" customHeight="1">
       <c r="A213" s="36">
         <f t="shared" ref="A213:C213" si="179">A212</f>
         <v>43925</v>
@@ -6717,7 +6833,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="15.75">
+    <row r="214" spans="1:10" ht="19.5" customHeight="1">
       <c r="A214" s="36">
         <f t="shared" ref="A214:C214" si="180">A213</f>
         <v>43925</v>
@@ -6749,7 +6865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="15.75">
+    <row r="215" spans="1:10" ht="19.5" customHeight="1">
       <c r="A215" s="36">
         <f t="shared" ref="A215:C215" si="181">A214</f>
         <v>43925</v>
@@ -6775,7 +6891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="15.75">
+    <row r="216" spans="1:10" ht="19.5" customHeight="1">
       <c r="A216" s="36">
         <f t="shared" ref="A216:C216" si="182">A215</f>
         <v>43925</v>
@@ -6807,7 +6923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="31.5">
+    <row r="217" spans="1:10" ht="19.5" customHeight="1">
       <c r="A217" s="36">
         <f t="shared" ref="A217:C217" si="183">A216</f>
         <v>43925</v>
@@ -6839,7 +6955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="31.5">
+    <row r="218" spans="1:10" ht="19.5" customHeight="1">
       <c r="A218" s="36">
         <f t="shared" ref="A218:C218" si="184">A217</f>
         <v>43925</v>
@@ -6865,7 +6981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="15.75">
+    <row r="219" spans="1:10" ht="19.5" customHeight="1">
       <c r="A219" s="36">
         <f t="shared" ref="A219:C219" si="185">A218</f>
         <v>43925</v>
@@ -6891,7 +7007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="15.75">
+    <row r="220" spans="1:10" ht="19.5" customHeight="1">
       <c r="A220" s="36">
         <f t="shared" ref="A220:C220" si="186">A219</f>
         <v>43925</v>
@@ -6917,7 +7033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="15.75">
+    <row r="221" spans="1:10" ht="19.5" customHeight="1">
       <c r="A221" s="36">
         <f t="shared" ref="A221:C221" si="187">A220</f>
         <v>43925</v>
@@ -6943,7 +7059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="15.75">
+    <row r="222" spans="1:10" ht="19.5" customHeight="1">
       <c r="A222" s="36">
         <f t="shared" ref="A222:C222" si="188">A221</f>
         <v>43925</v>
@@ -6969,7 +7085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="15.75">
+    <row r="223" spans="1:10" ht="19.5" customHeight="1">
       <c r="A223" s="36">
         <f t="shared" ref="A223:C223" si="189">A222</f>
         <v>43925</v>
@@ -7001,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="15.75">
+    <row r="224" spans="1:10" ht="19.5" customHeight="1">
       <c r="A224" s="36">
         <f t="shared" ref="A224:C224" si="190">A223</f>
         <v>43925</v>
@@ -7027,7 +7143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="15.75">
+    <row r="225" spans="1:12" ht="19.5" customHeight="1">
       <c r="A225" s="36">
         <f t="shared" ref="A225:C225" si="191">A224</f>
         <v>43925</v>
@@ -7047,7 +7163,7 @@
       </c>
       <c r="H225" s="48"/>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" ht="19.5" customHeight="1">
       <c r="A226" s="36">
         <f t="shared" ref="A226:C226" si="192">A225</f>
         <v>43925</v>
@@ -7073,7 +7189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" ht="19.5" customHeight="1">
       <c r="A227" s="36">
         <f t="shared" ref="A227:C227" si="193">A226</f>
         <v>43925</v>
@@ -7099,7 +7215,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" ht="19.5" customHeight="1">
       <c r="A228" s="36">
         <f t="shared" ref="A228:C228" si="194">A227</f>
         <v>43925</v>
@@ -7125,7 +7241,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" ht="19.5" customHeight="1">
       <c r="A229" s="36">
         <f t="shared" ref="A229:C229" si="195">A228</f>
         <v>43925</v>
@@ -7151,7 +7267,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" ht="19.5" customHeight="1">
       <c r="A230" s="36">
         <f t="shared" ref="A230:C230" si="196">A229</f>
         <v>43925</v>
@@ -7177,7 +7293,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" ht="19.5" customHeight="1">
       <c r="A231" s="36">
         <f t="shared" ref="A231:C231" si="197">A230</f>
         <v>43925</v>
@@ -7203,7 +7319,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" ht="19.5" customHeight="1">
       <c r="A232" s="36">
         <f t="shared" ref="A232:C232" si="198">A231</f>
         <v>43925</v>
@@ -7229,7 +7345,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" ht="19.5" customHeight="1">
       <c r="A233" s="36">
         <f t="shared" ref="A233:C233" si="199">A232</f>
         <v>43925</v>
@@ -7255,7 +7371,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" ht="19.5" customHeight="1">
       <c r="A234" s="36">
         <f t="shared" ref="A234:C234" si="200">A233</f>
         <v>43925</v>
@@ -7281,7 +7397,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="15" customHeight="1">
+    <row r="235" spans="1:12" ht="19.5" customHeight="1">
       <c r="A235" s="36">
         <f>A234</f>
         <v>43925</v>
@@ -7307,7 +7423,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" ht="19.5" customHeight="1">
       <c r="A236" s="36">
         <f>A235</f>
         <v>43925</v>
@@ -7330,7 +7446,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="15.75">
+    <row r="237" spans="1:12" ht="19.5" customHeight="1">
       <c r="A237" s="35">
         <v>43926</v>
       </c>
@@ -7357,9 +7473,8 @@
         <f>H238</f>
         <v> 24,728</v>
       </c>
-      <c r="J237" s="18" t="str">
-        <f>H239</f>
-        <v> 67</v>
+      <c r="J237" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="K237" s="33">
         <f>H240</f>
@@ -7370,7 +7485,7 @@
         <v> 159</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="15.75">
+    <row r="238" spans="1:12" ht="19.5" customHeight="1">
       <c r="A238" s="36">
         <f t="shared" ref="A238:C238" si="203">A237</f>
         <v>43926</v>
@@ -7396,7 +7511,7 @@
       <c r="K238" s="18"/>
       <c r="L238" s="18"/>
     </row>
-    <row r="239" spans="1:12" ht="15.75">
+    <row r="239" spans="1:12" ht="19.5" customHeight="1">
       <c r="A239" s="36">
         <f t="shared" ref="A239:C239" si="204">A238</f>
         <v>43926</v>
@@ -7422,7 +7537,7 @@
       <c r="K239" s="18"/>
       <c r="L239" s="18"/>
     </row>
-    <row r="240" spans="1:12" ht="15.75">
+    <row r="240" spans="1:12" ht="19.5" customHeight="1">
       <c r="A240" s="36">
         <f t="shared" ref="A240:C240" si="205">A239</f>
         <v>43926</v>
@@ -7448,7 +7563,7 @@
       <c r="K240" s="18"/>
       <c r="L240" s="18"/>
     </row>
-    <row r="241" spans="1:12" ht="15.75">
+    <row r="241" spans="1:12" ht="19.5" customHeight="1">
       <c r="A241" s="36">
         <f t="shared" ref="A241:C241" si="206">A240</f>
         <v>43926</v>
@@ -7474,7 +7589,7 @@
       <c r="K241" s="18"/>
       <c r="L241" s="18"/>
     </row>
-    <row r="242" spans="1:12" ht="31.5">
+    <row r="242" spans="1:12" ht="19.5" customHeight="1">
       <c r="A242" s="36">
         <f t="shared" ref="A242:C242" si="207">A241</f>
         <v>43926</v>
@@ -7494,7 +7609,7 @@
       </c>
       <c r="H242" s="48"/>
     </row>
-    <row r="243" spans="1:12" ht="15.75">
+    <row r="243" spans="1:12" ht="19.5" customHeight="1">
       <c r="A243" s="36">
         <f t="shared" ref="A243:C243" si="208">A242</f>
         <v>43926</v>
@@ -7520,7 +7635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="31.5">
+    <row r="244" spans="1:12" ht="19.5" customHeight="1">
       <c r="A244" s="36">
         <f t="shared" ref="A244:C244" si="209">A243</f>
         <v>43926</v>
@@ -7552,7 +7667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="31.5">
+    <row r="245" spans="1:12" ht="19.5" customHeight="1">
       <c r="A245" s="36">
         <f t="shared" ref="A245:C245" si="210">A244</f>
         <v>43926</v>
@@ -7584,7 +7699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="31.5">
+    <row r="246" spans="1:12" ht="19.5" customHeight="1">
       <c r="A246" s="36">
         <f t="shared" ref="A246:C246" si="211">A245</f>
         <v>43926</v>
@@ -7616,7 +7731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="15.75">
+    <row r="247" spans="1:12" ht="19.5" customHeight="1">
       <c r="A247" s="36">
         <f t="shared" ref="A247:C247" si="212">A246</f>
         <v>43926</v>
@@ -7648,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="15.75">
+    <row r="248" spans="1:12" ht="19.5" customHeight="1">
       <c r="A248" s="36">
         <f t="shared" ref="A248:C248" si="213">A247</f>
         <v>43926</v>
@@ -7674,7 +7789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="15.75">
+    <row r="249" spans="1:12" ht="19.5" customHeight="1">
       <c r="A249" s="36">
         <f t="shared" ref="A249:C249" si="214">A248</f>
         <v>43926</v>
@@ -7706,7 +7821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="15.75">
+    <row r="250" spans="1:12" ht="19.5" customHeight="1">
       <c r="A250" s="36">
         <f t="shared" ref="A250:C250" si="215">A249</f>
         <v>43926</v>
@@ -7738,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="15.75">
+    <row r="251" spans="1:12" ht="19.5" customHeight="1">
       <c r="A251" s="36">
         <f t="shared" ref="A251:C251" si="216">A250</f>
         <v>43926</v>
@@ -7770,7 +7885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="15.75">
+    <row r="252" spans="1:12" ht="19.5" customHeight="1">
       <c r="A252" s="36">
         <f t="shared" ref="A252:C252" si="217">A251</f>
         <v>43926</v>
@@ -7796,7 +7911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="15.75">
+    <row r="253" spans="1:12" ht="19.5" customHeight="1">
       <c r="A253" s="36">
         <f t="shared" ref="A253:C253" si="218">A252</f>
         <v>43926</v>
@@ -7828,7 +7943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="15.75">
+    <row r="254" spans="1:12" ht="19.5" customHeight="1">
       <c r="A254" s="36">
         <f t="shared" ref="A254:C254" si="219">A253</f>
         <v>43926</v>
@@ -7854,7 +7969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="15.75">
+    <row r="255" spans="1:12" ht="19.5" customHeight="1">
       <c r="A255" s="36">
         <f t="shared" ref="A255:C255" si="220">A254</f>
         <v>43926</v>
@@ -7880,7 +7995,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="15.75">
+    <row r="256" spans="1:12" ht="19.5" customHeight="1">
       <c r="A256" s="36">
         <f t="shared" ref="A256:C256" si="221">A255</f>
         <v>43926</v>
@@ -7912,7 +8027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="15.75">
+    <row r="257" spans="1:10" ht="19.5" customHeight="1">
       <c r="A257" s="36">
         <f t="shared" ref="A257:C257" si="222">A256</f>
         <v>43926</v>
@@ -7938,7 +8053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="15.75">
+    <row r="258" spans="1:10" ht="19.5" customHeight="1">
       <c r="A258" s="36">
         <f t="shared" ref="A258:C258" si="223">A257</f>
         <v>43926</v>
@@ -7970,7 +8085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="31.5">
+    <row r="259" spans="1:10" ht="19.5" customHeight="1">
       <c r="A259" s="36">
         <f t="shared" ref="A259:C259" si="224">A258</f>
         <v>43926</v>
@@ -8002,7 +8117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="31.5">
+    <row r="260" spans="1:10" ht="19.5" customHeight="1">
       <c r="A260" s="36">
         <f t="shared" ref="A260:C260" si="225">A259</f>
         <v>43926</v>
@@ -8028,7 +8143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="15.75">
+    <row r="261" spans="1:10" ht="19.5" customHeight="1">
       <c r="A261" s="36">
         <f t="shared" ref="A261:C261" si="226">A260</f>
         <v>43926</v>
@@ -8054,7 +8169,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="15.75">
+    <row r="262" spans="1:10" ht="19.5" customHeight="1">
       <c r="A262" s="36">
         <f t="shared" ref="A262:C262" si="227">A261</f>
         <v>43926</v>
@@ -8080,7 +8195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="15.75">
+    <row r="263" spans="1:10" ht="19.5" customHeight="1">
       <c r="A263" s="36">
         <f t="shared" ref="A263:C263" si="228">A262</f>
         <v>43926</v>
@@ -8106,7 +8221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="15.75">
+    <row r="264" spans="1:10" ht="19.5" customHeight="1">
       <c r="A264" s="36">
         <f t="shared" ref="A264:C264" si="229">A263</f>
         <v>43926</v>
@@ -8132,7 +8247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="15.75">
+    <row r="265" spans="1:10" ht="19.5" customHeight="1">
       <c r="A265" s="36">
         <f t="shared" ref="A265:C265" si="230">A264</f>
         <v>43926</v>
@@ -8164,7 +8279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="15.75">
+    <row r="266" spans="1:10" ht="19.5" customHeight="1">
       <c r="A266" s="36">
         <f t="shared" ref="A266:C266" si="231">A265</f>
         <v>43926</v>
@@ -8190,7 +8305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="15.75">
+    <row r="267" spans="1:10" ht="19.5" customHeight="1">
       <c r="A267" s="36">
         <f t="shared" ref="A267:C267" si="232">A266</f>
         <v>43926</v>
@@ -8210,7 +8325,7 @@
       </c>
       <c r="H267" s="48"/>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" ht="19.5" customHeight="1">
       <c r="A268" s="36">
         <f t="shared" ref="A268:C268" si="233">A267</f>
         <v>43926</v>
@@ -8236,7 +8351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" ht="19.5" customHeight="1">
       <c r="A269" s="36">
         <f t="shared" ref="A269:C269" si="234">A268</f>
         <v>43926</v>
@@ -8262,7 +8377,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" ht="19.5" customHeight="1">
       <c r="A270" s="36">
         <f t="shared" ref="A270:C270" si="235">A269</f>
         <v>43926</v>
@@ -8288,7 +8403,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" ht="19.5" customHeight="1">
       <c r="A271" s="36">
         <f t="shared" ref="A271:C271" si="236">A270</f>
         <v>43926</v>
@@ -8314,7 +8429,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" ht="19.5" customHeight="1">
       <c r="A272" s="36">
         <f t="shared" ref="A272:C272" si="237">A271</f>
         <v>43926</v>
@@ -8340,7 +8455,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" ht="19.5" customHeight="1">
       <c r="A273" s="36">
         <f t="shared" ref="A273:C273" si="238">A272</f>
         <v>43926</v>
@@ -8366,7 +8481,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" ht="19.5" customHeight="1">
       <c r="A274" s="36">
         <f t="shared" ref="A274:C274" si="239">A273</f>
         <v>43926</v>
@@ -8392,7 +8507,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" ht="19.5" customHeight="1">
       <c r="A275" s="36">
         <f t="shared" ref="A275:C275" si="240">A274</f>
         <v>43926</v>
@@ -8418,7 +8533,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" ht="19.5" customHeight="1">
       <c r="A276" s="36">
         <f t="shared" ref="A276:C278" si="241">A275</f>
         <v>43926</v>
@@ -8444,7 +8559,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="15" customHeight="1">
+    <row r="277" spans="1:12" ht="19.5" customHeight="1">
       <c r="A277" s="36">
         <f>A276</f>
         <v>43926</v>
@@ -8470,7 +8585,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" ht="19.5" customHeight="1">
       <c r="A278" s="36">
         <f>A277</f>
         <v>43926</v>
@@ -8493,7 +8608,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="15.75">
+    <row r="279" spans="1:12" ht="19.5" customHeight="1">
       <c r="A279" s="35">
         <v>43927</v>
       </c>
@@ -8520,9 +8635,8 @@
         <f>H280</f>
         <v> 25,572</v>
       </c>
-      <c r="J279" s="18" t="str">
-        <f>H281</f>
-        <v> 91</v>
+      <c r="J279" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="K279" s="33">
         <f>H282</f>
@@ -8533,7 +8647,7 @@
         <v> 184</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="15.75">
+    <row r="280" spans="1:12" ht="19.5" customHeight="1">
       <c r="A280" s="36">
         <f t="shared" ref="A280:C280" si="242">A279</f>
         <v>43927</v>
@@ -8559,7 +8673,7 @@
       <c r="K280" s="18"/>
       <c r="L280" s="18"/>
     </row>
-    <row r="281" spans="1:12" ht="15.75">
+    <row r="281" spans="1:12" ht="19.5" customHeight="1">
       <c r="A281" s="36">
         <f t="shared" ref="A281:C281" si="243">A280</f>
         <v>43927</v>
@@ -8585,7 +8699,7 @@
       <c r="K281" s="18"/>
       <c r="L281" s="18"/>
     </row>
-    <row r="282" spans="1:12" ht="15.75">
+    <row r="282" spans="1:12" ht="19.5" customHeight="1">
       <c r="A282" s="36">
         <f t="shared" ref="A282:C282" si="244">A281</f>
         <v>43927</v>
@@ -8611,7 +8725,7 @@
       <c r="K282" s="18"/>
       <c r="L282" s="18"/>
     </row>
-    <row r="283" spans="1:12" ht="15.75">
+    <row r="283" spans="1:12" ht="19.5" customHeight="1">
       <c r="A283" s="36">
         <f t="shared" ref="A283:C283" si="245">A282</f>
         <v>43927</v>
@@ -8637,7 +8751,7 @@
       <c r="K283" s="18"/>
       <c r="L283" s="18"/>
     </row>
-    <row r="284" spans="1:12" ht="31.5">
+    <row r="284" spans="1:12" ht="19.5" customHeight="1">
       <c r="A284" s="36">
         <f t="shared" ref="A284:C284" si="246">A283</f>
         <v>43927</v>
@@ -8657,7 +8771,7 @@
       </c>
       <c r="H284" s="48"/>
     </row>
-    <row r="285" spans="1:12" ht="15.75">
+    <row r="285" spans="1:12" ht="19.5" customHeight="1">
       <c r="A285" s="36">
         <f t="shared" ref="A285:C285" si="247">A284</f>
         <v>43927</v>
@@ -8683,7 +8797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="31.5">
+    <row r="286" spans="1:12" ht="19.5" customHeight="1">
       <c r="A286" s="36">
         <f t="shared" ref="A286:C286" si="248">A285</f>
         <v>43927</v>
@@ -8715,7 +8829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="31.5">
+    <row r="287" spans="1:12" ht="19.5" customHeight="1">
       <c r="A287" s="36">
         <f t="shared" ref="A287:C287" si="249">A286</f>
         <v>43927</v>
@@ -8747,7 +8861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="31.5">
+    <row r="288" spans="1:12" ht="19.5" customHeight="1">
       <c r="A288" s="36">
         <f t="shared" ref="A288:C288" si="250">A287</f>
         <v>43927</v>
@@ -8779,7 +8893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="15.75">
+    <row r="289" spans="1:10" ht="19.5" customHeight="1">
       <c r="A289" s="36">
         <f t="shared" ref="A289:C289" si="251">A288</f>
         <v>43927</v>
@@ -8811,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="15.75">
+    <row r="290" spans="1:10" ht="19.5" customHeight="1">
       <c r="A290" s="36">
         <f t="shared" ref="A290:C290" si="252">A289</f>
         <v>43927</v>
@@ -8837,7 +8951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="15.75">
+    <row r="291" spans="1:10" ht="19.5" customHeight="1">
       <c r="A291" s="36">
         <f t="shared" ref="A291:C291" si="253">A290</f>
         <v>43927</v>
@@ -8869,7 +8983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="15.75">
+    <row r="292" spans="1:10" ht="19.5" customHeight="1">
       <c r="A292" s="36">
         <f t="shared" ref="A292:C292" si="254">A291</f>
         <v>43927</v>
@@ -8901,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="15.75">
+    <row r="293" spans="1:10" ht="19.5" customHeight="1">
       <c r="A293" s="36">
         <f t="shared" ref="A293:C293" si="255">A292</f>
         <v>43927</v>
@@ -8933,7 +9047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="15.75">
+    <row r="294" spans="1:10" ht="19.5" customHeight="1">
       <c r="A294" s="36">
         <f t="shared" ref="A294:C294" si="256">A293</f>
         <v>43927</v>
@@ -8959,7 +9073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="15.75">
+    <row r="295" spans="1:10" ht="19.5" customHeight="1">
       <c r="A295" s="36">
         <f t="shared" ref="A295:C295" si="257">A294</f>
         <v>43927</v>
@@ -8991,7 +9105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="15.75">
+    <row r="296" spans="1:10" ht="19.5" customHeight="1">
       <c r="A296" s="36">
         <f t="shared" ref="A296:C296" si="258">A295</f>
         <v>43927</v>
@@ -9017,7 +9131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="15.75">
+    <row r="297" spans="1:10" ht="19.5" customHeight="1">
       <c r="A297" s="36">
         <f t="shared" ref="A297:C297" si="259">A296</f>
         <v>43927</v>
@@ -9043,7 +9157,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="15.75">
+    <row r="298" spans="1:10" ht="19.5" customHeight="1">
       <c r="A298" s="36">
         <f t="shared" ref="A298:C298" si="260">A297</f>
         <v>43927</v>
@@ -9075,7 +9189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="15.75">
+    <row r="299" spans="1:10" ht="19.5" customHeight="1">
       <c r="A299" s="36">
         <f t="shared" ref="A299:C299" si="261">A298</f>
         <v>43927</v>
@@ -9101,7 +9215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="15.75">
+    <row r="300" spans="1:10" ht="19.5" customHeight="1">
       <c r="A300" s="36">
         <f t="shared" ref="A300:C300" si="262">A299</f>
         <v>43927</v>
@@ -9133,7 +9247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="31.5">
+    <row r="301" spans="1:10" ht="19.5" customHeight="1">
       <c r="A301" s="36">
         <f t="shared" ref="A301:C301" si="263">A300</f>
         <v>43927</v>
@@ -9165,7 +9279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="31.5">
+    <row r="302" spans="1:10" ht="19.5" customHeight="1">
       <c r="A302" s="36">
         <f t="shared" ref="A302:C302" si="264">A301</f>
         <v>43927</v>
@@ -9191,7 +9305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="15.75">
+    <row r="303" spans="1:10" ht="19.5" customHeight="1">
       <c r="A303" s="36">
         <f t="shared" ref="A303:C303" si="265">A302</f>
         <v>43927</v>
@@ -9217,7 +9331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="15.75">
+    <row r="304" spans="1:10" ht="19.5" customHeight="1">
       <c r="A304" s="36">
         <f t="shared" ref="A304:C304" si="266">A303</f>
         <v>43927</v>
@@ -9243,7 +9357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="15.75">
+    <row r="305" spans="1:10" ht="19.5" customHeight="1">
       <c r="A305" s="36">
         <f t="shared" ref="A305:C305" si="267">A304</f>
         <v>43927</v>
@@ -9269,7 +9383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="15.75">
+    <row r="306" spans="1:10" ht="19.5" customHeight="1">
       <c r="A306" s="36">
         <f t="shared" ref="A306:C306" si="268">A305</f>
         <v>43927</v>
@@ -9295,7 +9409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="15.75">
+    <row r="307" spans="1:10" ht="19.5" customHeight="1">
       <c r="A307" s="36">
         <f t="shared" ref="A307:C307" si="269">A306</f>
         <v>43927</v>
@@ -9327,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="15.75">
+    <row r="308" spans="1:10" ht="19.5" customHeight="1">
       <c r="A308" s="36">
         <f t="shared" ref="A308:C308" si="270">A307</f>
         <v>43927</v>
@@ -9353,7 +9467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="15.75">
+    <row r="309" spans="1:10" ht="19.5" customHeight="1">
       <c r="A309" s="36">
         <f t="shared" ref="A309:C309" si="271">A308</f>
         <v>43927</v>
@@ -9373,7 +9487,7 @@
       </c>
       <c r="H309" s="48"/>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" ht="19.5" customHeight="1">
       <c r="A310" s="36">
         <f t="shared" ref="A310:C310" si="272">A309</f>
         <v>43927</v>
@@ -9399,7 +9513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" ht="19.5" customHeight="1">
       <c r="A311" s="36">
         <f t="shared" ref="A311:C311" si="273">A310</f>
         <v>43927</v>
@@ -9425,7 +9539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" ht="19.5" customHeight="1">
       <c r="A312" s="36">
         <f t="shared" ref="A312:C312" si="274">A311</f>
         <v>43927</v>
@@ -9451,7 +9565,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" ht="19.5" customHeight="1">
       <c r="A313" s="36">
         <f t="shared" ref="A313:C313" si="275">A312</f>
         <v>43927</v>
@@ -9477,7 +9591,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" ht="19.5" customHeight="1">
       <c r="A314" s="36">
         <f t="shared" ref="A314:C314" si="276">A313</f>
         <v>43927</v>
@@ -9503,7 +9617,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" ht="19.5" customHeight="1">
       <c r="A315" s="36">
         <f t="shared" ref="A315:C315" si="277">A314</f>
         <v>43927</v>
@@ -9529,7 +9643,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" ht="19.5" customHeight="1">
       <c r="A316" s="36">
         <f t="shared" ref="A316:C316" si="278">A315</f>
         <v>43927</v>
@@ -9555,7 +9669,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" ht="19.5" customHeight="1">
       <c r="A317" s="36">
         <f t="shared" ref="A317:C317" si="279">A316</f>
         <v>43927</v>
@@ -9581,7 +9695,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" ht="19.5" customHeight="1">
       <c r="A318" s="36">
         <f t="shared" ref="A318:C318" si="280">A317</f>
         <v>43927</v>
@@ -9607,7 +9721,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="15" customHeight="1">
+    <row r="319" spans="1:10" ht="19.5" customHeight="1">
       <c r="A319" s="36">
         <f>A318</f>
         <v>43927</v>
@@ -9633,7 +9747,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" ht="19.5" customHeight="1">
       <c r="A320" s="36">
         <f>A319</f>
         <v>43927</v>
@@ -9656,7 +9770,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="15.75">
+    <row r="321" spans="1:12" ht="19.5" customHeight="1">
       <c r="A321" s="35">
         <v>43928</v>
       </c>
@@ -9683,9 +9797,8 @@
         <f>H322</f>
         <v> 27,256</v>
       </c>
-      <c r="J321" s="18" t="str">
-        <f>H323</f>
-        <v> 103</v>
+      <c r="J321" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="K321" s="33">
         <f>H324</f>
@@ -9696,9 +9809,9 @@
         <v> 288</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="15.75">
+    <row r="322" spans="1:12" ht="19.5" customHeight="1">
       <c r="A322" s="36">
-        <f t="shared" ref="A322:E322" si="283">A321</f>
+        <f t="shared" ref="A322:C322" si="283">A321</f>
         <v>43928</v>
       </c>
       <c r="B322" s="4" t="str">
@@ -9722,9 +9835,9 @@
       <c r="K322" s="18"/>
       <c r="L322" s="18"/>
     </row>
-    <row r="323" spans="1:12" ht="15.75">
+    <row r="323" spans="1:12" ht="19.5" customHeight="1">
       <c r="A323" s="36">
-        <f t="shared" ref="A323:E323" si="284">A322</f>
+        <f t="shared" ref="A323:C323" si="284">A322</f>
         <v>43928</v>
       </c>
       <c r="B323" s="4" t="str">
@@ -9748,9 +9861,9 @@
       <c r="K323" s="18"/>
       <c r="L323" s="18"/>
     </row>
-    <row r="324" spans="1:12" ht="15.75">
+    <row r="324" spans="1:12" ht="19.5" customHeight="1">
       <c r="A324" s="36">
-        <f t="shared" ref="A324:E324" si="285">A323</f>
+        <f t="shared" ref="A324:C324" si="285">A323</f>
         <v>43928</v>
       </c>
       <c r="B324" s="4" t="str">
@@ -9774,9 +9887,9 @@
       <c r="K324" s="18"/>
       <c r="L324" s="18"/>
     </row>
-    <row r="325" spans="1:12" ht="15.75">
+    <row r="325" spans="1:12" ht="19.5" customHeight="1">
       <c r="A325" s="36">
-        <f t="shared" ref="A325:E325" si="286">A324</f>
+        <f t="shared" ref="A325:C325" si="286">A324</f>
         <v>43928</v>
       </c>
       <c r="B325" s="4" t="str">
@@ -9800,9 +9913,9 @@
       <c r="K325" s="18"/>
       <c r="L325" s="18"/>
     </row>
-    <row r="326" spans="1:12" ht="31.5">
+    <row r="326" spans="1:12" ht="19.5" customHeight="1">
       <c r="A326" s="36">
-        <f t="shared" ref="A326:E326" si="287">A325</f>
+        <f t="shared" ref="A326:C326" si="287">A325</f>
         <v>43928</v>
       </c>
       <c r="B326" s="4" t="str">
@@ -9821,9 +9934,9 @@
       <c r="H326" s="51"/>
       <c r="I326" s="51"/>
     </row>
-    <row r="327" spans="1:12" ht="15.75">
+    <row r="327" spans="1:12" ht="19.5" customHeight="1">
       <c r="A327" s="36">
-        <f t="shared" ref="A327:E327" si="288">A326</f>
+        <f t="shared" ref="A327:C327" si="288">A326</f>
         <v>43928</v>
       </c>
       <c r="B327" s="4" t="str">
@@ -9846,11 +9959,10 @@
       <c r="H327" s="52">
         <v>7</v>
       </c>
-      <c r="I327" s="16"/>
-    </row>
-    <row r="328" spans="1:12" ht="31.5">
+    </row>
+    <row r="328" spans="1:12" ht="19.5" customHeight="1">
       <c r="A328" s="36">
-        <f t="shared" ref="A328:E328" si="289">A327</f>
+        <f t="shared" ref="A328:C328" si="289">A327</f>
         <v>43928</v>
       </c>
       <c r="B328" s="4" t="str">
@@ -9873,13 +9985,13 @@
       <c r="H328" s="52">
         <v>370</v>
       </c>
-      <c r="I328" s="16">
+      <c r="J328" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="31.5">
+    <row r="329" spans="1:12" ht="19.5" customHeight="1">
       <c r="A329" s="36">
-        <f t="shared" ref="A329:E329" si="290">A328</f>
+        <f t="shared" ref="A329:C329" si="290">A328</f>
         <v>43928</v>
       </c>
       <c r="B329" s="4" t="str">
@@ -9902,13 +10014,13 @@
       <c r="H329" s="52">
         <v>459</v>
       </c>
-      <c r="I329" s="16">
+      <c r="J329" s="16">
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="31.5">
+    <row r="330" spans="1:12" ht="19.5" customHeight="1">
       <c r="A330" s="36">
-        <f t="shared" ref="A330:E330" si="291">A329</f>
+        <f t="shared" ref="A330:C330" si="291">A329</f>
         <v>43928</v>
       </c>
       <c r="B330" s="4" t="str">
@@ -9931,13 +10043,13 @@
       <c r="H330" s="52">
         <v>652</v>
       </c>
-      <c r="I330" s="16">
+      <c r="J330" s="16">
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="15.75">
+    <row r="331" spans="1:12" ht="19.5" customHeight="1">
       <c r="A331" s="36">
-        <f t="shared" ref="A331:E331" si="292">A330</f>
+        <f t="shared" ref="A331:C331" si="292">A330</f>
         <v>43928</v>
       </c>
       <c r="B331" s="4" t="str">
@@ -9960,13 +10072,13 @@
       <c r="H331" s="52">
         <v>41</v>
       </c>
-      <c r="I331" s="16">
+      <c r="J331" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="15.75">
+    <row r="332" spans="1:12" ht="19.5" customHeight="1">
       <c r="A332" s="36">
-        <f t="shared" ref="A332:E332" si="293">A331</f>
+        <f t="shared" ref="A332:C332" si="293">A331</f>
         <v>43928</v>
       </c>
       <c r="B332" s="4" t="str">
@@ -9989,11 +10101,10 @@
       <c r="H332" s="52">
         <v>11</v>
       </c>
-      <c r="I332" s="16"/>
-    </row>
-    <row r="333" spans="1:12" ht="15.75">
+    </row>
+    <row r="333" spans="1:12" ht="19.5" customHeight="1">
       <c r="A333" s="36">
-        <f t="shared" ref="A333:E333" si="294">A332</f>
+        <f t="shared" ref="A333:C333" si="294">A332</f>
         <v>43928</v>
       </c>
       <c r="B333" s="4" t="str">
@@ -10016,13 +10127,13 @@
       <c r="H333" s="52">
         <v>159</v>
       </c>
-      <c r="I333" s="16">
+      <c r="J333" s="16">
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="15.75">
+    <row r="334" spans="1:12" ht="19.5" customHeight="1">
       <c r="A334" s="36">
-        <f t="shared" ref="A334:E334" si="295">A333</f>
+        <f t="shared" ref="A334:C334" si="295">A333</f>
         <v>43928</v>
       </c>
       <c r="B334" s="4" t="str">
@@ -10045,13 +10156,13 @@
       <c r="H334" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="I334" s="16">
+      <c r="J334" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="15.75">
+    <row r="335" spans="1:12" ht="19.5" customHeight="1">
       <c r="A335" s="36">
-        <f t="shared" ref="A335:E335" si="296">A334</f>
+        <f t="shared" ref="A335:C335" si="296">A334</f>
         <v>43928</v>
       </c>
       <c r="B335" s="4" t="str">
@@ -10074,13 +10185,13 @@
       <c r="H335" s="52">
         <v>136</v>
       </c>
-      <c r="I335" s="16">
+      <c r="J335" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="15.75">
+    <row r="336" spans="1:12" ht="19.5" customHeight="1">
       <c r="A336" s="36">
-        <f t="shared" ref="A336:E336" si="297">A335</f>
+        <f t="shared" ref="A336:C336" si="297">A335</f>
         <v>43928</v>
       </c>
       <c r="B336" s="4" t="str">
@@ -10103,11 +10214,10 @@
       <c r="H336" s="52">
         <v>3</v>
       </c>
-      <c r="I336" s="16"/>
-    </row>
-    <row r="337" spans="1:9" ht="15.75">
+    </row>
+    <row r="337" spans="1:10" ht="19.5" customHeight="1">
       <c r="A337" s="36">
-        <f t="shared" ref="A337:E337" si="298">A336</f>
+        <f t="shared" ref="A337:C337" si="298">A336</f>
         <v>43928</v>
       </c>
       <c r="B337" s="4" t="str">
@@ -10130,13 +10240,13 @@
       <c r="H337" s="52">
         <v>151</v>
       </c>
-      <c r="I337" s="16">
+      <c r="J337" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="15.75">
+    <row r="338" spans="1:10" ht="19.5" customHeight="1">
       <c r="A338" s="36">
-        <f t="shared" ref="A338:E338" si="299">A337</f>
+        <f t="shared" ref="A338:C338" si="299">A337</f>
         <v>43928</v>
       </c>
       <c r="B338" s="4" t="str">
@@ -10159,11 +10269,10 @@
       <c r="H338" s="52">
         <v>3</v>
       </c>
-      <c r="I338" s="16"/>
-    </row>
-    <row r="339" spans="1:9" ht="15.75">
+    </row>
+    <row r="339" spans="1:10" ht="19.5" customHeight="1">
       <c r="A339" s="36">
-        <f t="shared" ref="A339:E339" si="300">A338</f>
+        <f t="shared" ref="A339:C339" si="300">A338</f>
         <v>43928</v>
       </c>
       <c r="B339" s="4" t="str">
@@ -10186,11 +10295,10 @@
       <c r="H339" s="52">
         <v>59</v>
       </c>
-      <c r="I339" s="16"/>
-    </row>
-    <row r="340" spans="1:9" ht="15.75">
+    </row>
+    <row r="340" spans="1:10" ht="19.5" customHeight="1">
       <c r="A340" s="36">
-        <f t="shared" ref="A340:E340" si="301">A339</f>
+        <f t="shared" ref="A340:C340" si="301">A339</f>
         <v>43928</v>
       </c>
       <c r="B340" s="4" t="str">
@@ -10213,13 +10321,13 @@
       <c r="H340" s="52">
         <v>236</v>
       </c>
-      <c r="I340" s="16">
+      <c r="J340" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="15.75">
+    <row r="341" spans="1:10" ht="19.5" customHeight="1">
       <c r="A341" s="36">
-        <f t="shared" ref="A341:E341" si="302">A340</f>
+        <f t="shared" ref="A341:C341" si="302">A340</f>
         <v>43928</v>
       </c>
       <c r="B341" s="4" t="str">
@@ -10242,11 +10350,10 @@
       <c r="H341" s="52">
         <v>8</v>
       </c>
-      <c r="I341" s="16"/>
-    </row>
-    <row r="342" spans="1:9" ht="15.75">
+    </row>
+    <row r="342" spans="1:10" ht="19.5" customHeight="1">
       <c r="A342" s="36">
-        <f t="shared" ref="A342:E342" si="303">A341</f>
+        <f t="shared" ref="A342:C342" si="303">A341</f>
         <v>43928</v>
       </c>
       <c r="B342" s="4" t="str">
@@ -10269,13 +10376,13 @@
       <c r="H342" s="52">
         <v>871</v>
       </c>
-      <c r="I342" s="16">
+      <c r="J342" s="16">
         <v>21</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="31.5">
+    <row r="343" spans="1:10" ht="19.5" customHeight="1">
       <c r="A343" s="36">
-        <f t="shared" ref="A343:E343" si="304">A342</f>
+        <f t="shared" ref="A343:C343" si="304">A342</f>
         <v>43928</v>
       </c>
       <c r="B343" s="4" t="str">
@@ -10298,13 +10405,13 @@
       <c r="H343" s="52">
         <v>1020</v>
       </c>
-      <c r="I343" s="16">
+      <c r="J343" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="31.5">
+    <row r="344" spans="1:10" ht="19.5" customHeight="1">
       <c r="A344" s="36">
-        <f t="shared" ref="A344:E344" si="305">A343</f>
+        <f t="shared" ref="A344:C344" si="305">A343</f>
         <v>43928</v>
       </c>
       <c r="B344" s="4" t="str">
@@ -10327,11 +10434,10 @@
       <c r="H344" s="52">
         <v>15</v>
       </c>
-      <c r="I344" s="16"/>
-    </row>
-    <row r="345" spans="1:9" ht="15.75">
+    </row>
+    <row r="345" spans="1:10" ht="19.5" customHeight="1">
       <c r="A345" s="36">
-        <f t="shared" ref="A345:E345" si="306">A344</f>
+        <f t="shared" ref="A345:C345" si="306">A344</f>
         <v>43928</v>
       </c>
       <c r="B345" s="4" t="str">
@@ -10354,11 +10460,10 @@
       <c r="H345" s="52">
         <v>46</v>
       </c>
-      <c r="I345" s="16"/>
-    </row>
-    <row r="346" spans="1:9" ht="15.75">
+    </row>
+    <row r="346" spans="1:10" ht="19.5" customHeight="1">
       <c r="A346" s="36">
-        <f t="shared" ref="A346:E346" si="307">A345</f>
+        <f t="shared" ref="A346:C346" si="307">A345</f>
         <v>43928</v>
       </c>
       <c r="B346" s="4" t="str">
@@ -10381,11 +10486,10 @@
       <c r="H346" s="52">
         <v>4</v>
       </c>
-      <c r="I346" s="16"/>
-    </row>
-    <row r="347" spans="1:9" ht="15.75">
+    </row>
+    <row r="347" spans="1:10" ht="19.5" customHeight="1">
       <c r="A347" s="36">
-        <f t="shared" ref="A347:E347" si="308">A346</f>
+        <f t="shared" ref="A347:C347" si="308">A346</f>
         <v>43928</v>
       </c>
       <c r="B347" s="4" t="str">
@@ -10408,11 +10512,10 @@
       <c r="H347" s="52">
         <v>8</v>
       </c>
-      <c r="I347" s="16"/>
-    </row>
-    <row r="348" spans="1:9" ht="15.75">
+    </row>
+    <row r="348" spans="1:10" ht="19.5" customHeight="1">
       <c r="A348" s="36">
-        <f t="shared" ref="A348:E348" si="309">A347</f>
+        <f t="shared" ref="A348:C348" si="309">A347</f>
         <v>43928</v>
       </c>
       <c r="B348" s="4" t="str">
@@ -10435,11 +10538,10 @@
       <c r="H348" s="52">
         <v>44</v>
       </c>
-      <c r="I348" s="16"/>
-    </row>
-    <row r="349" spans="1:9" ht="15.75">
+    </row>
+    <row r="349" spans="1:10" ht="19.5" customHeight="1">
       <c r="A349" s="36">
-        <f t="shared" ref="A349:E349" si="310">A348</f>
+        <f t="shared" ref="A349:C349" si="310">A348</f>
         <v>43928</v>
       </c>
       <c r="B349" s="4" t="str">
@@ -10462,13 +10564,13 @@
       <c r="H349" s="52">
         <v>17</v>
       </c>
-      <c r="I349" s="16">
+      <c r="J349" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="15.75">
+    <row r="350" spans="1:10" ht="19.5" customHeight="1">
       <c r="A350" s="36">
-        <f t="shared" ref="A350:E350" si="311">A349</f>
+        <f t="shared" ref="A350:C350" si="311">A349</f>
         <v>43928</v>
       </c>
       <c r="B350" s="4" t="str">
@@ -10491,11 +10593,10 @@
       <c r="H350" s="52">
         <v>10</v>
       </c>
-      <c r="I350" s="16"/>
-    </row>
-    <row r="351" spans="1:9" ht="15.75">
+    </row>
+    <row r="351" spans="1:10" ht="19.5" customHeight="1">
       <c r="A351" s="36">
-        <f t="shared" ref="A351:E351" si="312">A350</f>
+        <f t="shared" ref="A351:C351" si="312">A350</f>
         <v>43928</v>
       </c>
       <c r="B351" s="4" t="str">
@@ -10512,11 +10613,10 @@
         <v>22</v>
       </c>
       <c r="H351" s="51"/>
-      <c r="I351" s="16"/>
-    </row>
-    <row r="352" spans="1:9">
+    </row>
+    <row r="352" spans="1:10" ht="19.5" customHeight="1">
       <c r="A352" s="36">
-        <f t="shared" ref="A352:E352" si="313">A351</f>
+        <f t="shared" ref="A352:C352" si="313">A351</f>
         <v>43928</v>
       </c>
       <c r="B352" s="4" t="str">
@@ -10539,11 +10639,10 @@
       <c r="H352" s="52">
         <v>21</v>
       </c>
-      <c r="I352" s="16"/>
-    </row>
-    <row r="353" spans="1:9">
+    </row>
+    <row r="353" spans="1:12" ht="19.5" customHeight="1">
       <c r="A353" s="36">
-        <f t="shared" ref="A353:E353" si="314">A352</f>
+        <f t="shared" ref="A353:C353" si="314">A352</f>
         <v>43928</v>
       </c>
       <c r="B353" s="4" t="str">
@@ -10566,11 +10665,10 @@
       <c r="H353" s="52">
         <v>82</v>
       </c>
-      <c r="I353" s="16"/>
-    </row>
-    <row r="354" spans="1:9">
+    </row>
+    <row r="354" spans="1:12" ht="19.5" customHeight="1">
       <c r="A354" s="36">
-        <f t="shared" ref="A354:E354" si="315">A353</f>
+        <f t="shared" ref="A354:C354" si="315">A353</f>
         <v>43928</v>
       </c>
       <c r="B354" s="4" t="str">
@@ -10593,11 +10691,10 @@
       <c r="H354" s="52">
         <v>505</v>
       </c>
-      <c r="I354" s="16"/>
-    </row>
-    <row r="355" spans="1:9">
+    </row>
+    <row r="355" spans="1:12" ht="19.5" customHeight="1">
       <c r="A355" s="36">
-        <f t="shared" ref="A355:E355" si="316">A354</f>
+        <f t="shared" ref="A355:C355" si="316">A354</f>
         <v>43928</v>
       </c>
       <c r="B355" s="4" t="str">
@@ -10620,11 +10717,10 @@
       <c r="H355" s="52">
         <v>773</v>
       </c>
-      <c r="I355" s="16"/>
-    </row>
-    <row r="356" spans="1:9">
+    </row>
+    <row r="356" spans="1:12" ht="19.5" customHeight="1">
       <c r="A356" s="36">
-        <f t="shared" ref="A356:E356" si="317">A355</f>
+        <f t="shared" ref="A356:C356" si="317">A355</f>
         <v>43928</v>
       </c>
       <c r="B356" s="4" t="str">
@@ -10647,11 +10743,10 @@
       <c r="H356" s="52">
         <v>795</v>
       </c>
-      <c r="I356" s="16"/>
-    </row>
-    <row r="357" spans="1:9">
+    </row>
+    <row r="357" spans="1:12" ht="19.5" customHeight="1">
       <c r="A357" s="36">
-        <f t="shared" ref="A357:E357" si="318">A356</f>
+        <f t="shared" ref="A357:C357" si="318">A356</f>
         <v>43928</v>
       </c>
       <c r="B357" s="4" t="str">
@@ -10674,11 +10769,10 @@
       <c r="H357" s="52">
         <v>891</v>
       </c>
-      <c r="I357" s="16"/>
-    </row>
-    <row r="358" spans="1:9">
+    </row>
+    <row r="358" spans="1:12" ht="19.5" customHeight="1">
       <c r="A358" s="36">
-        <f t="shared" ref="A358:E358" si="319">A357</f>
+        <f t="shared" ref="A358:C358" si="319">A357</f>
         <v>43928</v>
       </c>
       <c r="B358" s="4" t="str">
@@ -10701,11 +10795,10 @@
       <c r="H358" s="52">
         <v>643</v>
       </c>
-      <c r="I358" s="16"/>
-    </row>
-    <row r="359" spans="1:9">
+    </row>
+    <row r="359" spans="1:12" ht="19.5" customHeight="1">
       <c r="A359" s="36">
-        <f t="shared" ref="A359:E359" si="320">A358</f>
+        <f t="shared" ref="A359:C359" si="320">A358</f>
         <v>43928</v>
       </c>
       <c r="B359" s="4" t="str">
@@ -10728,11 +10821,10 @@
       <c r="H359" s="52">
         <v>445</v>
       </c>
-      <c r="I359" s="16"/>
-    </row>
-    <row r="360" spans="1:9">
+    </row>
+    <row r="360" spans="1:12" ht="19.5" customHeight="1">
       <c r="A360" s="36">
-        <f t="shared" ref="A360:E360" si="321">A359</f>
+        <f t="shared" ref="A360:C360" si="321">A359</f>
         <v>43928</v>
       </c>
       <c r="B360" s="4" t="str">
@@ -10755,9 +10847,8 @@
       <c r="H360" s="52">
         <v>216</v>
       </c>
-      <c r="I360" s="16"/>
-    </row>
-    <row r="361" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="361" spans="1:12" ht="19.5" customHeight="1">
       <c r="A361" s="36">
         <f>A360</f>
         <v>43928</v>
@@ -10779,12 +10870,11 @@
       <c r="G361" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="H361" s="30">
+      <c r="H361" s="52">
         <v>2329</v>
       </c>
-      <c r="I361" s="16"/>
-    </row>
-    <row r="362" spans="1:9">
+    </row>
+    <row r="362" spans="1:12" ht="19.5" customHeight="1">
       <c r="A362" s="36">
         <f>A361</f>
         <v>43928</v>
@@ -10805,6 +10895,3901 @@
       </c>
       <c r="H362" s="44">
         <v>2042</v>
+      </c>
+      <c r="J362" s="15"/>
+    </row>
+    <row r="363" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A363" s="35">
+        <v>43929</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C363" s="42">
+        <f>A363</f>
+        <v>43929</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E363" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G363" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H363" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="I363" s="17" t="str">
+        <f>H364</f>
+        <v> 32,933</v>
+      </c>
+      <c r="J363" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K363" s="33">
+        <f>H366</f>
+        <v>1210</v>
+      </c>
+      <c r="L363" s="18" t="str">
+        <f>H367</f>
+        <v> 365</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A364" s="36">
+        <f t="shared" ref="A364:C364" si="323">A363</f>
+        <v>43929</v>
+      </c>
+      <c r="B364" s="4" t="str">
+        <f t="shared" si="323"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C364" s="37">
+        <f t="shared" si="323"/>
+        <v>43929</v>
+      </c>
+      <c r="D364" s="4"/>
+      <c r="E364" s="11"/>
+      <c r="G364" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H364" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="I364" s="17"/>
+      <c r="J364" s="18"/>
+      <c r="K364" s="18"/>
+      <c r="L364" s="18"/>
+    </row>
+    <row r="365" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A365" s="36">
+        <f t="shared" ref="A365:C365" si="324">A364</f>
+        <v>43929</v>
+      </c>
+      <c r="B365" s="4" t="str">
+        <f t="shared" si="324"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C365" s="37">
+        <f t="shared" si="324"/>
+        <v>43929</v>
+      </c>
+      <c r="D365" s="4"/>
+      <c r="E365" s="11"/>
+      <c r="G365" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H365" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="I365" s="17"/>
+      <c r="J365" s="18"/>
+      <c r="K365" s="18"/>
+      <c r="L365" s="18"/>
+    </row>
+    <row r="366" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A366" s="36">
+        <f t="shared" ref="A366:C366" si="325">A365</f>
+        <v>43929</v>
+      </c>
+      <c r="B366" s="4" t="str">
+        <f t="shared" si="325"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C366" s="37">
+        <f t="shared" si="325"/>
+        <v>43929</v>
+      </c>
+      <c r="D366" s="4"/>
+      <c r="E366" s="11"/>
+      <c r="G366" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H366" s="51">
+        <v>1210</v>
+      </c>
+      <c r="I366" s="17"/>
+      <c r="J366" s="18"/>
+      <c r="K366" s="18"/>
+      <c r="L366" s="18"/>
+    </row>
+    <row r="367" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A367" s="36">
+        <f t="shared" ref="A367:C367" si="326">A366</f>
+        <v>43929</v>
+      </c>
+      <c r="B367" s="4" t="str">
+        <f t="shared" si="326"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C367" s="37">
+        <f t="shared" si="326"/>
+        <v>43929</v>
+      </c>
+      <c r="D367" s="4"/>
+      <c r="E367" s="11"/>
+      <c r="G367" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H367" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I367" s="17"/>
+      <c r="J367" s="18"/>
+      <c r="K367" s="18"/>
+      <c r="L367" s="18"/>
+    </row>
+    <row r="368" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A368" s="36">
+        <f t="shared" ref="A368:C368" si="327">A367</f>
+        <v>43929</v>
+      </c>
+      <c r="B368" s="4" t="str">
+        <f t="shared" si="327"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C368" s="37">
+        <f t="shared" si="327"/>
+        <v>43929</v>
+      </c>
+      <c r="D368" s="4"/>
+      <c r="E368" s="11"/>
+      <c r="G368" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H368" s="51"/>
+      <c r="I368" s="53"/>
+    </row>
+    <row r="369" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A369" s="36">
+        <f t="shared" ref="A369:C369" si="328">A368</f>
+        <v>43929</v>
+      </c>
+      <c r="B369" s="4" t="str">
+        <f t="shared" si="328"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C369" s="37">
+        <f t="shared" si="328"/>
+        <v>43929</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E369" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G369" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H369" s="52">
+        <v>6</v>
+      </c>
+      <c r="I369" s="53"/>
+    </row>
+    <row r="370" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A370" s="36">
+        <f t="shared" ref="A370:C370" si="329">A369</f>
+        <v>43929</v>
+      </c>
+      <c r="B370" s="4" t="str">
+        <f t="shared" si="329"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C370" s="37">
+        <f t="shared" si="329"/>
+        <v>43929</v>
+      </c>
+      <c r="D370" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E370" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G370" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H370" s="52">
+        <v>466</v>
+      </c>
+      <c r="I370" s="30"/>
+      <c r="J370" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A371" s="36">
+        <f t="shared" ref="A371:C371" si="330">A370</f>
+        <v>43929</v>
+      </c>
+      <c r="B371" s="4" t="str">
+        <f t="shared" si="330"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C371" s="37">
+        <f t="shared" si="330"/>
+        <v>43929</v>
+      </c>
+      <c r="D371" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E371" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G371" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H371" s="52">
+        <v>571</v>
+      </c>
+      <c r="I371" s="30"/>
+      <c r="J371" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A372" s="36">
+        <f t="shared" ref="A372:C372" si="331">A371</f>
+        <v>43929</v>
+      </c>
+      <c r="B372" s="4" t="str">
+        <f t="shared" si="331"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C372" s="37">
+        <f t="shared" si="331"/>
+        <v>43929</v>
+      </c>
+      <c r="D372" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E372" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G372" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H372" s="52">
+        <v>866</v>
+      </c>
+      <c r="I372" s="30"/>
+      <c r="J372" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A373" s="36">
+        <f t="shared" ref="A373:C373" si="332">A372</f>
+        <v>43929</v>
+      </c>
+      <c r="B373" s="4" t="str">
+        <f t="shared" si="332"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C373" s="37">
+        <f t="shared" si="332"/>
+        <v>43929</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E373" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G373" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H373" s="52">
+        <v>56</v>
+      </c>
+      <c r="I373" s="30"/>
+      <c r="J373" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A374" s="36">
+        <f t="shared" ref="A374:C374" si="333">A373</f>
+        <v>43929</v>
+      </c>
+      <c r="B374" s="4" t="str">
+        <f t="shared" si="333"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C374" s="37">
+        <f t="shared" si="333"/>
+        <v>43929</v>
+      </c>
+      <c r="D374" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E374" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G374" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H374" s="52">
+        <v>11</v>
+      </c>
+      <c r="I374" s="30"/>
+    </row>
+    <row r="375" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A375" s="36">
+        <f t="shared" ref="A375:C375" si="334">A374</f>
+        <v>43929</v>
+      </c>
+      <c r="B375" s="4" t="str">
+        <f t="shared" si="334"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C375" s="37">
+        <f t="shared" si="334"/>
+        <v>43929</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E375" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G375" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H375" s="52">
+        <v>186</v>
+      </c>
+      <c r="I375" s="30"/>
+      <c r="J375" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A376" s="36">
+        <f t="shared" ref="A376:C376" si="335">A375</f>
+        <v>43929</v>
+      </c>
+      <c r="B376" s="4" t="str">
+        <f t="shared" si="335"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C376" s="37">
+        <f t="shared" si="335"/>
+        <v>43929</v>
+      </c>
+      <c r="D376" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E376" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G376" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H376" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="I376" s="30"/>
+      <c r="J376" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A377" s="36">
+        <f t="shared" ref="A377:C377" si="336">A376</f>
+        <v>43929</v>
+      </c>
+      <c r="B377" s="4" t="str">
+        <f t="shared" si="336"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C377" s="37">
+        <f t="shared" si="336"/>
+        <v>43929</v>
+      </c>
+      <c r="D377" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E377" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G377" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H377" s="52">
+        <v>164</v>
+      </c>
+      <c r="I377" s="30"/>
+      <c r="J377" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A378" s="36">
+        <f t="shared" ref="A378:C378" si="337">A377</f>
+        <v>43929</v>
+      </c>
+      <c r="B378" s="4" t="str">
+        <f t="shared" si="337"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C378" s="37">
+        <f t="shared" si="337"/>
+        <v>43929</v>
+      </c>
+      <c r="D378" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E378" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G378" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H378" s="52">
+        <v>4</v>
+      </c>
+      <c r="I378" s="30"/>
+    </row>
+    <row r="379" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A379" s="36">
+        <f t="shared" ref="A379:C379" si="338">A378</f>
+        <v>43929</v>
+      </c>
+      <c r="B379" s="4" t="str">
+        <f t="shared" si="338"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C379" s="37">
+        <f t="shared" si="338"/>
+        <v>43929</v>
+      </c>
+      <c r="D379" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E379" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G379" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H379" s="52">
+        <v>199</v>
+      </c>
+      <c r="I379" s="30"/>
+      <c r="J379" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A380" s="36">
+        <f t="shared" ref="A380:C380" si="339">A379</f>
+        <v>43929</v>
+      </c>
+      <c r="B380" s="4" t="str">
+        <f t="shared" si="339"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C380" s="37">
+        <f t="shared" si="339"/>
+        <v>43929</v>
+      </c>
+      <c r="D380" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E380" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G380" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H380" s="52">
+        <v>5</v>
+      </c>
+      <c r="I380" s="30"/>
+    </row>
+    <row r="381" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A381" s="36">
+        <f t="shared" ref="A381:C381" si="340">A380</f>
+        <v>43929</v>
+      </c>
+      <c r="B381" s="4" t="str">
+        <f t="shared" si="340"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C381" s="37">
+        <f t="shared" si="340"/>
+        <v>43929</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E381" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G381" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H381" s="52">
+        <v>86</v>
+      </c>
+      <c r="I381" s="30"/>
+    </row>
+    <row r="382" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A382" s="36">
+        <f t="shared" ref="A382:C382" si="341">A381</f>
+        <v>43929</v>
+      </c>
+      <c r="B382" s="4" t="str">
+        <f t="shared" si="341"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C382" s="37">
+        <f t="shared" si="341"/>
+        <v>43929</v>
+      </c>
+      <c r="D382" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E382" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G382" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H382" s="52">
+        <v>274</v>
+      </c>
+      <c r="I382" s="30"/>
+      <c r="J382" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A383" s="36">
+        <f t="shared" ref="A383:C383" si="342">A382</f>
+        <v>43929</v>
+      </c>
+      <c r="B383" s="4" t="str">
+        <f t="shared" si="342"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C383" s="37">
+        <f t="shared" si="342"/>
+        <v>43929</v>
+      </c>
+      <c r="D383" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E383" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G383" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H383" s="52">
+        <v>9</v>
+      </c>
+      <c r="I383" s="30"/>
+    </row>
+    <row r="384" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A384" s="36">
+        <f t="shared" ref="A384:C384" si="343">A383</f>
+        <v>43929</v>
+      </c>
+      <c r="B384" s="4" t="str">
+        <f t="shared" si="343"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C384" s="37">
+        <f t="shared" si="343"/>
+        <v>43929</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E384" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G384" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H384" s="52">
+        <v>1088</v>
+      </c>
+      <c r="I384" s="30"/>
+      <c r="J384" s="16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A385" s="36">
+        <f t="shared" ref="A385:C385" si="344">A384</f>
+        <v>43929</v>
+      </c>
+      <c r="B385" s="4" t="str">
+        <f t="shared" si="344"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C385" s="37">
+        <f t="shared" si="344"/>
+        <v>43929</v>
+      </c>
+      <c r="D385" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E385" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G385" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H385" s="52">
+        <v>1310</v>
+      </c>
+      <c r="I385" s="30"/>
+      <c r="J385" s="16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A386" s="36">
+        <f t="shared" ref="A386:C386" si="345">A385</f>
+        <v>43929</v>
+      </c>
+      <c r="B386" s="4" t="str">
+        <f t="shared" si="345"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C386" s="37">
+        <f t="shared" si="345"/>
+        <v>43929</v>
+      </c>
+      <c r="D386" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E386" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G386" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H386" s="52">
+        <v>16</v>
+      </c>
+      <c r="I386" s="30"/>
+    </row>
+    <row r="387" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A387" s="36">
+        <f t="shared" ref="A387:C387" si="346">A386</f>
+        <v>43929</v>
+      </c>
+      <c r="B387" s="4" t="str">
+        <f t="shared" si="346"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C387" s="37">
+        <f t="shared" si="346"/>
+        <v>43929</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E387" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G387" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H387" s="52">
+        <v>62</v>
+      </c>
+      <c r="I387" s="30"/>
+    </row>
+    <row r="388" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A388" s="36">
+        <f t="shared" ref="A388:C388" si="347">A387</f>
+        <v>43929</v>
+      </c>
+      <c r="B388" s="4" t="str">
+        <f t="shared" si="347"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C388" s="37">
+        <f t="shared" si="347"/>
+        <v>43929</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E388" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G388" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H388" s="52">
+        <v>4</v>
+      </c>
+      <c r="I388" s="30"/>
+    </row>
+    <row r="389" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A389" s="36">
+        <f t="shared" ref="A389:C389" si="348">A388</f>
+        <v>43929</v>
+      </c>
+      <c r="B389" s="4" t="str">
+        <f t="shared" si="348"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C389" s="37">
+        <f t="shared" si="348"/>
+        <v>43929</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E389" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G389" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H389" s="52">
+        <v>10</v>
+      </c>
+      <c r="I389" s="30"/>
+      <c r="J389" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A390" s="36">
+        <f t="shared" ref="A390:C390" si="349">A389</f>
+        <v>43929</v>
+      </c>
+      <c r="B390" s="4" t="str">
+        <f t="shared" si="349"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C390" s="37">
+        <f t="shared" si="349"/>
+        <v>43929</v>
+      </c>
+      <c r="D390" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E390" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G390" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H390" s="52">
+        <v>57</v>
+      </c>
+      <c r="I390" s="30"/>
+    </row>
+    <row r="391" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A391" s="36">
+        <f t="shared" ref="A391:C391" si="350">A390</f>
+        <v>43929</v>
+      </c>
+      <c r="B391" s="4" t="str">
+        <f t="shared" si="350"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C391" s="37">
+        <f t="shared" si="350"/>
+        <v>43929</v>
+      </c>
+      <c r="D391" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E391" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G391" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H391" s="52">
+        <v>20</v>
+      </c>
+      <c r="I391" s="30"/>
+      <c r="J391" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A392" s="36">
+        <f t="shared" ref="A392:C392" si="351">A391</f>
+        <v>43929</v>
+      </c>
+      <c r="B392" s="4" t="str">
+        <f t="shared" si="351"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C392" s="37">
+        <f t="shared" si="351"/>
+        <v>43929</v>
+      </c>
+      <c r="D392" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E392" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G392" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H392" s="52">
+        <v>10</v>
+      </c>
+      <c r="I392" s="30"/>
+    </row>
+    <row r="393" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A393" s="36">
+        <f t="shared" ref="A393:C393" si="352">A392</f>
+        <v>43929</v>
+      </c>
+      <c r="B393" s="4" t="str">
+        <f t="shared" si="352"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C393" s="37">
+        <f t="shared" si="352"/>
+        <v>43929</v>
+      </c>
+      <c r="D393" s="4"/>
+      <c r="E393" s="11"/>
+      <c r="G393" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H393" s="51"/>
+      <c r="I393" s="53"/>
+    </row>
+    <row r="394" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A394" s="36">
+        <f t="shared" ref="A394:C394" si="353">A393</f>
+        <v>43929</v>
+      </c>
+      <c r="B394" s="4" t="str">
+        <f t="shared" si="353"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C394" s="37">
+        <f t="shared" si="353"/>
+        <v>43929</v>
+      </c>
+      <c r="D394" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E394" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G394" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H394" s="52">
+        <v>27</v>
+      </c>
+      <c r="I394" s="53"/>
+    </row>
+    <row r="395" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A395" s="36">
+        <f t="shared" ref="A395:C395" si="354">A394</f>
+        <v>43929</v>
+      </c>
+      <c r="B395" s="4" t="str">
+        <f t="shared" si="354"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C395" s="37">
+        <f t="shared" si="354"/>
+        <v>43929</v>
+      </c>
+      <c r="D395" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E395" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G395" s="31">
+        <v>44123</v>
+      </c>
+      <c r="H395" s="52">
+        <v>109</v>
+      </c>
+      <c r="I395" s="53"/>
+    </row>
+    <row r="396" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A396" s="36">
+        <f t="shared" ref="A396:C396" si="355">A395</f>
+        <v>43929</v>
+      </c>
+      <c r="B396" s="4" t="str">
+        <f t="shared" si="355"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C396" s="37">
+        <f t="shared" si="355"/>
+        <v>43929</v>
+      </c>
+      <c r="D396" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E396" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G396" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H396" s="52">
+        <v>625</v>
+      </c>
+      <c r="I396" s="53"/>
+    </row>
+    <row r="397" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A397" s="36">
+        <f t="shared" ref="A397:C397" si="356">A396</f>
+        <v>43929</v>
+      </c>
+      <c r="B397" s="4" t="str">
+        <f t="shared" si="356"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C397" s="37">
+        <f t="shared" si="356"/>
+        <v>43929</v>
+      </c>
+      <c r="D397" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E397" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G397" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H397" s="52">
+        <v>968</v>
+      </c>
+      <c r="I397" s="53"/>
+    </row>
+    <row r="398" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A398" s="36">
+        <f t="shared" ref="A398:C398" si="357">A397</f>
+        <v>43929</v>
+      </c>
+      <c r="B398" s="4" t="str">
+        <f t="shared" si="357"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C398" s="37">
+        <f t="shared" si="357"/>
+        <v>43929</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E398" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G398" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H398" s="54">
+        <v>1015</v>
+      </c>
+      <c r="I398" s="53"/>
+    </row>
+    <row r="399" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A399" s="36">
+        <f t="shared" ref="A399:C399" si="358">A398</f>
+        <v>43929</v>
+      </c>
+      <c r="B399" s="4" t="str">
+        <f t="shared" si="358"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C399" s="37">
+        <f t="shared" si="358"/>
+        <v>43929</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E399" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G399" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H399" s="54">
+        <v>1135</v>
+      </c>
+      <c r="I399" s="53"/>
+    </row>
+    <row r="400" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A400" s="36">
+        <f t="shared" ref="A400:C400" si="359">A399</f>
+        <v>43929</v>
+      </c>
+      <c r="B400" s="4" t="str">
+        <f t="shared" si="359"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C400" s="37">
+        <f t="shared" si="359"/>
+        <v>43929</v>
+      </c>
+      <c r="D400" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E400" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G400" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H400" s="52">
+        <v>833</v>
+      </c>
+      <c r="I400" s="53"/>
+    </row>
+    <row r="401" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A401" s="36">
+        <f t="shared" ref="A401:C401" si="360">A400</f>
+        <v>43929</v>
+      </c>
+      <c r="B401" s="4" t="str">
+        <f t="shared" si="360"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C401" s="37">
+        <f t="shared" si="360"/>
+        <v>43929</v>
+      </c>
+      <c r="D401" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E401" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G401" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H401" s="52">
+        <v>550</v>
+      </c>
+      <c r="I401" s="53"/>
+    </row>
+    <row r="402" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A402" s="36">
+        <f t="shared" ref="A402:C404" si="361">A401</f>
+        <v>43929</v>
+      </c>
+      <c r="B402" s="4" t="str">
+        <f t="shared" si="361"/>
+        <v>12:37PM</v>
+      </c>
+      <c r="C402" s="37">
+        <f t="shared" si="361"/>
+        <v>43929</v>
+      </c>
+      <c r="D402" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E402" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G402" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H402" s="52">
+        <v>267</v>
+      </c>
+      <c r="I402" s="53"/>
+    </row>
+    <row r="403" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A403" s="36">
+        <f>A402</f>
+        <v>43929</v>
+      </c>
+      <c r="B403" s="4" t="str">
+        <f>B402</f>
+        <v>12:37PM</v>
+      </c>
+      <c r="C403" s="37">
+        <f t="shared" si="361"/>
+        <v>43929</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E403" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G403" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H403" s="52">
+        <v>2955</v>
+      </c>
+      <c r="I403" s="53"/>
+    </row>
+    <row r="404" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A404" s="36">
+        <f>A403</f>
+        <v>43929</v>
+      </c>
+      <c r="B404" s="4" t="str">
+        <f>B403</f>
+        <v>12:37PM</v>
+      </c>
+      <c r="C404" s="37">
+        <f t="shared" si="361"/>
+        <v>43929</v>
+      </c>
+      <c r="D404" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E404" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H404" s="44">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" ht="15">
+      <c r="A405" s="35">
+        <v>43930</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C405" s="42">
+        <f>A405</f>
+        <v>43930</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E405" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G405" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H405" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="I405" s="17" t="str">
+        <f>H406</f>
+        <v> 35,344</v>
+      </c>
+      <c r="J405" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="K405" s="33" t="str">
+        <f>H408</f>
+        <v xml:space="preserve"> 1,348 </v>
+      </c>
+      <c r="L405" s="18" t="str">
+        <f>H409</f>
+        <v> 376</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" ht="15">
+      <c r="A406" s="36">
+        <f t="shared" ref="A406:C406" si="362">A405</f>
+        <v>43930</v>
+      </c>
+      <c r="B406" s="4" t="str">
+        <f t="shared" si="362"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C406" s="37">
+        <f t="shared" si="362"/>
+        <v>43930</v>
+      </c>
+      <c r="D406" s="4"/>
+      <c r="E406" s="11"/>
+      <c r="G406" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H406" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="I406" s="17"/>
+      <c r="J406" s="18"/>
+      <c r="K406" s="18"/>
+      <c r="L406" s="18"/>
+    </row>
+    <row r="407" spans="1:12" ht="15">
+      <c r="A407" s="36">
+        <f t="shared" ref="A407:C407" si="363">A406</f>
+        <v>43930</v>
+      </c>
+      <c r="B407" s="4" t="str">
+        <f t="shared" si="363"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C407" s="37">
+        <f t="shared" si="363"/>
+        <v>43930</v>
+      </c>
+      <c r="D407" s="4"/>
+      <c r="E407" s="11"/>
+      <c r="G407" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H407" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="I407" s="17"/>
+      <c r="J407" s="18"/>
+      <c r="K407" s="18"/>
+      <c r="L407" s="18"/>
+    </row>
+    <row r="408" spans="1:12" ht="15">
+      <c r="A408" s="36">
+        <f t="shared" ref="A408:C408" si="364">A407</f>
+        <v>43930</v>
+      </c>
+      <c r="B408" s="4" t="str">
+        <f t="shared" si="364"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C408" s="37">
+        <f t="shared" si="364"/>
+        <v>43930</v>
+      </c>
+      <c r="D408" s="4"/>
+      <c r="E408" s="11"/>
+      <c r="G408" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H408" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I408" s="17"/>
+      <c r="J408" s="18"/>
+      <c r="K408" s="18"/>
+      <c r="L408" s="18"/>
+    </row>
+    <row r="409" spans="1:12" ht="15">
+      <c r="A409" s="36">
+        <f t="shared" ref="A409:C409" si="365">A408</f>
+        <v>43930</v>
+      </c>
+      <c r="B409" s="4" t="str">
+        <f t="shared" si="365"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C409" s="37">
+        <f t="shared" si="365"/>
+        <v>43930</v>
+      </c>
+      <c r="D409" s="4"/>
+      <c r="E409" s="11"/>
+      <c r="G409" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H409" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="I409" s="17"/>
+      <c r="J409" s="18"/>
+      <c r="K409" s="18"/>
+      <c r="L409" s="18"/>
+    </row>
+    <row r="410" spans="1:12" ht="15">
+      <c r="A410" s="36">
+        <f t="shared" ref="A410:C410" si="366">A409</f>
+        <v>43930</v>
+      </c>
+      <c r="B410" s="4" t="str">
+        <f t="shared" si="366"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C410" s="37">
+        <f t="shared" si="366"/>
+        <v>43930</v>
+      </c>
+      <c r="D410" s="4"/>
+      <c r="E410" s="11"/>
+      <c r="G410" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H410" s="51"/>
+      <c r="I410" s="53"/>
+    </row>
+    <row r="411" spans="1:12" ht="15.6">
+      <c r="A411" s="36">
+        <f t="shared" ref="A411:C411" si="367">A410</f>
+        <v>43930</v>
+      </c>
+      <c r="B411" s="4" t="str">
+        <f t="shared" si="367"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C411" s="37">
+        <f t="shared" si="367"/>
+        <v>43930</v>
+      </c>
+      <c r="D411" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E411" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G411" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H411" s="52">
+        <v>8</v>
+      </c>
+      <c r="I411" s="53"/>
+    </row>
+    <row r="412" spans="1:12" ht="15.6">
+      <c r="A412" s="36">
+        <f t="shared" ref="A412:C412" si="368">A411</f>
+        <v>43930</v>
+      </c>
+      <c r="B412" s="4" t="str">
+        <f t="shared" si="368"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C412" s="37">
+        <f t="shared" si="368"/>
+        <v>43930</v>
+      </c>
+      <c r="D412" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E412" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G412" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H412" s="52">
+        <v>505</v>
+      </c>
+      <c r="I412" s="30"/>
+      <c r="J412" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" ht="15.6">
+      <c r="A413" s="36">
+        <f t="shared" ref="A413:C413" si="369">A412</f>
+        <v>43930</v>
+      </c>
+      <c r="B413" s="4" t="str">
+        <f t="shared" si="369"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C413" s="37">
+        <f t="shared" si="369"/>
+        <v>43930</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E413" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G413" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H413" s="52">
+        <v>638</v>
+      </c>
+      <c r="I413" s="30"/>
+      <c r="J413" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" ht="15.6">
+      <c r="A414" s="36">
+        <f t="shared" ref="A414:C414" si="370">A413</f>
+        <v>43930</v>
+      </c>
+      <c r="B414" s="4" t="str">
+        <f t="shared" si="370"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C414" s="37">
+        <f t="shared" si="370"/>
+        <v>43930</v>
+      </c>
+      <c r="D414" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E414" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G414" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H414" s="52">
+        <v>979</v>
+      </c>
+      <c r="I414" s="30"/>
+      <c r="J414" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" ht="15.6">
+      <c r="A415" s="36">
+        <f t="shared" ref="A415:C415" si="371">A414</f>
+        <v>43930</v>
+      </c>
+      <c r="B415" s="4" t="str">
+        <f t="shared" si="371"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C415" s="37">
+        <f t="shared" si="371"/>
+        <v>43930</v>
+      </c>
+      <c r="D415" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E415" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G415" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H415" s="52">
+        <v>66</v>
+      </c>
+      <c r="I415" s="30"/>
+      <c r="J415" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" ht="15.6">
+      <c r="A416" s="36">
+        <f t="shared" ref="A416:C416" si="372">A415</f>
+        <v>43930</v>
+      </c>
+      <c r="B416" s="4" t="str">
+        <f t="shared" si="372"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C416" s="37">
+        <f t="shared" si="372"/>
+        <v>43930</v>
+      </c>
+      <c r="D416" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E416" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G416" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H416" s="52">
+        <v>12</v>
+      </c>
+      <c r="I416" s="30"/>
+    </row>
+    <row r="417" spans="1:10" ht="15.6">
+      <c r="A417" s="36">
+        <f t="shared" ref="A417:C417" si="373">A416</f>
+        <v>43930</v>
+      </c>
+      <c r="B417" s="4" t="str">
+        <f t="shared" si="373"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C417" s="37">
+        <f t="shared" si="373"/>
+        <v>43930</v>
+      </c>
+      <c r="D417" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E417" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G417" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H417" s="52">
+        <v>203</v>
+      </c>
+      <c r="I417" s="30"/>
+      <c r="J417" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" ht="15.6">
+      <c r="A418" s="36">
+        <f t="shared" ref="A418:C418" si="374">A417</f>
+        <v>43930</v>
+      </c>
+      <c r="B418" s="4" t="str">
+        <f t="shared" si="374"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C418" s="37">
+        <f t="shared" si="374"/>
+        <v>43930</v>
+      </c>
+      <c r="D418" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E418" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G418" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H418" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="I418" s="30"/>
+      <c r="J418" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" ht="15.6">
+      <c r="A419" s="36">
+        <f t="shared" ref="A419:C419" si="375">A418</f>
+        <v>43930</v>
+      </c>
+      <c r="B419" s="4" t="str">
+        <f t="shared" si="375"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C419" s="37">
+        <f t="shared" si="375"/>
+        <v>43930</v>
+      </c>
+      <c r="D419" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E419" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G419" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H419" s="52">
+        <v>180</v>
+      </c>
+      <c r="I419" s="30"/>
+      <c r="J419" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" ht="15.6">
+      <c r="A420" s="36">
+        <f t="shared" ref="A420:C420" si="376">A419</f>
+        <v>43930</v>
+      </c>
+      <c r="B420" s="4" t="str">
+        <f t="shared" si="376"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C420" s="37">
+        <f t="shared" si="376"/>
+        <v>43930</v>
+      </c>
+      <c r="D420" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E420" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G420" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H420" s="52">
+        <v>7</v>
+      </c>
+      <c r="I420" s="30"/>
+    </row>
+    <row r="421" spans="1:10" ht="15.6">
+      <c r="A421" s="36">
+        <f t="shared" ref="A421:C421" si="377">A420</f>
+        <v>43930</v>
+      </c>
+      <c r="B421" s="4" t="str">
+        <f t="shared" si="377"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C421" s="37">
+        <f t="shared" si="377"/>
+        <v>43930</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E421" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G421" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H421" s="52">
+        <v>233</v>
+      </c>
+      <c r="I421" s="30"/>
+      <c r="J421" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" ht="15.6">
+      <c r="A422" s="36">
+        <f t="shared" ref="A422:C422" si="378">A421</f>
+        <v>43930</v>
+      </c>
+      <c r="B422" s="4" t="str">
+        <f t="shared" si="378"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C422" s="37">
+        <f t="shared" si="378"/>
+        <v>43930</v>
+      </c>
+      <c r="D422" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E422" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G422" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H422" s="52">
+        <v>5</v>
+      </c>
+      <c r="I422" s="30"/>
+    </row>
+    <row r="423" spans="1:10" ht="15.6">
+      <c r="A423" s="36">
+        <f t="shared" ref="A423:C423" si="379">A422</f>
+        <v>43930</v>
+      </c>
+      <c r="B423" s="4" t="str">
+        <f t="shared" si="379"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C423" s="37">
+        <f t="shared" si="379"/>
+        <v>43930</v>
+      </c>
+      <c r="D423" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E423" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G423" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H423" s="52">
+        <v>101</v>
+      </c>
+      <c r="I423" s="30"/>
+    </row>
+    <row r="424" spans="1:10" ht="15.6">
+      <c r="A424" s="36">
+        <f t="shared" ref="A424:C424" si="380">A423</f>
+        <v>43930</v>
+      </c>
+      <c r="B424" s="4" t="str">
+        <f t="shared" si="380"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C424" s="37">
+        <f t="shared" si="380"/>
+        <v>43930</v>
+      </c>
+      <c r="D424" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E424" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G424" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H424" s="52">
+        <v>299</v>
+      </c>
+      <c r="I424" s="30"/>
+      <c r="J424" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" ht="15.6">
+      <c r="A425" s="36">
+        <f t="shared" ref="A425:C425" si="381">A424</f>
+        <v>43930</v>
+      </c>
+      <c r="B425" s="4" t="str">
+        <f t="shared" si="381"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C425" s="37">
+        <f t="shared" si="381"/>
+        <v>43930</v>
+      </c>
+      <c r="D425" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E425" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G425" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H425" s="52">
+        <v>9</v>
+      </c>
+      <c r="I425" s="30"/>
+    </row>
+    <row r="426" spans="1:10" ht="15.6">
+      <c r="A426" s="36">
+        <f t="shared" ref="A426:C426" si="382">A425</f>
+        <v>43930</v>
+      </c>
+      <c r="B426" s="4" t="str">
+        <f t="shared" si="382"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C426" s="37">
+        <f t="shared" si="382"/>
+        <v>43930</v>
+      </c>
+      <c r="D426" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E426" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G426" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H426" s="54">
+        <v>1214</v>
+      </c>
+      <c r="I426" s="30"/>
+      <c r="J426" s="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" ht="15.6">
+      <c r="A427" s="36">
+        <f t="shared" ref="A427:C427" si="383">A426</f>
+        <v>43930</v>
+      </c>
+      <c r="B427" s="4" t="str">
+        <f t="shared" si="383"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C427" s="37">
+        <f t="shared" si="383"/>
+        <v>43930</v>
+      </c>
+      <c r="D427" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E427" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G427" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H427" s="52">
+        <v>1476</v>
+      </c>
+      <c r="I427" s="30"/>
+      <c r="J427" s="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" ht="15.6">
+      <c r="A428" s="36">
+        <f t="shared" ref="A428:C428" si="384">A427</f>
+        <v>43930</v>
+      </c>
+      <c r="B428" s="4" t="str">
+        <f t="shared" si="384"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C428" s="37">
+        <f t="shared" si="384"/>
+        <v>43930</v>
+      </c>
+      <c r="D428" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E428" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G428" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H428" s="52">
+        <v>17</v>
+      </c>
+      <c r="I428" s="30"/>
+    </row>
+    <row r="429" spans="1:10" ht="15.6">
+      <c r="A429" s="36">
+        <f t="shared" ref="A429:C429" si="385">A428</f>
+        <v>43930</v>
+      </c>
+      <c r="B429" s="4" t="str">
+        <f t="shared" si="385"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C429" s="37">
+        <f t="shared" si="385"/>
+        <v>43930</v>
+      </c>
+      <c r="D429" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E429" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G429" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H429" s="52">
+        <v>65</v>
+      </c>
+      <c r="I429" s="30"/>
+    </row>
+    <row r="430" spans="1:10" ht="15.6">
+      <c r="A430" s="36">
+        <f t="shared" ref="A430:C430" si="386">A429</f>
+        <v>43930</v>
+      </c>
+      <c r="B430" s="4" t="str">
+        <f t="shared" si="386"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C430" s="37">
+        <f t="shared" si="386"/>
+        <v>43930</v>
+      </c>
+      <c r="D430" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E430" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G430" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H430" s="52">
+        <v>4</v>
+      </c>
+      <c r="I430" s="30"/>
+    </row>
+    <row r="431" spans="1:10" ht="15.6">
+      <c r="A431" s="36">
+        <f t="shared" ref="A431:C431" si="387">A430</f>
+        <v>43930</v>
+      </c>
+      <c r="B431" s="4" t="str">
+        <f t="shared" si="387"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C431" s="37">
+        <f t="shared" si="387"/>
+        <v>43930</v>
+      </c>
+      <c r="D431" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E431" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G431" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H431" s="52">
+        <v>13</v>
+      </c>
+      <c r="I431" s="30"/>
+      <c r="J431" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" ht="15.6">
+      <c r="A432" s="36">
+        <f t="shared" ref="A432:C432" si="388">A431</f>
+        <v>43930</v>
+      </c>
+      <c r="B432" s="4" t="str">
+        <f t="shared" si="388"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C432" s="37">
+        <f t="shared" si="388"/>
+        <v>43930</v>
+      </c>
+      <c r="D432" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E432" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G432" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H432" s="52">
+        <v>60</v>
+      </c>
+      <c r="I432" s="30"/>
+    </row>
+    <row r="433" spans="1:10" ht="15.6">
+      <c r="A433" s="36">
+        <f t="shared" ref="A433:C433" si="389">A432</f>
+        <v>43930</v>
+      </c>
+      <c r="B433" s="4" t="str">
+        <f t="shared" si="389"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C433" s="37">
+        <f t="shared" si="389"/>
+        <v>43930</v>
+      </c>
+      <c r="D433" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E433" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G433" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H433" s="52">
+        <v>21</v>
+      </c>
+      <c r="I433" s="30"/>
+      <c r="J433" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" ht="15.6">
+      <c r="A434" s="36">
+        <f t="shared" ref="A434:C434" si="390">A433</f>
+        <v>43930</v>
+      </c>
+      <c r="B434" s="4" t="str">
+        <f t="shared" si="390"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C434" s="37">
+        <f t="shared" si="390"/>
+        <v>43930</v>
+      </c>
+      <c r="D434" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E434" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G434" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H434" s="52">
+        <v>16</v>
+      </c>
+      <c r="I434" s="30"/>
+    </row>
+    <row r="435" spans="1:10" ht="30">
+      <c r="A435" s="36">
+        <f t="shared" ref="A435:C435" si="391">A434</f>
+        <v>43930</v>
+      </c>
+      <c r="B435" s="4" t="str">
+        <f t="shared" si="391"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C435" s="37">
+        <f t="shared" si="391"/>
+        <v>43930</v>
+      </c>
+      <c r="D435" s="4"/>
+      <c r="E435" s="11"/>
+      <c r="G435" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H435" s="51"/>
+      <c r="I435" s="53"/>
+    </row>
+    <row r="436" spans="1:10" ht="15">
+      <c r="A436" s="36">
+        <f t="shared" ref="A436:C436" si="392">A435</f>
+        <v>43930</v>
+      </c>
+      <c r="B436" s="4" t="str">
+        <f t="shared" si="392"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C436" s="37">
+        <f t="shared" si="392"/>
+        <v>43930</v>
+      </c>
+      <c r="D436" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E436" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G436" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H436" s="52">
+        <v>33</v>
+      </c>
+      <c r="I436" s="30"/>
+    </row>
+    <row r="437" spans="1:10" ht="15">
+      <c r="A437" s="36">
+        <f t="shared" ref="A437:C437" si="393">A436</f>
+        <v>43930</v>
+      </c>
+      <c r="B437" s="4" t="str">
+        <f t="shared" si="393"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C437" s="37">
+        <f t="shared" si="393"/>
+        <v>43930</v>
+      </c>
+      <c r="D437" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E437" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G437" s="31">
+        <v>44123</v>
+      </c>
+      <c r="H437" s="52">
+        <v>127</v>
+      </c>
+      <c r="I437" s="30"/>
+    </row>
+    <row r="438" spans="1:10" ht="15">
+      <c r="A438" s="36">
+        <f t="shared" ref="A438:C438" si="394">A437</f>
+        <v>43930</v>
+      </c>
+      <c r="B438" s="4" t="str">
+        <f t="shared" si="394"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C438" s="37">
+        <f t="shared" si="394"/>
+        <v>43930</v>
+      </c>
+      <c r="D438" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E438" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G438" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H438" s="52">
+        <v>701</v>
+      </c>
+      <c r="I438" s="30"/>
+    </row>
+    <row r="439" spans="1:10" ht="15">
+      <c r="A439" s="36">
+        <f t="shared" ref="A439:C439" si="395">A438</f>
+        <v>43930</v>
+      </c>
+      <c r="B439" s="4" t="str">
+        <f t="shared" si="395"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C439" s="37">
+        <f t="shared" si="395"/>
+        <v>43930</v>
+      </c>
+      <c r="D439" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E439" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G439" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H439" s="54">
+        <v>1076</v>
+      </c>
+      <c r="I439" s="30"/>
+      <c r="J439" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" ht="15">
+      <c r="A440" s="36">
+        <f t="shared" ref="A440:C440" si="396">A439</f>
+        <v>43930</v>
+      </c>
+      <c r="B440" s="4" t="str">
+        <f t="shared" si="396"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C440" s="37">
+        <f t="shared" si="396"/>
+        <v>43930</v>
+      </c>
+      <c r="D440" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E440" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G440" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H440" s="54">
+        <v>1145</v>
+      </c>
+      <c r="I440" s="30"/>
+      <c r="J440" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" ht="15">
+      <c r="A441" s="36">
+        <f t="shared" ref="A441:C441" si="397">A440</f>
+        <v>43930</v>
+      </c>
+      <c r="B441" s="4" t="str">
+        <f t="shared" si="397"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C441" s="37">
+        <f t="shared" si="397"/>
+        <v>43930</v>
+      </c>
+      <c r="D441" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E441" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G441" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H441" s="54">
+        <v>1282</v>
+      </c>
+      <c r="I441" s="30"/>
+      <c r="J441" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" ht="15">
+      <c r="A442" s="36">
+        <f t="shared" ref="A442:C442" si="398">A441</f>
+        <v>43930</v>
+      </c>
+      <c r="B442" s="4" t="str">
+        <f t="shared" si="398"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C442" s="37">
+        <f t="shared" si="398"/>
+        <v>43930</v>
+      </c>
+      <c r="D442" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E442" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G442" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H442" s="52">
+        <v>913</v>
+      </c>
+      <c r="I442" s="30"/>
+      <c r="J442" s="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" ht="15">
+      <c r="A443" s="36">
+        <f t="shared" ref="A443:C443" si="399">A442</f>
+        <v>43930</v>
+      </c>
+      <c r="B443" s="4" t="str">
+        <f t="shared" si="399"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C443" s="37">
+        <f t="shared" si="399"/>
+        <v>43930</v>
+      </c>
+      <c r="D443" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E443" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G443" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H443" s="52">
+        <v>600</v>
+      </c>
+      <c r="I443" s="30"/>
+      <c r="J443" s="16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" ht="15">
+      <c r="A444" s="36">
+        <f t="shared" ref="A444:C444" si="400">A443</f>
+        <v>43930</v>
+      </c>
+      <c r="B444" s="4" t="str">
+        <f t="shared" si="400"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C444" s="37">
+        <f t="shared" si="400"/>
+        <v>43930</v>
+      </c>
+      <c r="D444" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E444" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G444" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H444" s="52">
+        <v>308</v>
+      </c>
+      <c r="I444" s="30"/>
+      <c r="J444" s="16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" ht="15">
+      <c r="A445" s="36">
+        <f>A444</f>
+        <v>43930</v>
+      </c>
+      <c r="B445" s="4" t="str">
+        <f>B444</f>
+        <v>4:42PM</v>
+      </c>
+      <c r="C445" s="37">
+        <f t="shared" ref="C445" si="401">C444</f>
+        <v>43930</v>
+      </c>
+      <c r="D445" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E445" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G445" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="H445" s="54">
+        <v>3320</v>
+      </c>
+      <c r="I445" s="30"/>
+      <c r="J445" s="16">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" ht="15">
+      <c r="A446" s="36">
+        <f>A445</f>
+        <v>43930</v>
+      </c>
+      <c r="B446" s="4" t="str">
+        <f>B445</f>
+        <v>4:42PM</v>
+      </c>
+      <c r="C446" s="37">
+        <f t="shared" ref="C446" si="402">C445</f>
+        <v>43930</v>
+      </c>
+      <c r="D446" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E446" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G446" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="H446" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="I446" s="30"/>
+      <c r="J446" s="16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" ht="15">
+      <c r="A447" s="36">
+        <f t="shared" ref="A447:A452" si="403">A446</f>
+        <v>43930</v>
+      </c>
+      <c r="B447" s="4" t="str">
+        <f t="shared" ref="B447:C452" si="404">B446</f>
+        <v>4:42PM</v>
+      </c>
+      <c r="C447" s="37">
+        <f t="shared" si="404"/>
+        <v>43930</v>
+      </c>
+      <c r="D447" s="4"/>
+      <c r="E447" s="7"/>
+      <c r="G447" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H447" s="51"/>
+      <c r="I447" s="53"/>
+    </row>
+    <row r="448" spans="1:10" ht="15">
+      <c r="A448" s="36">
+        <f t="shared" si="403"/>
+        <v>43930</v>
+      </c>
+      <c r="B448" s="4" t="str">
+        <f t="shared" si="404"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C448" s="37">
+        <f t="shared" si="404"/>
+        <v>43930</v>
+      </c>
+      <c r="D448" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E448" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G448" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H448" s="54">
+        <v>2064</v>
+      </c>
+      <c r="I448" s="30"/>
+      <c r="J448" s="16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" ht="15">
+      <c r="A449" s="36">
+        <f t="shared" si="403"/>
+        <v>43930</v>
+      </c>
+      <c r="B449" s="4" t="str">
+        <f t="shared" si="404"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C449" s="37">
+        <f t="shared" si="404"/>
+        <v>43930</v>
+      </c>
+      <c r="D449" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E449" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G449" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H449" s="52">
+        <v>122</v>
+      </c>
+      <c r="I449" s="30"/>
+      <c r="J449" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" ht="15">
+      <c r="A450" s="36">
+        <f t="shared" si="403"/>
+        <v>43930</v>
+      </c>
+      <c r="B450" s="4" t="str">
+        <f t="shared" si="404"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C450" s="37">
+        <f t="shared" si="404"/>
+        <v>43930</v>
+      </c>
+      <c r="D450" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E450" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G450" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H450" s="54">
+        <v>1540</v>
+      </c>
+      <c r="I450" s="30"/>
+      <c r="J450" s="16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" ht="15">
+      <c r="A451" s="36">
+        <f t="shared" si="403"/>
+        <v>43930</v>
+      </c>
+      <c r="B451" s="4" t="str">
+        <f t="shared" si="404"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C451" s="37">
+        <f t="shared" si="404"/>
+        <v>43930</v>
+      </c>
+      <c r="D451" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E451" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G451" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H451" s="52">
+        <v>449</v>
+      </c>
+      <c r="I451" s="30"/>
+      <c r="J451" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" ht="15">
+      <c r="A452" s="36">
+        <f t="shared" si="403"/>
+        <v>43930</v>
+      </c>
+      <c r="B452" s="4" t="str">
+        <f t="shared" si="404"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C452" s="37">
+        <f t="shared" si="404"/>
+        <v>43930</v>
+      </c>
+      <c r="D452" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E452" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G452" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H452" s="54">
+        <v>1354</v>
+      </c>
+      <c r="I452" s="30"/>
+      <c r="J452" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="A453" s="35">
+        <v>43931</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C453" s="42">
+        <f>A453</f>
+        <v>43931</v>
+      </c>
+      <c r="D453" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E453" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G453" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H453" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="I453" s="17" t="str">
+        <f>H454</f>
+        <v> 37,480</v>
+      </c>
+      <c r="J453" s="18" t="str">
+        <f>H455</f>
+        <v> 171</v>
+      </c>
+      <c r="K453" s="33">
+        <f>H456</f>
+        <v>1413</v>
+      </c>
+      <c r="L453" s="18" t="str">
+        <f>H457</f>
+        <v> 397</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="A454" s="36">
+        <f t="shared" ref="A454:E454" si="405">A453</f>
+        <v>43931</v>
+      </c>
+      <c r="B454" s="4" t="str">
+        <f t="shared" si="405"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C454" s="37">
+        <f t="shared" si="405"/>
+        <v>43931</v>
+      </c>
+      <c r="D454" s="4"/>
+      <c r="E454" s="11"/>
+      <c r="G454" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H454" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="I454" s="17"/>
+      <c r="J454" s="18"/>
+      <c r="K454" s="18"/>
+      <c r="L454" s="18"/>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="A455" s="36">
+        <f t="shared" ref="A455:E455" si="406">A454</f>
+        <v>43931</v>
+      </c>
+      <c r="B455" s="4" t="str">
+        <f t="shared" si="406"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C455" s="37">
+        <f t="shared" si="406"/>
+        <v>43931</v>
+      </c>
+      <c r="D455" s="4"/>
+      <c r="E455" s="11"/>
+      <c r="G455" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H455" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="I455" s="17"/>
+      <c r="J455" s="18"/>
+      <c r="K455" s="18"/>
+      <c r="L455" s="18"/>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="A456" s="36">
+        <f t="shared" ref="A456:E456" si="407">A455</f>
+        <v>43931</v>
+      </c>
+      <c r="B456" s="4" t="str">
+        <f t="shared" si="407"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C456" s="37">
+        <f t="shared" si="407"/>
+        <v>43931</v>
+      </c>
+      <c r="D456" s="4"/>
+      <c r="E456" s="11"/>
+      <c r="G456" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H456" s="51">
+        <v>1413</v>
+      </c>
+      <c r="I456" s="17"/>
+      <c r="J456" s="18"/>
+      <c r="K456" s="18"/>
+      <c r="L456" s="18"/>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457" s="36">
+        <f t="shared" ref="A457:E457" si="408">A456</f>
+        <v>43931</v>
+      </c>
+      <c r="B457" s="4" t="str">
+        <f t="shared" si="408"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C457" s="37">
+        <f t="shared" si="408"/>
+        <v>43931</v>
+      </c>
+      <c r="D457" s="4"/>
+      <c r="E457" s="11"/>
+      <c r="G457" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H457" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="I457" s="17"/>
+      <c r="J457" s="18"/>
+      <c r="K457" s="18"/>
+      <c r="L457" s="18"/>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458" s="36">
+        <f t="shared" ref="A458:E458" si="409">A457</f>
+        <v>43931</v>
+      </c>
+      <c r="B458" s="4" t="str">
+        <f t="shared" si="409"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C458" s="37">
+        <f t="shared" si="409"/>
+        <v>43931</v>
+      </c>
+      <c r="D458" s="4"/>
+      <c r="E458" s="11"/>
+      <c r="G458" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H458" s="51"/>
+      <c r="I458" s="53"/>
+    </row>
+    <row r="459" spans="1:12" ht="15.6">
+      <c r="A459" s="36">
+        <f t="shared" ref="A459:E459" si="410">A458</f>
+        <v>43931</v>
+      </c>
+      <c r="B459" s="4" t="str">
+        <f t="shared" si="410"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C459" s="37">
+        <f t="shared" si="410"/>
+        <v>43931</v>
+      </c>
+      <c r="D459" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E459" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G459" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="H459" s="58">
+        <v>10</v>
+      </c>
+      <c r="I459" s="53"/>
+    </row>
+    <row r="460" spans="1:12" ht="15.6">
+      <c r="A460" s="36">
+        <f t="shared" ref="A460:E460" si="411">A459</f>
+        <v>43931</v>
+      </c>
+      <c r="B460" s="4" t="str">
+        <f t="shared" si="411"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C460" s="37">
+        <f t="shared" si="411"/>
+        <v>43931</v>
+      </c>
+      <c r="D460" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E460" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G460" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H460" s="58">
+        <v>554</v>
+      </c>
+      <c r="I460" s="56"/>
+      <c r="J460" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" ht="15.6">
+      <c r="A461" s="36">
+        <f t="shared" ref="A461:E461" si="412">A460</f>
+        <v>43931</v>
+      </c>
+      <c r="B461" s="4" t="str">
+        <f t="shared" si="412"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C461" s="37">
+        <f t="shared" si="412"/>
+        <v>43931</v>
+      </c>
+      <c r="D461" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E461" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G461" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H461" s="58">
+        <v>689</v>
+      </c>
+      <c r="I461" s="56"/>
+      <c r="J461" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" ht="15.6">
+      <c r="A462" s="36">
+        <f t="shared" ref="A462:E462" si="413">A461</f>
+        <v>43931</v>
+      </c>
+      <c r="B462" s="4" t="str">
+        <f t="shared" si="413"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C462" s="37">
+        <f t="shared" si="413"/>
+        <v>43931</v>
+      </c>
+      <c r="D462" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E462" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G462" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H462" s="59">
+        <v>1072</v>
+      </c>
+      <c r="I462" s="56"/>
+      <c r="J462" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" ht="15.6">
+      <c r="A463" s="36">
+        <f t="shared" ref="A463:E463" si="414">A462</f>
+        <v>43931</v>
+      </c>
+      <c r="B463" s="4" t="str">
+        <f t="shared" si="414"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C463" s="37">
+        <f t="shared" si="414"/>
+        <v>43931</v>
+      </c>
+      <c r="D463" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E463" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G463" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H463" s="58">
+        <v>76</v>
+      </c>
+      <c r="I463" s="56"/>
+      <c r="J463" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" ht="15.6">
+      <c r="A464" s="36">
+        <f t="shared" ref="A464:E464" si="415">A463</f>
+        <v>43931</v>
+      </c>
+      <c r="B464" s="4" t="str">
+        <f t="shared" si="415"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C464" s="37">
+        <f t="shared" si="415"/>
+        <v>43931</v>
+      </c>
+      <c r="D464" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E464" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G464" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H464" s="58">
+        <v>12</v>
+      </c>
+      <c r="I464" s="56"/>
+    </row>
+    <row r="465" spans="1:10" ht="15.6">
+      <c r="A465" s="36">
+        <f t="shared" ref="A465:E465" si="416">A464</f>
+        <v>43931</v>
+      </c>
+      <c r="B465" s="4" t="str">
+        <f t="shared" si="416"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C465" s="37">
+        <f t="shared" si="416"/>
+        <v>43931</v>
+      </c>
+      <c r="D465" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E465" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G465" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H465" s="58">
+        <v>214</v>
+      </c>
+      <c r="I465" s="56"/>
+      <c r="J465" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" ht="15.6">
+      <c r="A466" s="36">
+        <f t="shared" ref="A466:E466" si="417">A465</f>
+        <v>43931</v>
+      </c>
+      <c r="B466" s="4" t="str">
+        <f t="shared" si="417"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C466" s="37">
+        <f t="shared" si="417"/>
+        <v>43931</v>
+      </c>
+      <c r="D466" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E466" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G466" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H466" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="I466" s="56"/>
+      <c r="J466" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" ht="15.6">
+      <c r="A467" s="36">
+        <f t="shared" ref="A467:E467" si="418">A466</f>
+        <v>43931</v>
+      </c>
+      <c r="B467" s="4" t="str">
+        <f t="shared" si="418"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C467" s="37">
+        <f t="shared" si="418"/>
+        <v>43931</v>
+      </c>
+      <c r="D467" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E467" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G467" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H467" s="58">
+        <v>220</v>
+      </c>
+      <c r="I467" s="56"/>
+      <c r="J467" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" ht="15.6">
+      <c r="A468" s="36">
+        <f t="shared" ref="A468:E468" si="419">A467</f>
+        <v>43931</v>
+      </c>
+      <c r="B468" s="4" t="str">
+        <f t="shared" si="419"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C468" s="37">
+        <f t="shared" si="419"/>
+        <v>43931</v>
+      </c>
+      <c r="D468" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E468" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G468" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H468" s="58">
+        <v>7</v>
+      </c>
+      <c r="I468" s="56"/>
+    </row>
+    <row r="469" spans="1:10" ht="15.6">
+      <c r="A469" s="36">
+        <f t="shared" ref="A469:E469" si="420">A468</f>
+        <v>43931</v>
+      </c>
+      <c r="B469" s="4" t="str">
+        <f t="shared" si="420"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C469" s="37">
+        <f t="shared" si="420"/>
+        <v>43931</v>
+      </c>
+      <c r="D469" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E469" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G469" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H469" s="58">
+        <v>289</v>
+      </c>
+      <c r="I469" s="56"/>
+      <c r="J469" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" ht="15.6">
+      <c r="A470" s="36">
+        <f t="shared" ref="A470:E470" si="421">A469</f>
+        <v>43931</v>
+      </c>
+      <c r="B470" s="4" t="str">
+        <f t="shared" si="421"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C470" s="37">
+        <f t="shared" si="421"/>
+        <v>43931</v>
+      </c>
+      <c r="D470" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E470" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G470" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H470" s="58">
+        <v>4</v>
+      </c>
+      <c r="I470" s="56"/>
+    </row>
+    <row r="471" spans="1:10" ht="15.6">
+      <c r="A471" s="36">
+        <f t="shared" ref="A471:E471" si="422">A470</f>
+        <v>43931</v>
+      </c>
+      <c r="B471" s="4" t="str">
+        <f t="shared" si="422"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C471" s="37">
+        <f t="shared" si="422"/>
+        <v>43931</v>
+      </c>
+      <c r="D471" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E471" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G471" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H471" s="58">
+        <v>110</v>
+      </c>
+      <c r="I471" s="56"/>
+    </row>
+    <row r="472" spans="1:10" ht="15.6">
+      <c r="A472" s="36">
+        <f t="shared" ref="A472:E472" si="423">A471</f>
+        <v>43931</v>
+      </c>
+      <c r="B472" s="4" t="str">
+        <f t="shared" si="423"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C472" s="37">
+        <f t="shared" si="423"/>
+        <v>43931</v>
+      </c>
+      <c r="D472" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E472" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G472" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H472" s="58">
+        <v>319</v>
+      </c>
+      <c r="I472" s="56"/>
+      <c r="J472" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" ht="15.6">
+      <c r="A473" s="36">
+        <f t="shared" ref="A473:E473" si="424">A472</f>
+        <v>43931</v>
+      </c>
+      <c r="B473" s="4" t="str">
+        <f t="shared" si="424"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C473" s="37">
+        <f t="shared" si="424"/>
+        <v>43931</v>
+      </c>
+      <c r="D473" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E473" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G473" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H473" s="58">
+        <v>9</v>
+      </c>
+      <c r="I473" s="56"/>
+    </row>
+    <row r="474" spans="1:10" ht="15.6">
+      <c r="A474" s="36">
+        <f t="shared" ref="A474:E474" si="425">A473</f>
+        <v>43931</v>
+      </c>
+      <c r="B474" s="4" t="str">
+        <f t="shared" si="425"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C474" s="37">
+        <f t="shared" si="425"/>
+        <v>43931</v>
+      </c>
+      <c r="D474" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E474" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G474" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H474" s="59">
+        <v>1388</v>
+      </c>
+      <c r="I474" s="56"/>
+      <c r="J474" s="16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" ht="15.6">
+      <c r="A475" s="36">
+        <f t="shared" ref="A475:E475" si="426">A474</f>
+        <v>43931</v>
+      </c>
+      <c r="B475" s="4" t="str">
+        <f t="shared" si="426"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C475" s="37">
+        <f t="shared" si="426"/>
+        <v>43931</v>
+      </c>
+      <c r="D475" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E475" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G475" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H475" s="59">
+        <v>1716</v>
+      </c>
+      <c r="I475" s="56"/>
+      <c r="J475" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" ht="15.6">
+      <c r="A476" s="36">
+        <f t="shared" ref="A476:E476" si="427">A475</f>
+        <v>43931</v>
+      </c>
+      <c r="B476" s="4" t="str">
+        <f t="shared" si="427"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C476" s="37">
+        <f t="shared" si="427"/>
+        <v>43931</v>
+      </c>
+      <c r="D476" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E476" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G476" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H476" s="58">
+        <v>17</v>
+      </c>
+      <c r="I476" s="56"/>
+    </row>
+    <row r="477" spans="1:10" ht="15.6">
+      <c r="A477" s="36">
+        <f t="shared" ref="A477:E477" si="428">A476</f>
+        <v>43931</v>
+      </c>
+      <c r="B477" s="4" t="str">
+        <f t="shared" si="428"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C477" s="37">
+        <f t="shared" si="428"/>
+        <v>43931</v>
+      </c>
+      <c r="D477" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E477" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G477" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H477" s="58">
+        <v>71</v>
+      </c>
+      <c r="I477" s="56"/>
+    </row>
+    <row r="478" spans="1:10" ht="15.6">
+      <c r="A478" s="36">
+        <f t="shared" ref="A478:E478" si="429">A477</f>
+        <v>43931</v>
+      </c>
+      <c r="B478" s="4" t="str">
+        <f t="shared" si="429"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C478" s="37">
+        <f t="shared" si="429"/>
+        <v>43931</v>
+      </c>
+      <c r="D478" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E478" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G478" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H478" s="58">
+        <v>4</v>
+      </c>
+      <c r="I478" s="56"/>
+    </row>
+    <row r="479" spans="1:10" ht="15.6">
+      <c r="A479" s="36">
+        <f t="shared" ref="A479:E479" si="430">A478</f>
+        <v>43931</v>
+      </c>
+      <c r="B479" s="4" t="str">
+        <f t="shared" si="430"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C479" s="37">
+        <f t="shared" si="430"/>
+        <v>43931</v>
+      </c>
+      <c r="D479" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E479" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G479" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H479" s="58">
+        <v>13</v>
+      </c>
+      <c r="I479" s="56"/>
+      <c r="J479" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" ht="15.6">
+      <c r="A480" s="36">
+        <f t="shared" ref="A480:E480" si="431">A479</f>
+        <v>43931</v>
+      </c>
+      <c r="B480" s="4" t="str">
+        <f t="shared" si="431"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C480" s="37">
+        <f t="shared" si="431"/>
+        <v>43931</v>
+      </c>
+      <c r="D480" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E480" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G480" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H480" s="58">
+        <v>66</v>
+      </c>
+      <c r="I480" s="56"/>
+    </row>
+    <row r="481" spans="1:10" ht="15.6">
+      <c r="A481" s="36">
+        <f t="shared" ref="A481:E481" si="432">A480</f>
+        <v>43931</v>
+      </c>
+      <c r="B481" s="4" t="str">
+        <f t="shared" si="432"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C481" s="37">
+        <f t="shared" si="432"/>
+        <v>43931</v>
+      </c>
+      <c r="D481" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E481" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G481" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H481" s="58">
+        <v>28</v>
+      </c>
+      <c r="I481" s="56"/>
+      <c r="J481" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" ht="15.6">
+      <c r="A482" s="36">
+        <f t="shared" ref="A482:E482" si="433">A481</f>
+        <v>43931</v>
+      </c>
+      <c r="B482" s="4" t="str">
+        <f t="shared" si="433"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C482" s="37">
+        <f t="shared" si="433"/>
+        <v>43931</v>
+      </c>
+      <c r="D482" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E482" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G482" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H482" s="58">
+        <v>16</v>
+      </c>
+      <c r="I482" s="56"/>
+    </row>
+    <row r="483" spans="1:10" ht="28.2">
+      <c r="A483" s="36">
+        <f t="shared" ref="A483:E483" si="434">A482</f>
+        <v>43931</v>
+      </c>
+      <c r="B483" s="4" t="str">
+        <f t="shared" si="434"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C483" s="37">
+        <f t="shared" si="434"/>
+        <v>43931</v>
+      </c>
+      <c r="D483" s="4"/>
+      <c r="E483" s="11"/>
+      <c r="G483" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H483" s="51"/>
+      <c r="I483" s="53"/>
+    </row>
+    <row r="484" spans="1:10">
+      <c r="A484" s="36">
+        <f t="shared" ref="A484:E484" si="435">A483</f>
+        <v>43931</v>
+      </c>
+      <c r="B484" s="4" t="str">
+        <f t="shared" si="435"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C484" s="37">
+        <f t="shared" si="435"/>
+        <v>43931</v>
+      </c>
+      <c r="D484" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E484" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G484" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H484" s="58">
+        <v>36</v>
+      </c>
+      <c r="I484" s="56"/>
+    </row>
+    <row r="485" spans="1:10">
+      <c r="A485" s="36">
+        <f t="shared" ref="A485:E485" si="436">A484</f>
+        <v>43931</v>
+      </c>
+      <c r="B485" s="4" t="str">
+        <f t="shared" si="436"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C485" s="37">
+        <f t="shared" si="436"/>
+        <v>43931</v>
+      </c>
+      <c r="D485" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E485" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G485" s="57">
+        <v>44123</v>
+      </c>
+      <c r="H485" s="58">
+        <v>146</v>
+      </c>
+      <c r="I485" s="56"/>
+    </row>
+    <row r="486" spans="1:10">
+      <c r="A486" s="36">
+        <f t="shared" ref="A486:E486" si="437">A485</f>
+        <v>43931</v>
+      </c>
+      <c r="B486" s="4" t="str">
+        <f t="shared" si="437"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C486" s="37">
+        <f t="shared" si="437"/>
+        <v>43931</v>
+      </c>
+      <c r="D486" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E486" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G486" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H486" s="58">
+        <v>772</v>
+      </c>
+      <c r="I486" s="56"/>
+    </row>
+    <row r="487" spans="1:10">
+      <c r="A487" s="36">
+        <f t="shared" ref="A487:E487" si="438">A486</f>
+        <v>43931</v>
+      </c>
+      <c r="B487" s="4" t="str">
+        <f t="shared" si="438"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C487" s="37">
+        <f t="shared" si="438"/>
+        <v>43931</v>
+      </c>
+      <c r="D487" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E487" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G487" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H487" s="59">
+        <v>1205</v>
+      </c>
+      <c r="I487" s="56"/>
+      <c r="J487" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10">
+      <c r="A488" s="36">
+        <f t="shared" ref="A488:E488" si="439">A487</f>
+        <v>43931</v>
+      </c>
+      <c r="B488" s="4" t="str">
+        <f t="shared" si="439"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C488" s="37">
+        <f t="shared" si="439"/>
+        <v>43931</v>
+      </c>
+      <c r="D488" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E488" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G488" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H488" s="59">
+        <v>1281</v>
+      </c>
+      <c r="I488" s="56"/>
+      <c r="J488" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10">
+      <c r="A489" s="36">
+        <f t="shared" ref="A489:E489" si="440">A488</f>
+        <v>43931</v>
+      </c>
+      <c r="B489" s="4" t="str">
+        <f t="shared" si="440"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C489" s="37">
+        <f t="shared" si="440"/>
+        <v>43931</v>
+      </c>
+      <c r="D489" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E489" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G489" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H489" s="59">
+        <v>1421</v>
+      </c>
+      <c r="I489" s="56"/>
+      <c r="J489" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10">
+      <c r="A490" s="36">
+        <f t="shared" ref="A490:E490" si="441">A489</f>
+        <v>43931</v>
+      </c>
+      <c r="B490" s="4" t="str">
+        <f t="shared" si="441"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C490" s="37">
+        <f t="shared" si="441"/>
+        <v>43931</v>
+      </c>
+      <c r="D490" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E490" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G490" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H490" s="59">
+        <v>1051</v>
+      </c>
+      <c r="I490" s="56"/>
+      <c r="J490" s="16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10">
+      <c r="A491" s="36">
+        <f t="shared" ref="A491:E491" si="442">A490</f>
+        <v>43931</v>
+      </c>
+      <c r="B491" s="4" t="str">
+        <f t="shared" si="442"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C491" s="37">
+        <f t="shared" si="442"/>
+        <v>43931</v>
+      </c>
+      <c r="D491" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E491" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G491" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H491" s="58">
+        <v>685</v>
+      </c>
+      <c r="I491" s="56"/>
+      <c r="J491" s="16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10">
+      <c r="A492" s="36">
+        <f t="shared" ref="A492:E492" si="443">A491</f>
+        <v>43931</v>
+      </c>
+      <c r="B492" s="4" t="str">
+        <f t="shared" si="443"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C492" s="37">
+        <f t="shared" si="443"/>
+        <v>43931</v>
+      </c>
+      <c r="D492" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E492" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G492" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H492" s="58">
+        <v>371</v>
+      </c>
+      <c r="I492" s="56"/>
+      <c r="J492" s="16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10">
+      <c r="A493" s="36">
+        <f>A492</f>
+        <v>43931</v>
+      </c>
+      <c r="B493" s="4" t="str">
+        <f>B492</f>
+        <v>4:42PM</v>
+      </c>
+      <c r="C493" s="37">
+        <f t="shared" ref="B493:D495" si="444">C492</f>
+        <v>43931</v>
+      </c>
+      <c r="D493" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E493" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G493" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="H493" s="59">
+        <v>3753</v>
+      </c>
+      <c r="I493" s="56"/>
+      <c r="J493" s="16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10">
+      <c r="A494" s="36">
+        <f>A493</f>
+        <v>43931</v>
+      </c>
+      <c r="B494" s="4" t="str">
+        <f>B493</f>
+        <v>4:42PM</v>
+      </c>
+      <c r="C494" s="37">
+        <f t="shared" si="444"/>
+        <v>43931</v>
+      </c>
+      <c r="D494" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E494" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G494" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="H494" s="59">
+        <v>3215</v>
+      </c>
+      <c r="I494" s="56"/>
+      <c r="J494" s="16">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10">
+      <c r="A495" s="36">
+        <f t="shared" ref="A495:D500" si="445">A494</f>
+        <v>43931</v>
+      </c>
+      <c r="B495" s="4" t="str">
+        <f t="shared" si="444"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C495" s="37">
+        <f t="shared" si="444"/>
+        <v>43931</v>
+      </c>
+      <c r="D495" s="4"/>
+      <c r="E495" s="7"/>
+      <c r="G495" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="H495" s="51"/>
+      <c r="I495" s="53"/>
+    </row>
+    <row r="496" spans="1:10" ht="15">
+      <c r="A496" s="36">
+        <f t="shared" si="445"/>
+        <v>43931</v>
+      </c>
+      <c r="B496" s="4" t="str">
+        <f t="shared" ref="B496:D496" si="446">B495</f>
+        <v>4:42PM</v>
+      </c>
+      <c r="C496" s="37">
+        <f t="shared" si="446"/>
+        <v>43931</v>
+      </c>
+      <c r="D496" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E496" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G496" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="H496" s="59">
+        <v>2304</v>
+      </c>
+      <c r="I496" s="56"/>
+      <c r="J496" s="16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" ht="15">
+      <c r="A497" s="36">
+        <f t="shared" si="445"/>
+        <v>43931</v>
+      </c>
+      <c r="B497" s="4" t="str">
+        <f t="shared" ref="B497:D497" si="447">B496</f>
+        <v>4:42PM</v>
+      </c>
+      <c r="C497" s="37">
+        <f t="shared" si="447"/>
+        <v>43931</v>
+      </c>
+      <c r="D497" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E497" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G497" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="H497" s="58">
+        <v>136</v>
+      </c>
+      <c r="I497" s="56"/>
+      <c r="J497" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" ht="15">
+      <c r="A498" s="36">
+        <f t="shared" si="445"/>
+        <v>43931</v>
+      </c>
+      <c r="B498" s="4" t="str">
+        <f t="shared" ref="B498:D498" si="448">B497</f>
+        <v>4:42PM</v>
+      </c>
+      <c r="C498" s="37">
+        <f t="shared" si="448"/>
+        <v>43931</v>
+      </c>
+      <c r="D498" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E498" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G498" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="H498" s="59">
+        <v>1694</v>
+      </c>
+      <c r="I498" s="56"/>
+      <c r="J498" s="16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" ht="15">
+      <c r="A499" s="36">
+        <f t="shared" si="445"/>
+        <v>43931</v>
+      </c>
+      <c r="B499" s="4" t="str">
+        <f t="shared" ref="B499:D499" si="449">B498</f>
+        <v>4:42PM</v>
+      </c>
+      <c r="C499" s="37">
+        <f t="shared" si="449"/>
+        <v>43931</v>
+      </c>
+      <c r="D499" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E499" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G499" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="H499" s="58">
+        <v>544</v>
+      </c>
+      <c r="I499" s="56"/>
+      <c r="J499" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10">
+      <c r="A500" s="36">
+        <f t="shared" si="445"/>
+        <v>43931</v>
+      </c>
+      <c r="B500" s="4" t="str">
+        <f t="shared" si="445"/>
+        <v>4:42PM</v>
+      </c>
+      <c r="C500" s="37">
+        <f t="shared" si="445"/>
+        <v>43931</v>
+      </c>
+      <c r="D500" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E500" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G500" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="H500" s="59">
+        <v>1507</v>
+      </c>
+      <c r="I500" s="56"/>
+      <c r="J500" s="16">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DataMD/MDHealthDepartmentDashboard.xlsx
+++ b/DataMD/MDHealthDepartmentDashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="363">
   <si>
     <t>Anne Arundel</t>
   </si>
@@ -1052,6 +1052,69 @@
   <si>
     <t>11:56AM</t>
   </si>
+  <si>
+    <t>8,268 </t>
+  </si>
+  <si>
+    <t>1:37PM</t>
+  </si>
+  <si>
+    <t> 17,766</t>
+  </si>
+  <si>
+    <t> 71,357</t>
+  </si>
+  <si>
+    <t> 797</t>
+  </si>
+  <si>
+    <t> 78</t>
+  </si>
+  <si>
+    <t> 1408</t>
+  </si>
+  <si>
+    <t> 870</t>
+  </si>
+  <si>
+    <t> 538</t>
+  </si>
+  <si>
+    <t> 3,760</t>
+  </si>
+  <si>
+    <t> 1,165</t>
+  </si>
+  <si>
+    <t> 18,581</t>
+  </si>
+  <si>
+    <t> 78,084    </t>
+  </si>
+  <si>
+    <t> 827</t>
+  </si>
+  <si>
+    <t> 83</t>
+  </si>
+  <si>
+    <t> 1463</t>
+  </si>
+  <si>
+    <t> 933</t>
+  </si>
+  <si>
+    <t> 530</t>
+  </si>
+  <si>
+    <t> 3,962</t>
+  </si>
+  <si>
+    <t> 1,177</t>
+  </si>
+  <si>
+    <t>2:42PM</t>
+  </si>
 </sst>
 </file>
 
@@ -1877,11 +1940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1309"/>
+  <dimension ref="A1:R1437"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1247" sqref="C1247"/>
+      <pane ySplit="1" topLeftCell="A1392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1413" sqref="K1413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39974,7 +40037,7 @@
       <c r="K1256" s="51"/>
       <c r="L1256" s="51"/>
     </row>
-    <row r="1257" spans="1:17" ht="33.75">
+    <row r="1257" spans="1:17" ht="22.5">
       <c r="A1257" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41172,7 +41235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1297" spans="1:12">
+    <row r="1297" spans="1:17">
       <c r="A1297" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41205,7 +41268,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1298" spans="1:12" ht="15.75">
+    <row r="1298" spans="1:17" ht="15.75">
       <c r="A1298" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41236,7 +41299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1299" spans="1:12">
+    <row r="1299" spans="1:17">
       <c r="A1299" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41269,7 +41332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1300" spans="1:12">
+    <row r="1300" spans="1:17">
       <c r="A1300" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41302,7 +41365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1301" spans="1:12" ht="15.75">
+    <row r="1301" spans="1:17" ht="15.75">
       <c r="A1301" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41328,7 +41391,7 @@
       <c r="J1301" s="61"/>
       <c r="L1301" s="24"/>
     </row>
-    <row r="1302" spans="1:12" ht="15.75">
+    <row r="1302" spans="1:17" ht="15.75">
       <c r="A1302" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41350,7 +41413,7 @@
       <c r="J1302" s="51"/>
       <c r="L1302" s="51"/>
     </row>
-    <row r="1303" spans="1:12">
+    <row r="1303" spans="1:17">
       <c r="A1303" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41372,7 +41435,7 @@
       <c r="J1303" s="61"/>
       <c r="L1303" s="24"/>
     </row>
-    <row r="1304" spans="1:12">
+    <row r="1304" spans="1:17">
       <c r="A1304" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41405,7 +41468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1305" spans="1:12">
+    <row r="1305" spans="1:17">
       <c r="A1305" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41438,7 +41501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1306" spans="1:12">
+    <row r="1306" spans="1:17">
       <c r="A1306" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41471,7 +41534,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1307" spans="1:12">
+    <row r="1307" spans="1:17">
       <c r="A1307" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41502,7 +41565,7 @@
       </c>
       <c r="L1307" s="24"/>
     </row>
-    <row r="1308" spans="1:12">
+    <row r="1308" spans="1:17">
       <c r="A1308" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41533,7 +41596,7 @@
       </c>
       <c r="L1308" s="24"/>
     </row>
-    <row r="1309" spans="1:12">
+    <row r="1309" spans="1:17">
       <c r="A1309" s="29">
         <f t="shared" si="1241"/>
         <v>43945</v>
@@ -41564,6 +41627,3884 @@
       </c>
       <c r="L1309" s="24">
         <v>9</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:17" ht="15.75">
+      <c r="A1310" s="28">
+        <v>43946</v>
+      </c>
+      <c r="B1310" s="28"/>
+      <c r="C1310" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1310" s="35">
+        <f>A1310</f>
+        <v>43946</v>
+      </c>
+      <c r="E1310" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1310" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1310" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1310" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1310" s="12" t="str">
+        <f>I1311</f>
+        <v> 71,357</v>
+      </c>
+      <c r="K1310" s="13" t="str">
+        <f>I1312</f>
+        <v> 797</v>
+      </c>
+      <c r="L1310" s="13" t="str">
+        <f>I1313</f>
+        <v> 78</v>
+      </c>
+      <c r="M1310" s="13" t="str">
+        <f>I1314</f>
+        <v> 1408</v>
+      </c>
+      <c r="N1310" s="13" t="str">
+        <f>I1315</f>
+        <v> 870</v>
+      </c>
+      <c r="O1310" s="13" t="str">
+        <f>I1316</f>
+        <v> 538</v>
+      </c>
+      <c r="P1310" s="27" t="str">
+        <f>I1317</f>
+        <v> 3,760</v>
+      </c>
+      <c r="Q1310" s="13" t="str">
+        <f>I1318</f>
+        <v> 1,165</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:17" ht="15.75">
+      <c r="A1311" s="29">
+        <f t="shared" ref="A1311:A1373" si="1304">A1310</f>
+        <v>43946</v>
+      </c>
+      <c r="C1311" s="2" t="str">
+        <f t="shared" ref="C1311:D1311" si="1305">C1310</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1311" s="30">
+        <f t="shared" si="1305"/>
+        <v>43946</v>
+      </c>
+      <c r="E1311" s="2"/>
+      <c r="F1311" s="9"/>
+      <c r="H1311" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1311" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="J1311" s="12"/>
+      <c r="K1311" s="13"/>
+      <c r="L1311" s="13"/>
+      <c r="M1311" s="13"/>
+      <c r="N1311" s="13"/>
+      <c r="O1311" s="13"/>
+      <c r="P1311" s="13"/>
+      <c r="Q1311" s="13"/>
+    </row>
+    <row r="1312" spans="1:17" ht="15.75">
+      <c r="A1312" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1312" s="2" t="str">
+        <f t="shared" ref="C1312:D1312" si="1306">C1311</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1312" s="30">
+        <f t="shared" si="1306"/>
+        <v>43946</v>
+      </c>
+      <c r="E1312" s="2"/>
+      <c r="F1312" s="9"/>
+      <c r="H1312" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="I1312" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1312" s="12"/>
+      <c r="K1312" s="13"/>
+      <c r="L1312" s="13"/>
+      <c r="M1312" s="13"/>
+      <c r="N1312" s="13"/>
+      <c r="O1312" s="13"/>
+      <c r="P1312" s="13"/>
+      <c r="Q1312" s="13"/>
+    </row>
+    <row r="1313" spans="1:17" ht="15.75">
+      <c r="A1313" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1313" s="2" t="str">
+        <f t="shared" ref="C1313:D1313" si="1307">C1312</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1313" s="30">
+        <f t="shared" si="1307"/>
+        <v>43946</v>
+      </c>
+      <c r="E1313" s="2"/>
+      <c r="F1313" s="9"/>
+      <c r="H1313" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1313" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1313" s="12"/>
+      <c r="K1313" s="13"/>
+      <c r="L1313" s="13"/>
+      <c r="M1313" s="13"/>
+      <c r="N1313" s="13"/>
+      <c r="O1313" s="13"/>
+      <c r="P1313" s="13"/>
+      <c r="Q1313" s="13"/>
+    </row>
+    <row r="1314" spans="1:17" ht="15.75">
+      <c r="A1314" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1314" s="2" t="str">
+        <f t="shared" ref="C1314:D1314" si="1308">C1313</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1314" s="30">
+        <f t="shared" si="1308"/>
+        <v>43946</v>
+      </c>
+      <c r="E1314" s="2"/>
+      <c r="F1314" s="9"/>
+      <c r="H1314" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1314" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1314" s="12"/>
+      <c r="K1314" s="13"/>
+      <c r="L1314" s="13"/>
+      <c r="M1314" s="13"/>
+      <c r="N1314" s="13"/>
+      <c r="O1314" s="13"/>
+      <c r="P1314" s="13"/>
+      <c r="Q1314" s="13"/>
+    </row>
+    <row r="1315" spans="1:17" ht="15.75">
+      <c r="A1315" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1315" s="2" t="str">
+        <f t="shared" ref="C1315:D1315" si="1309">C1314</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1315" s="30">
+        <f t="shared" si="1309"/>
+        <v>43946</v>
+      </c>
+      <c r="E1315" s="2"/>
+      <c r="F1315" s="9"/>
+      <c r="H1315" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1315" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1315" s="56"/>
+      <c r="K1315" s="56"/>
+      <c r="L1315" s="56"/>
+      <c r="M1315" s="56"/>
+      <c r="N1315" s="56"/>
+      <c r="O1315" s="56"/>
+      <c r="P1315" s="56"/>
+      <c r="Q1315" s="13"/>
+    </row>
+    <row r="1316" spans="1:17" ht="15.75">
+      <c r="A1316" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1316" s="2" t="str">
+        <f t="shared" ref="C1316:D1316" si="1310">C1315</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1316" s="30">
+        <f t="shared" si="1310"/>
+        <v>43946</v>
+      </c>
+      <c r="E1316" s="2"/>
+      <c r="F1316" s="9"/>
+      <c r="H1316" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1316" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1316" s="56"/>
+      <c r="K1316" s="56"/>
+      <c r="L1316" s="56"/>
+      <c r="M1316" s="56"/>
+      <c r="N1316" s="56"/>
+      <c r="O1316" s="56"/>
+      <c r="P1316" s="56"/>
+      <c r="Q1316" s="13"/>
+    </row>
+    <row r="1317" spans="1:17" ht="15.75">
+      <c r="A1317" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1317" s="2" t="str">
+        <f t="shared" ref="C1317:D1317" si="1311">C1316</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1317" s="30">
+        <f t="shared" si="1311"/>
+        <v>43946</v>
+      </c>
+      <c r="E1317" s="2"/>
+      <c r="F1317" s="9"/>
+      <c r="H1317" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1317" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="J1317" s="56"/>
+      <c r="K1317" s="56"/>
+      <c r="L1317" s="56"/>
+      <c r="M1317" s="56"/>
+      <c r="N1317" s="56"/>
+      <c r="O1317" s="56"/>
+      <c r="P1317" s="56"/>
+      <c r="Q1317" s="13"/>
+    </row>
+    <row r="1318" spans="1:17" ht="15.75">
+      <c r="A1318" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1318" s="2" t="str">
+        <f t="shared" ref="C1318:D1318" si="1312">C1317</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1318" s="30">
+        <f t="shared" si="1312"/>
+        <v>43946</v>
+      </c>
+      <c r="E1318" s="2"/>
+      <c r="F1318" s="9"/>
+      <c r="H1318" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1318" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1318" s="56"/>
+      <c r="K1318" s="56"/>
+      <c r="L1318" s="56"/>
+      <c r="M1318" s="56"/>
+      <c r="N1318" s="56"/>
+      <c r="O1318" s="56"/>
+      <c r="P1318" s="56"/>
+      <c r="Q1318" s="13"/>
+    </row>
+    <row r="1319" spans="1:17" ht="15.75">
+      <c r="A1319" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1319" s="2" t="str">
+        <f t="shared" ref="C1319:D1319" si="1313">C1318</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1319" s="30">
+        <f t="shared" si="1313"/>
+        <v>43946</v>
+      </c>
+      <c r="E1319" s="2"/>
+      <c r="F1319" s="9"/>
+      <c r="H1319" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1319" s="51"/>
+      <c r="J1319" s="51"/>
+      <c r="K1319" s="51"/>
+      <c r="L1319" s="51"/>
+    </row>
+    <row r="1320" spans="1:17" ht="22.5">
+      <c r="A1320" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1320" s="2" t="str">
+        <f t="shared" ref="C1320:D1320" si="1314">C1319</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1320" s="30">
+        <f t="shared" si="1314"/>
+        <v>43946</v>
+      </c>
+      <c r="E1320" s="2"/>
+      <c r="F1320" s="9"/>
+      <c r="H1320" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1320" s="51"/>
+      <c r="J1320" s="51"/>
+      <c r="K1320" s="51"/>
+      <c r="L1320" s="51"/>
+    </row>
+    <row r="1321" spans="1:17" ht="22.5">
+      <c r="A1321" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1321" s="2" t="str">
+        <f t="shared" ref="C1321:D1321" si="1315">C1320</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1321" s="30">
+        <f t="shared" si="1315"/>
+        <v>43946</v>
+      </c>
+      <c r="E1321" s="2"/>
+      <c r="F1321" s="9"/>
+      <c r="H1321" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1321" s="51"/>
+      <c r="J1321" s="51"/>
+      <c r="K1321" s="51"/>
+      <c r="L1321" s="51"/>
+    </row>
+    <row r="1322" spans="1:17">
+      <c r="A1322" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1322" s="2" t="str">
+        <f t="shared" ref="C1322:D1322" si="1316">C1321</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1322" s="30">
+        <f t="shared" si="1316"/>
+        <v>43946</v>
+      </c>
+      <c r="E1322" s="2"/>
+      <c r="F1322" s="9"/>
+      <c r="H1322" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1322" s="51"/>
+      <c r="J1322" s="51"/>
+      <c r="K1322" s="51"/>
+      <c r="L1322" s="51"/>
+    </row>
+    <row r="1323" spans="1:17">
+      <c r="A1323" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1323" s="2" t="str">
+        <f t="shared" ref="C1323:D1323" si="1317">C1322</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1323" s="30">
+        <f t="shared" si="1317"/>
+        <v>43946</v>
+      </c>
+      <c r="E1323" s="2"/>
+      <c r="F1323" s="9"/>
+      <c r="H1323" s="60"/>
+      <c r="I1323" s="51"/>
+      <c r="J1323" s="51"/>
+      <c r="K1323" s="51"/>
+      <c r="L1323" s="51"/>
+    </row>
+    <row r="1324" spans="1:17" ht="15.75">
+      <c r="A1324" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1324" s="2" t="str">
+        <f t="shared" ref="C1324:D1324" si="1318">C1323</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1324" s="30">
+        <f t="shared" si="1318"/>
+        <v>43946</v>
+      </c>
+      <c r="E1324" s="2"/>
+      <c r="F1324" s="9"/>
+      <c r="H1324" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1324" s="51"/>
+      <c r="J1324" s="51"/>
+      <c r="K1324" s="51"/>
+      <c r="L1324" s="51"/>
+    </row>
+    <row r="1325" spans="1:17">
+      <c r="A1325" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1325" s="2" t="str">
+        <f t="shared" ref="C1325:D1325" si="1319">C1324</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1325" s="30">
+        <f t="shared" si="1319"/>
+        <v>43946</v>
+      </c>
+      <c r="E1325" s="2"/>
+      <c r="F1325" s="9"/>
+      <c r="H1325" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1325" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1325" s="61"/>
+      <c r="K1325" s="24"/>
+      <c r="L1325" s="51"/>
+    </row>
+    <row r="1326" spans="1:17" ht="15.75">
+      <c r="A1326" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1326" s="2" t="str">
+        <f t="shared" ref="C1326:D1326" si="1320">C1325</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1326" s="30">
+        <f t="shared" si="1320"/>
+        <v>43946</v>
+      </c>
+      <c r="E1326" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1326" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1326" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1326" s="24">
+        <v>105</v>
+      </c>
+      <c r="J1326" s="61"/>
+      <c r="K1326" s="24">
+        <v>3</v>
+      </c>
+      <c r="L1326" s="51"/>
+    </row>
+    <row r="1327" spans="1:17" ht="15.75">
+      <c r="A1327" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1327" s="2" t="str">
+        <f t="shared" ref="C1327:D1327" si="1321">C1326</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1327" s="30">
+        <f t="shared" si="1321"/>
+        <v>43946</v>
+      </c>
+      <c r="E1327" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1327" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1327" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1327" s="75">
+        <v>1430</v>
+      </c>
+      <c r="J1327" s="61"/>
+      <c r="K1327" s="24">
+        <v>62</v>
+      </c>
+      <c r="L1327" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:17" ht="15.75">
+      <c r="A1328" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1328" s="2" t="str">
+        <f t="shared" ref="C1328:D1328" si="1322">C1327</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1328" s="30">
+        <f t="shared" si="1322"/>
+        <v>43946</v>
+      </c>
+      <c r="E1328" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1328" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1328" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1328" s="75">
+        <v>1791</v>
+      </c>
+      <c r="J1328" s="61"/>
+      <c r="K1328" s="24">
+        <v>72</v>
+      </c>
+      <c r="L1328" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:14" ht="15.75">
+      <c r="A1329" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1329" s="2" t="str">
+        <f t="shared" ref="C1329:D1329" si="1323">C1328</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1329" s="30">
+        <f t="shared" si="1323"/>
+        <v>43946</v>
+      </c>
+      <c r="E1329" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1329" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1329" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1329" s="75">
+        <v>2387</v>
+      </c>
+      <c r="J1329" s="61"/>
+      <c r="K1329" s="24">
+        <v>69</v>
+      </c>
+      <c r="L1329" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:14" ht="15.75">
+      <c r="A1330" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1330" s="2" t="str">
+        <f t="shared" ref="C1330:D1330" si="1324">C1329</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1330" s="30">
+        <f t="shared" si="1324"/>
+        <v>43946</v>
+      </c>
+      <c r="E1330" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1330" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1330" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1330" s="24">
+        <v>130</v>
+      </c>
+      <c r="J1330" s="61"/>
+      <c r="K1330" s="24">
+        <v>7</v>
+      </c>
+      <c r="L1330" s="24"/>
+    </row>
+    <row r="1331" spans="1:14" ht="15.75">
+      <c r="A1331" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1331" s="2" t="str">
+        <f t="shared" ref="C1331:D1331" si="1325">C1330</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1331" s="30">
+        <f t="shared" si="1325"/>
+        <v>43946</v>
+      </c>
+      <c r="E1331" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1331" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1331" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1331" s="24">
+        <v>61</v>
+      </c>
+      <c r="J1331" s="61"/>
+      <c r="K1331" s="61"/>
+      <c r="L1331" s="61"/>
+      <c r="M1331" s="61"/>
+      <c r="N1331" s="61"/>
+    </row>
+    <row r="1332" spans="1:14" ht="15.75">
+      <c r="A1332" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1332" s="2" t="str">
+        <f t="shared" ref="C1332:D1332" si="1326">C1331</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1332" s="30">
+        <f t="shared" si="1326"/>
+        <v>43946</v>
+      </c>
+      <c r="E1332" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1332" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1332" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1332" s="24">
+        <v>384</v>
+      </c>
+      <c r="J1332" s="61"/>
+      <c r="K1332" s="24">
+        <v>36</v>
+      </c>
+      <c r="L1332" s="24"/>
+    </row>
+    <row r="1333" spans="1:14" ht="15.75">
+      <c r="A1333" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1333" s="2" t="str">
+        <f t="shared" ref="C1333:D1333" si="1327">C1332</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1333" s="30">
+        <f t="shared" si="1327"/>
+        <v>43946</v>
+      </c>
+      <c r="E1333" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1333" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1333" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1333" s="24">
+        <v>146</v>
+      </c>
+      <c r="J1333" s="61"/>
+      <c r="K1333" s="24">
+        <v>5</v>
+      </c>
+      <c r="L1333" s="24"/>
+    </row>
+    <row r="1334" spans="1:14" ht="15.75">
+      <c r="A1334" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1334" s="2" t="str">
+        <f t="shared" ref="C1334:D1334" si="1328">C1333</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1334" s="30">
+        <f t="shared" si="1328"/>
+        <v>43946</v>
+      </c>
+      <c r="E1334" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1334" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1334" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1334" s="24">
+        <v>483</v>
+      </c>
+      <c r="J1334" s="61"/>
+      <c r="K1334" s="24">
+        <v>34</v>
+      </c>
+      <c r="L1334" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:14" ht="15.75">
+      <c r="A1335" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1335" s="2" t="str">
+        <f t="shared" ref="C1335:D1335" si="1329">C1334</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1335" s="30">
+        <f t="shared" si="1329"/>
+        <v>43946</v>
+      </c>
+      <c r="E1335" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1335" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1335" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1335" s="24">
+        <v>38</v>
+      </c>
+      <c r="J1335" s="61"/>
+      <c r="K1335" s="24">
+        <v>2</v>
+      </c>
+      <c r="L1335" s="24"/>
+    </row>
+    <row r="1336" spans="1:14" ht="15.75">
+      <c r="A1336" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1336" s="2" t="str">
+        <f t="shared" ref="C1336:D1336" si="1330">C1335</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1336" s="30">
+        <f t="shared" si="1330"/>
+        <v>43946</v>
+      </c>
+      <c r="E1336" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1336" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1336" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1336" s="24">
+        <v>814</v>
+      </c>
+      <c r="J1336" s="61"/>
+      <c r="K1336" s="24">
+        <v>39</v>
+      </c>
+      <c r="L1336" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:14" ht="15.75">
+      <c r="A1337" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1337" s="2" t="str">
+        <f t="shared" ref="C1337:D1337" si="1331">C1336</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1337" s="30">
+        <f t="shared" si="1331"/>
+        <v>43946</v>
+      </c>
+      <c r="E1337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1337" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1337" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1337" s="24">
+        <v>4</v>
+      </c>
+      <c r="J1337" s="61"/>
+      <c r="K1337" s="61"/>
+      <c r="L1337" s="61"/>
+      <c r="M1337" s="61"/>
+      <c r="N1337" s="61"/>
+    </row>
+    <row r="1338" spans="1:14" ht="15.75">
+      <c r="A1338" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1338" s="2" t="str">
+        <f t="shared" ref="C1338:D1338" si="1332">C1337</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1338" s="30">
+        <f t="shared" si="1332"/>
+        <v>43946</v>
+      </c>
+      <c r="E1338" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1338" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1338" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1338" s="24">
+        <v>302</v>
+      </c>
+      <c r="J1338" s="61"/>
+      <c r="K1338" s="24">
+        <v>4</v>
+      </c>
+      <c r="L1338" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:14" ht="15.75">
+      <c r="A1339" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1339" s="2" t="str">
+        <f t="shared" ref="C1339:D1339" si="1333">C1338</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1339" s="30">
+        <f t="shared" si="1333"/>
+        <v>43946</v>
+      </c>
+      <c r="E1339" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1339" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1339" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1339" s="24">
+        <v>686</v>
+      </c>
+      <c r="J1339" s="61"/>
+      <c r="K1339" s="24">
+        <v>15</v>
+      </c>
+      <c r="L1339" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:14" ht="15.75">
+      <c r="A1340" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1340" s="2" t="str">
+        <f t="shared" ref="C1340:D1340" si="1334">C1339</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1340" s="30">
+        <f t="shared" si="1334"/>
+        <v>43946</v>
+      </c>
+      <c r="E1340" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1340" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1340" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1340" s="24">
+        <v>67</v>
+      </c>
+      <c r="J1340" s="61"/>
+      <c r="K1340" s="24">
+        <v>3</v>
+      </c>
+      <c r="L1340" s="24"/>
+    </row>
+    <row r="1341" spans="1:14" ht="15.75">
+      <c r="A1341" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1341" s="2" t="str">
+        <f t="shared" ref="C1341:D1341" si="1335">C1340</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1341" s="30">
+        <f t="shared" si="1335"/>
+        <v>43946</v>
+      </c>
+      <c r="E1341" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1341" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1341" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1341" s="75">
+        <v>3483</v>
+      </c>
+      <c r="J1341" s="61"/>
+      <c r="K1341" s="24">
+        <v>152</v>
+      </c>
+      <c r="L1341" s="24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:14" ht="15.75">
+      <c r="A1342" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1342" s="2" t="str">
+        <f t="shared" ref="C1342:D1342" si="1336">C1341</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1342" s="30">
+        <f t="shared" si="1336"/>
+        <v>43946</v>
+      </c>
+      <c r="E1342" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1342" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1342" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1342" s="75">
+        <v>4795</v>
+      </c>
+      <c r="J1342" s="61"/>
+      <c r="K1342" s="24">
+        <v>162</v>
+      </c>
+      <c r="L1342" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:14" ht="15.75">
+      <c r="A1343" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1343" s="2" t="str">
+        <f t="shared" ref="C1343:D1343" si="1337">C1342</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1343" s="30">
+        <f t="shared" si="1337"/>
+        <v>43946</v>
+      </c>
+      <c r="E1343" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1343" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1343" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1343" s="24">
+        <v>52</v>
+      </c>
+      <c r="J1343" s="61"/>
+      <c r="K1343" s="24">
+        <v>3</v>
+      </c>
+      <c r="L1343" s="24"/>
+    </row>
+    <row r="1344" spans="1:14" ht="15.75">
+      <c r="A1344" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1344" s="2" t="str">
+        <f t="shared" ref="C1344:D1344" si="1338">C1343</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1344" s="30">
+        <f t="shared" si="1338"/>
+        <v>43946</v>
+      </c>
+      <c r="E1344" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1344" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1344" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1344" s="24">
+        <v>124</v>
+      </c>
+      <c r="J1344" s="61"/>
+      <c r="K1344" s="24">
+        <v>6</v>
+      </c>
+      <c r="L1344" s="24"/>
+    </row>
+    <row r="1345" spans="1:14" ht="15.75">
+      <c r="A1345" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1345" s="2" t="str">
+        <f t="shared" ref="C1345:D1345" si="1339">C1344</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1345" s="30">
+        <f t="shared" si="1339"/>
+        <v>43946</v>
+      </c>
+      <c r="E1345" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1345" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1345" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1345" s="24">
+        <v>14</v>
+      </c>
+      <c r="J1345" s="61"/>
+      <c r="K1345" s="61"/>
+      <c r="L1345" s="61"/>
+      <c r="M1345" s="61"/>
+      <c r="N1345" s="61"/>
+    </row>
+    <row r="1346" spans="1:14" ht="15.75">
+      <c r="A1346" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1346" s="2" t="str">
+        <f t="shared" ref="C1346:D1346" si="1340">C1345</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1346" s="30">
+        <f t="shared" si="1340"/>
+        <v>43946</v>
+      </c>
+      <c r="E1346" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1346" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1346" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1346" s="24">
+        <v>28</v>
+      </c>
+      <c r="J1346" s="61"/>
+      <c r="K1346" s="24">
+        <v>1</v>
+      </c>
+      <c r="L1346" s="24"/>
+    </row>
+    <row r="1347" spans="1:14" ht="15.75">
+      <c r="A1347" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1347" s="2" t="str">
+        <f t="shared" ref="C1347:D1347" si="1341">C1346</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1347" s="30">
+        <f t="shared" si="1341"/>
+        <v>43946</v>
+      </c>
+      <c r="E1347" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1347" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1347" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1347" s="24">
+        <v>154</v>
+      </c>
+      <c r="J1347" s="61"/>
+      <c r="K1347" s="24">
+        <v>3</v>
+      </c>
+      <c r="L1347" s="24"/>
+    </row>
+    <row r="1348" spans="1:14" ht="15.75">
+      <c r="A1348" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1348" s="2" t="str">
+        <f t="shared" ref="C1348:D1348" si="1342">C1347</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1348" s="30">
+        <f t="shared" si="1342"/>
+        <v>43946</v>
+      </c>
+      <c r="E1348" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1348" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1348" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1348" s="24">
+        <v>242</v>
+      </c>
+      <c r="J1348" s="61"/>
+      <c r="K1348" s="24">
+        <v>4</v>
+      </c>
+      <c r="L1348" s="24"/>
+    </row>
+    <row r="1349" spans="1:14" ht="15.75">
+      <c r="A1349" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1349" s="2" t="str">
+        <f t="shared" ref="C1349:D1349" si="1343">C1348</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1349" s="30">
+        <f t="shared" si="1343"/>
+        <v>43946</v>
+      </c>
+      <c r="E1349" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1349" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1349" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1349" s="24">
+        <v>46</v>
+      </c>
+      <c r="J1349" s="61"/>
+      <c r="K1349" s="61"/>
+      <c r="L1349" s="61"/>
+      <c r="M1349" s="61"/>
+      <c r="N1349" s="61"/>
+    </row>
+    <row r="1350" spans="1:14" ht="15.75">
+      <c r="A1350" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1350" s="2" t="str">
+        <f t="shared" ref="C1350:D1350" si="1344">C1349</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1350" s="30">
+        <f t="shared" si="1344"/>
+        <v>43946</v>
+      </c>
+      <c r="E1350" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1350" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1350" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1350" s="24"/>
+      <c r="J1350" s="61"/>
+      <c r="K1350" s="24">
+        <v>115</v>
+      </c>
+      <c r="L1350" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:14" ht="15.75">
+      <c r="A1351" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1351" s="2" t="str">
+        <f t="shared" ref="C1351:D1351" si="1345">C1350</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1351" s="30">
+        <f t="shared" si="1345"/>
+        <v>43946</v>
+      </c>
+      <c r="E1351" s="2"/>
+      <c r="F1351" s="26"/>
+      <c r="H1351" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1351" s="51"/>
+      <c r="J1351" s="51"/>
+      <c r="L1351" s="51"/>
+    </row>
+    <row r="1352" spans="1:14" ht="15.75">
+      <c r="A1352" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1352" s="2" t="str">
+        <f t="shared" ref="C1352:D1352" si="1346">C1351</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1352" s="30">
+        <f t="shared" si="1346"/>
+        <v>43946</v>
+      </c>
+      <c r="E1352" s="2"/>
+      <c r="F1352" s="26"/>
+      <c r="H1352" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1352" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1352" s="61"/>
+      <c r="L1352" s="24"/>
+    </row>
+    <row r="1353" spans="1:14">
+      <c r="A1353" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1353" s="2" t="str">
+        <f t="shared" ref="C1353:D1353" si="1347">C1352</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1353" s="30">
+        <f t="shared" si="1347"/>
+        <v>43946</v>
+      </c>
+      <c r="E1353" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1353" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1353" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1353" s="24">
+        <v>189</v>
+      </c>
+      <c r="J1353" s="61"/>
+      <c r="L1353" s="24"/>
+    </row>
+    <row r="1354" spans="1:14">
+      <c r="A1354" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1354" s="2" t="str">
+        <f t="shared" ref="C1354:D1354" si="1348">C1353</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1354" s="30">
+        <f t="shared" si="1348"/>
+        <v>43946</v>
+      </c>
+      <c r="E1354" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1354" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1354" s="62">
+        <v>44123</v>
+      </c>
+      <c r="I1354" s="24">
+        <v>441</v>
+      </c>
+      <c r="J1354" s="61"/>
+      <c r="L1354" s="24"/>
+    </row>
+    <row r="1355" spans="1:14">
+      <c r="A1355" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1355" s="2" t="str">
+        <f t="shared" ref="C1355:D1355" si="1349">C1354</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1355" s="30">
+        <f t="shared" si="1349"/>
+        <v>43946</v>
+      </c>
+      <c r="E1355" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1355" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1355" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1355" s="75">
+        <v>1982</v>
+      </c>
+      <c r="J1355" s="61"/>
+      <c r="K1355" s="24">
+        <v>4</v>
+      </c>
+      <c r="L1355" s="24"/>
+    </row>
+    <row r="1356" spans="1:14">
+      <c r="A1356" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1356" s="2" t="str">
+        <f t="shared" ref="C1356:D1356" si="1350">C1355</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1356" s="30">
+        <f t="shared" si="1350"/>
+        <v>43946</v>
+      </c>
+      <c r="E1356" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1356" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1356" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1356" s="75">
+        <v>2963</v>
+      </c>
+      <c r="J1356" s="61"/>
+      <c r="K1356" s="24">
+        <v>12</v>
+      </c>
+      <c r="L1356" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:14">
+      <c r="A1357" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1357" s="2" t="str">
+        <f t="shared" ref="C1357:D1357" si="1351">C1356</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1357" s="30">
+        <f t="shared" si="1351"/>
+        <v>43946</v>
+      </c>
+      <c r="E1357" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1357" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1357" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1357" s="75">
+        <v>3155</v>
+      </c>
+      <c r="J1357" s="61"/>
+      <c r="K1357" s="24">
+        <v>18</v>
+      </c>
+      <c r="L1357" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:14">
+      <c r="A1358" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1358" s="2" t="str">
+        <f t="shared" ref="C1358:D1358" si="1352">C1357</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1358" s="30">
+        <f t="shared" si="1352"/>
+        <v>43946</v>
+      </c>
+      <c r="E1358" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1358" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1358" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1358" s="75">
+        <v>3288</v>
+      </c>
+      <c r="J1358" s="61"/>
+      <c r="K1358" s="24">
+        <v>54</v>
+      </c>
+      <c r="L1358" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:14">
+      <c r="A1359" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1359" s="2" t="str">
+        <f t="shared" ref="C1359:D1359" si="1353">C1358</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1359" s="30">
+        <f t="shared" si="1353"/>
+        <v>43946</v>
+      </c>
+      <c r="E1359" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1359" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1359" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1359" s="75">
+        <v>2548</v>
+      </c>
+      <c r="J1359" s="61"/>
+      <c r="K1359" s="24">
+        <v>113</v>
+      </c>
+      <c r="L1359" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:14">
+      <c r="A1360" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1360" s="2" t="str">
+        <f t="shared" ref="C1360:D1360" si="1354">C1359</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1360" s="30">
+        <f t="shared" si="1354"/>
+        <v>43946</v>
+      </c>
+      <c r="E1360" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1360" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1360" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1360" s="75">
+        <v>1766</v>
+      </c>
+      <c r="J1360" s="61"/>
+      <c r="K1360" s="24">
+        <v>183</v>
+      </c>
+      <c r="L1360" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:17">
+      <c r="A1361" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1361" s="2" t="str">
+        <f t="shared" ref="C1361:D1361" si="1355">C1360</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1361" s="30">
+        <f t="shared" si="1355"/>
+        <v>43946</v>
+      </c>
+      <c r="E1361" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1361" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1361" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1361" s="75">
+        <v>1434</v>
+      </c>
+      <c r="J1361" s="61"/>
+      <c r="K1361" s="24">
+        <v>298</v>
+      </c>
+      <c r="L1361" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:17" ht="15.75">
+      <c r="A1362" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1362" s="2" t="str">
+        <f t="shared" ref="C1362:D1362" si="1356">C1361</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1362" s="30">
+        <f t="shared" si="1356"/>
+        <v>43946</v>
+      </c>
+      <c r="E1362" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1362" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1362" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1362" s="24"/>
+      <c r="J1362" s="61"/>
+      <c r="K1362" s="24">
+        <v>115</v>
+      </c>
+      <c r="L1362" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:17">
+      <c r="A1363" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1363" s="2" t="str">
+        <f t="shared" ref="C1363:D1363" si="1357">C1362</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1363" s="30">
+        <f t="shared" si="1357"/>
+        <v>43946</v>
+      </c>
+      <c r="E1363" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1363" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1363" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1363" s="75">
+        <v>9498</v>
+      </c>
+      <c r="J1363" s="61"/>
+      <c r="K1363" s="24">
+        <v>385</v>
+      </c>
+      <c r="L1363" s="24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:17">
+      <c r="A1364" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1364" s="2" t="str">
+        <f t="shared" ref="C1364:D1364" si="1358">C1363</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1364" s="30">
+        <f t="shared" si="1358"/>
+        <v>43946</v>
+      </c>
+      <c r="E1364" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1364" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1364" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1364" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1364" s="61"/>
+      <c r="K1364" s="24">
+        <v>412</v>
+      </c>
+      <c r="L1364" s="24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:17" ht="15.75">
+      <c r="A1365" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1365" s="2" t="str">
+        <f t="shared" ref="C1365:D1365" si="1359">C1364</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1365" s="30">
+        <f t="shared" si="1359"/>
+        <v>43946</v>
+      </c>
+      <c r="E1365" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1365" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1365" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1365" s="24"/>
+      <c r="J1365" s="61"/>
+      <c r="L1365" s="24"/>
+    </row>
+    <row r="1366" spans="1:17" ht="15.75">
+      <c r="A1366" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1366" s="2" t="str">
+        <f t="shared" ref="C1366:D1366" si="1360">C1365</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1366" s="30">
+        <f t="shared" si="1360"/>
+        <v>43946</v>
+      </c>
+      <c r="E1366" s="2"/>
+      <c r="F1366" s="5"/>
+      <c r="H1366" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1366" s="51"/>
+      <c r="J1366" s="51"/>
+      <c r="L1366" s="51"/>
+    </row>
+    <row r="1367" spans="1:17">
+      <c r="A1367" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1367" s="2" t="str">
+        <f t="shared" ref="C1367:D1367" si="1361">C1366</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1367" s="30">
+        <f t="shared" si="1361"/>
+        <v>43946</v>
+      </c>
+      <c r="H1367" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1367" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1367" s="61"/>
+      <c r="L1367" s="24"/>
+    </row>
+    <row r="1368" spans="1:17">
+      <c r="A1368" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1368" s="2" t="str">
+        <f t="shared" ref="C1368:D1368" si="1362">C1367</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1368" s="30">
+        <f t="shared" si="1362"/>
+        <v>43946</v>
+      </c>
+      <c r="E1368" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1368" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1368" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1368" s="75">
+        <v>6314</v>
+      </c>
+      <c r="J1368" s="61"/>
+      <c r="K1368" s="24">
+        <v>301</v>
+      </c>
+      <c r="L1368" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:17">
+      <c r="A1369" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1369" s="2" t="str">
+        <f t="shared" ref="C1369:D1369" si="1363">C1368</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1369" s="30">
+        <f t="shared" si="1363"/>
+        <v>43946</v>
+      </c>
+      <c r="E1369" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1369" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1369" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1369" s="24">
+        <v>344</v>
+      </c>
+      <c r="J1369" s="61"/>
+      <c r="K1369" s="24">
+        <v>29</v>
+      </c>
+      <c r="L1369" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:17">
+      <c r="A1370" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1370" s="2" t="str">
+        <f t="shared" ref="C1370:D1370" si="1364">C1369</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1370" s="30">
+        <f t="shared" si="1364"/>
+        <v>43946</v>
+      </c>
+      <c r="E1370" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1370" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1370" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1370" s="24">
+        <v>4020</v>
+      </c>
+      <c r="J1370" s="61"/>
+      <c r="K1370" s="24">
+        <v>296</v>
+      </c>
+      <c r="L1370" s="24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:17">
+      <c r="A1371" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1371" s="2" t="str">
+        <f t="shared" ref="C1371:D1371" si="1365">C1370</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1371" s="30">
+        <f t="shared" si="1365"/>
+        <v>43946</v>
+      </c>
+      <c r="E1371" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1371" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1371" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1371" s="75">
+        <v>2574</v>
+      </c>
+      <c r="J1371" s="61"/>
+      <c r="K1371" s="24">
+        <v>44</v>
+      </c>
+      <c r="L1371" s="24"/>
+    </row>
+    <row r="1372" spans="1:17">
+      <c r="A1372" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1372" s="2" t="str">
+        <f t="shared" ref="C1372:D1372" si="1366">C1371</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1372" s="30">
+        <f t="shared" si="1366"/>
+        <v>43946</v>
+      </c>
+      <c r="E1372" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1372" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1372" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1372" s="24">
+        <v>657</v>
+      </c>
+      <c r="J1372" s="61"/>
+      <c r="K1372" s="24">
+        <v>10</v>
+      </c>
+      <c r="L1372" s="24"/>
+    </row>
+    <row r="1373" spans="1:17">
+      <c r="A1373" s="29">
+        <f t="shared" si="1304"/>
+        <v>43946</v>
+      </c>
+      <c r="C1373" s="2" t="str">
+        <f t="shared" ref="C1373:D1373" si="1367">C1372</f>
+        <v>1:37PM</v>
+      </c>
+      <c r="D1373" s="30">
+        <f t="shared" si="1367"/>
+        <v>43946</v>
+      </c>
+      <c r="E1373" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1373" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1373" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1373" s="75">
+        <v>3857</v>
+      </c>
+      <c r="J1373" s="61"/>
+      <c r="K1373" s="24">
+        <v>117</v>
+      </c>
+      <c r="L1373" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:17" ht="15.75">
+      <c r="A1374" s="28">
+        <v>43947</v>
+      </c>
+      <c r="B1374" s="28"/>
+      <c r="C1374" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1374" s="35">
+        <f>A1374</f>
+        <v>43947</v>
+      </c>
+      <c r="E1374" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1374" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1374" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1374" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="J1374" s="12" t="str">
+        <f>I1375</f>
+        <v> 78,084    </v>
+      </c>
+      <c r="K1374" s="13" t="str">
+        <f>I1376</f>
+        <v> 827</v>
+      </c>
+      <c r="L1374" s="13" t="str">
+        <f>I1377</f>
+        <v> 83</v>
+      </c>
+      <c r="M1374" s="13" t="str">
+        <f>I1378</f>
+        <v> 1463</v>
+      </c>
+      <c r="N1374" s="13" t="str">
+        <f>I1379</f>
+        <v> 933</v>
+      </c>
+      <c r="O1374" s="13" t="str">
+        <f>I1380</f>
+        <v> 530</v>
+      </c>
+      <c r="P1374" s="27" t="str">
+        <f>I1381</f>
+        <v> 3,962</v>
+      </c>
+      <c r="Q1374" s="13" t="str">
+        <f>I1382</f>
+        <v> 1,177</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:17" ht="15.75">
+      <c r="A1375" s="29">
+        <f t="shared" ref="A1375:A1437" si="1368">A1374</f>
+        <v>43947</v>
+      </c>
+      <c r="C1375" s="2" t="str">
+        <f t="shared" ref="C1375:E1375" si="1369">C1374</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1375" s="30">
+        <f t="shared" si="1369"/>
+        <v>43947</v>
+      </c>
+      <c r="E1375" s="2"/>
+      <c r="F1375" s="9"/>
+      <c r="H1375" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1375" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1375" s="12"/>
+      <c r="K1375" s="13"/>
+      <c r="L1375" s="13"/>
+      <c r="M1375" s="13"/>
+      <c r="N1375" s="13"/>
+      <c r="O1375" s="13"/>
+      <c r="P1375" s="13"/>
+      <c r="Q1375" s="13"/>
+    </row>
+    <row r="1376" spans="1:17" ht="15.75">
+      <c r="A1376" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1376" s="2" t="str">
+        <f t="shared" ref="C1376:E1376" si="1370">C1375</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1376" s="30">
+        <f t="shared" si="1370"/>
+        <v>43947</v>
+      </c>
+      <c r="E1376" s="2"/>
+      <c r="F1376" s="9"/>
+      <c r="H1376" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="I1376" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1376" s="12"/>
+      <c r="K1376" s="13"/>
+      <c r="L1376" s="13"/>
+      <c r="M1376" s="13"/>
+      <c r="N1376" s="13"/>
+      <c r="O1376" s="13"/>
+      <c r="P1376" s="13"/>
+      <c r="Q1376" s="13"/>
+    </row>
+    <row r="1377" spans="1:17" ht="15.75">
+      <c r="A1377" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1377" s="2" t="str">
+        <f t="shared" ref="C1377:E1377" si="1371">C1376</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1377" s="30">
+        <f t="shared" si="1371"/>
+        <v>43947</v>
+      </c>
+      <c r="E1377" s="2"/>
+      <c r="F1377" s="9"/>
+      <c r="H1377" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1377" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1377" s="12"/>
+      <c r="K1377" s="13"/>
+      <c r="L1377" s="13"/>
+      <c r="M1377" s="13"/>
+      <c r="N1377" s="13"/>
+      <c r="O1377" s="13"/>
+      <c r="P1377" s="13"/>
+      <c r="Q1377" s="13"/>
+    </row>
+    <row r="1378" spans="1:17" ht="15.75">
+      <c r="A1378" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1378" s="2" t="str">
+        <f t="shared" ref="C1378:E1378" si="1372">C1377</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1378" s="30">
+        <f t="shared" si="1372"/>
+        <v>43947</v>
+      </c>
+      <c r="E1378" s="2"/>
+      <c r="F1378" s="9"/>
+      <c r="H1378" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1378" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="J1378" s="12"/>
+      <c r="K1378" s="13"/>
+      <c r="L1378" s="13"/>
+      <c r="M1378" s="13"/>
+      <c r="N1378" s="13"/>
+      <c r="O1378" s="13"/>
+      <c r="P1378" s="13"/>
+      <c r="Q1378" s="13"/>
+    </row>
+    <row r="1379" spans="1:17" ht="15.75">
+      <c r="A1379" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1379" s="2" t="str">
+        <f t="shared" ref="C1379:E1379" si="1373">C1378</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1379" s="30">
+        <f t="shared" si="1373"/>
+        <v>43947</v>
+      </c>
+      <c r="E1379" s="2"/>
+      <c r="F1379" s="9"/>
+      <c r="H1379" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1379" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1379" s="56"/>
+      <c r="K1379" s="56"/>
+      <c r="L1379" s="56"/>
+      <c r="M1379" s="56"/>
+      <c r="N1379" s="56"/>
+      <c r="O1379" s="56"/>
+      <c r="P1379" s="56"/>
+      <c r="Q1379" s="13"/>
+    </row>
+    <row r="1380" spans="1:17" ht="15.75">
+      <c r="A1380" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1380" s="2" t="str">
+        <f t="shared" ref="C1380:E1380" si="1374">C1379</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1380" s="30">
+        <f t="shared" si="1374"/>
+        <v>43947</v>
+      </c>
+      <c r="E1380" s="2"/>
+      <c r="F1380" s="9"/>
+      <c r="H1380" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1380" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1380" s="56"/>
+      <c r="K1380" s="56"/>
+      <c r="L1380" s="56"/>
+      <c r="M1380" s="56"/>
+      <c r="N1380" s="56"/>
+      <c r="O1380" s="56"/>
+      <c r="P1380" s="56"/>
+      <c r="Q1380" s="13"/>
+    </row>
+    <row r="1381" spans="1:17" ht="15.75">
+      <c r="A1381" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1381" s="2" t="str">
+        <f t="shared" ref="C1381:E1381" si="1375">C1380</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1381" s="30">
+        <f t="shared" si="1375"/>
+        <v>43947</v>
+      </c>
+      <c r="E1381" s="2"/>
+      <c r="F1381" s="9"/>
+      <c r="H1381" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1381" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="J1381" s="56"/>
+      <c r="K1381" s="56"/>
+      <c r="L1381" s="56"/>
+      <c r="M1381" s="56"/>
+      <c r="N1381" s="56"/>
+      <c r="O1381" s="56"/>
+      <c r="P1381" s="56"/>
+      <c r="Q1381" s="13"/>
+    </row>
+    <row r="1382" spans="1:17" ht="15.75">
+      <c r="A1382" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1382" s="2" t="str">
+        <f t="shared" ref="C1382:E1382" si="1376">C1381</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1382" s="30">
+        <f t="shared" si="1376"/>
+        <v>43947</v>
+      </c>
+      <c r="E1382" s="2"/>
+      <c r="F1382" s="9"/>
+      <c r="H1382" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1382" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="J1382" s="56"/>
+      <c r="K1382" s="56"/>
+      <c r="L1382" s="56"/>
+      <c r="M1382" s="56"/>
+      <c r="N1382" s="56"/>
+      <c r="O1382" s="56"/>
+      <c r="P1382" s="56"/>
+      <c r="Q1382" s="13"/>
+    </row>
+    <row r="1383" spans="1:17" ht="15.75">
+      <c r="A1383" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1383" s="2" t="str">
+        <f t="shared" ref="C1383:E1383" si="1377">C1382</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1383" s="30">
+        <f t="shared" si="1377"/>
+        <v>43947</v>
+      </c>
+      <c r="E1383" s="2"/>
+      <c r="F1383" s="9"/>
+      <c r="H1383" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1383" s="51"/>
+      <c r="J1383" s="51"/>
+      <c r="K1383" s="51"/>
+      <c r="L1383" s="51"/>
+    </row>
+    <row r="1384" spans="1:17" ht="22.5">
+      <c r="A1384" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1384" s="2" t="str">
+        <f t="shared" ref="C1384:E1384" si="1378">C1383</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1384" s="30">
+        <f t="shared" si="1378"/>
+        <v>43947</v>
+      </c>
+      <c r="E1384" s="2"/>
+      <c r="F1384" s="9"/>
+      <c r="H1384" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1384" s="51"/>
+      <c r="J1384" s="51"/>
+      <c r="K1384" s="51"/>
+      <c r="L1384" s="51"/>
+    </row>
+    <row r="1385" spans="1:17" ht="33.75">
+      <c r="A1385" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1385" s="2" t="str">
+        <f t="shared" ref="C1385:E1385" si="1379">C1384</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1385" s="30">
+        <f t="shared" si="1379"/>
+        <v>43947</v>
+      </c>
+      <c r="E1385" s="2"/>
+      <c r="F1385" s="9"/>
+      <c r="H1385" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1385" s="51"/>
+      <c r="J1385" s="51"/>
+      <c r="K1385" s="51"/>
+      <c r="L1385" s="51"/>
+    </row>
+    <row r="1386" spans="1:17">
+      <c r="A1386" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1386" s="2" t="str">
+        <f t="shared" ref="C1386:E1386" si="1380">C1385</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1386" s="30">
+        <f t="shared" si="1380"/>
+        <v>43947</v>
+      </c>
+      <c r="E1386" s="2"/>
+      <c r="F1386" s="9"/>
+      <c r="H1386" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1386" s="51"/>
+      <c r="J1386" s="51"/>
+      <c r="K1386" s="51"/>
+      <c r="L1386" s="51"/>
+    </row>
+    <row r="1387" spans="1:17">
+      <c r="A1387" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1387" s="2" t="str">
+        <f t="shared" ref="C1387:E1387" si="1381">C1386</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1387" s="30">
+        <f t="shared" si="1381"/>
+        <v>43947</v>
+      </c>
+      <c r="E1387" s="2"/>
+      <c r="F1387" s="9"/>
+      <c r="H1387" s="60"/>
+      <c r="I1387" s="51"/>
+      <c r="J1387" s="51"/>
+      <c r="K1387" s="51"/>
+      <c r="L1387" s="51"/>
+    </row>
+    <row r="1388" spans="1:17" ht="15.75">
+      <c r="A1388" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1388" s="2" t="str">
+        <f t="shared" ref="C1388:E1388" si="1382">C1387</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1388" s="30">
+        <f t="shared" si="1382"/>
+        <v>43947</v>
+      </c>
+      <c r="E1388" s="2"/>
+      <c r="F1388" s="9"/>
+      <c r="H1388" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1388" s="51"/>
+      <c r="J1388" s="51"/>
+      <c r="K1388" s="51"/>
+      <c r="L1388" s="51"/>
+    </row>
+    <row r="1389" spans="1:17">
+      <c r="A1389" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1389" s="2" t="str">
+        <f t="shared" ref="C1389:E1389" si="1383">C1388</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1389" s="30">
+        <f t="shared" si="1383"/>
+        <v>43947</v>
+      </c>
+      <c r="E1389" s="2"/>
+      <c r="F1389" s="9"/>
+      <c r="H1389" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1389" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1389" s="61"/>
+      <c r="K1389" s="24"/>
+      <c r="L1389" s="51"/>
+    </row>
+    <row r="1390" spans="1:17" ht="15.75">
+      <c r="A1390" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1390" s="2" t="str">
+        <f t="shared" ref="C1390:E1390" si="1384">C1389</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1390" s="30">
+        <f t="shared" si="1384"/>
+        <v>43947</v>
+      </c>
+      <c r="E1390" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1390" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1390" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1390" s="24">
+        <v>113</v>
+      </c>
+      <c r="J1390" s="61"/>
+      <c r="K1390" s="24">
+        <v>3</v>
+      </c>
+      <c r="L1390" s="51"/>
+    </row>
+    <row r="1391" spans="1:17" ht="15.75">
+      <c r="A1391" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1391" s="2" t="str">
+        <f t="shared" ref="C1391:E1391" si="1385">C1390</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1391" s="30">
+        <f t="shared" si="1385"/>
+        <v>43947</v>
+      </c>
+      <c r="E1391" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1391" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1391" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1391" s="75">
+        <v>1510</v>
+      </c>
+      <c r="J1391" s="61"/>
+      <c r="K1391" s="24">
+        <v>63</v>
+      </c>
+      <c r="L1391" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:17" ht="15.75">
+      <c r="A1392" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1392" s="2" t="str">
+        <f t="shared" ref="C1392:E1392" si="1386">C1391</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1392" s="30">
+        <f t="shared" si="1386"/>
+        <v>43947</v>
+      </c>
+      <c r="E1392" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1392" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1392" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1392" s="75">
+        <v>1866</v>
+      </c>
+      <c r="J1392" s="61"/>
+      <c r="K1392" s="24">
+        <v>73</v>
+      </c>
+      <c r="L1392" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:12" ht="15.75">
+      <c r="A1393" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1393" s="2" t="str">
+        <f t="shared" ref="C1393:E1393" si="1387">C1392</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1393" s="30">
+        <f t="shared" si="1387"/>
+        <v>43947</v>
+      </c>
+      <c r="E1393" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1393" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1393" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1393" s="75">
+        <v>2509</v>
+      </c>
+      <c r="J1393" s="61"/>
+      <c r="K1393" s="24">
+        <v>71</v>
+      </c>
+      <c r="L1393" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:12" ht="15.75">
+      <c r="A1394" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1394" s="2" t="str">
+        <f t="shared" ref="C1394:E1394" si="1388">C1393</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1394" s="30">
+        <f t="shared" si="1388"/>
+        <v>43947</v>
+      </c>
+      <c r="E1394" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1394" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1394" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1394" s="24">
+        <v>134</v>
+      </c>
+      <c r="J1394" s="61"/>
+      <c r="K1394" s="24">
+        <v>7</v>
+      </c>
+      <c r="L1394" s="24"/>
+    </row>
+    <row r="1395" spans="1:12" ht="15.75">
+      <c r="A1395" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1395" s="2" t="str">
+        <f t="shared" ref="C1395:E1395" si="1389">C1394</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1395" s="30">
+        <f t="shared" si="1389"/>
+        <v>43947</v>
+      </c>
+      <c r="E1395" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1395" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1395" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1395" s="24">
+        <v>63</v>
+      </c>
+      <c r="J1395" s="61"/>
+      <c r="K1395" s="24"/>
+      <c r="L1395" s="24"/>
+    </row>
+    <row r="1396" spans="1:12" ht="15.75">
+      <c r="A1396" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1396" s="2" t="str">
+        <f t="shared" ref="C1396:E1396" si="1390">C1395</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1396" s="30">
+        <f t="shared" si="1390"/>
+        <v>43947</v>
+      </c>
+      <c r="E1396" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1396" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1396" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1396" s="24">
+        <v>391</v>
+      </c>
+      <c r="J1396" s="61"/>
+      <c r="K1396" s="24">
+        <v>36</v>
+      </c>
+      <c r="L1396" s="24"/>
+    </row>
+    <row r="1397" spans="1:12" ht="15.75">
+      <c r="A1397" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1397" s="2" t="str">
+        <f t="shared" ref="C1397:E1397" si="1391">C1396</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1397" s="30">
+        <f t="shared" si="1391"/>
+        <v>43947</v>
+      </c>
+      <c r="E1397" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1397" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1397" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1397" s="24">
+        <v>154</v>
+      </c>
+      <c r="J1397" s="61"/>
+      <c r="K1397" s="24">
+        <v>5</v>
+      </c>
+      <c r="L1397" s="24"/>
+    </row>
+    <row r="1398" spans="1:12" ht="15.75">
+      <c r="A1398" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1398" s="2" t="str">
+        <f t="shared" ref="C1398:E1398" si="1392">C1397</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1398" s="30">
+        <f t="shared" si="1392"/>
+        <v>43947</v>
+      </c>
+      <c r="E1398" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1398" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1398" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1398" s="24">
+        <v>504</v>
+      </c>
+      <c r="J1398" s="61"/>
+      <c r="K1398" s="24">
+        <v>34</v>
+      </c>
+      <c r="L1398" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:12" ht="15.75">
+      <c r="A1399" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1399" s="2" t="str">
+        <f t="shared" ref="C1399:E1399" si="1393">C1398</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1399" s="30">
+        <f t="shared" si="1393"/>
+        <v>43947</v>
+      </c>
+      <c r="E1399" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1399" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1399" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1399" s="24">
+        <v>46</v>
+      </c>
+      <c r="J1399" s="61"/>
+      <c r="K1399" s="24">
+        <v>2</v>
+      </c>
+      <c r="L1399" s="24"/>
+    </row>
+    <row r="1400" spans="1:12" ht="15.75">
+      <c r="A1400" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1400" s="2" t="str">
+        <f t="shared" ref="C1400:E1400" si="1394">C1399</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1400" s="30">
+        <f t="shared" si="1394"/>
+        <v>43947</v>
+      </c>
+      <c r="E1400" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1400" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1400" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1400" s="24">
+        <v>834</v>
+      </c>
+      <c r="J1400" s="61"/>
+      <c r="K1400" s="24">
+        <v>39</v>
+      </c>
+      <c r="L1400" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:12" ht="15.75">
+      <c r="A1401" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1401" s="2" t="str">
+        <f t="shared" ref="C1401:E1401" si="1395">C1400</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1401" s="30">
+        <f t="shared" si="1395"/>
+        <v>43947</v>
+      </c>
+      <c r="E1401" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1401" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1401" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1401" s="24">
+        <v>4</v>
+      </c>
+      <c r="J1401" s="61"/>
+      <c r="K1401" s="24"/>
+      <c r="L1401" s="24"/>
+    </row>
+    <row r="1402" spans="1:12" ht="15.75">
+      <c r="A1402" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1402" s="2" t="str">
+        <f t="shared" ref="C1402:E1402" si="1396">C1401</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1402" s="30">
+        <f t="shared" si="1396"/>
+        <v>43947</v>
+      </c>
+      <c r="E1402" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1402" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1402" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1402" s="24">
+        <v>319</v>
+      </c>
+      <c r="J1402" s="61"/>
+      <c r="K1402" s="24">
+        <v>4</v>
+      </c>
+      <c r="L1402" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:12" ht="15.75">
+      <c r="A1403" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1403" s="2" t="str">
+        <f t="shared" ref="C1403:E1403" si="1397">C1402</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1403" s="30">
+        <f t="shared" si="1397"/>
+        <v>43947</v>
+      </c>
+      <c r="E1403" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1403" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1403" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1403" s="24">
+        <v>707</v>
+      </c>
+      <c r="J1403" s="61"/>
+      <c r="K1403" s="24">
+        <v>15</v>
+      </c>
+      <c r="L1403" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:12" ht="15.75">
+      <c r="A1404" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1404" s="2" t="str">
+        <f t="shared" ref="C1404:E1404" si="1398">C1403</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1404" s="30">
+        <f t="shared" si="1398"/>
+        <v>43947</v>
+      </c>
+      <c r="E1404" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1404" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1404" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1404" s="24">
+        <v>68</v>
+      </c>
+      <c r="J1404" s="61"/>
+      <c r="K1404" s="24">
+        <v>3</v>
+      </c>
+      <c r="L1404" s="24"/>
+    </row>
+    <row r="1405" spans="1:12" ht="15.75">
+      <c r="A1405" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1405" s="2" t="str">
+        <f t="shared" ref="C1405:E1405" si="1399">C1404</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1405" s="30">
+        <f t="shared" si="1399"/>
+        <v>43947</v>
+      </c>
+      <c r="E1405" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1405" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1405" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1405" s="75">
+        <v>3645</v>
+      </c>
+      <c r="J1405" s="61"/>
+      <c r="K1405" s="24">
+        <v>160</v>
+      </c>
+      <c r="L1405" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:12" ht="15.75">
+      <c r="A1406" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1406" s="2" t="str">
+        <f t="shared" ref="C1406:E1406" si="1400">C1405</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1406" s="30">
+        <f t="shared" si="1400"/>
+        <v>43947</v>
+      </c>
+      <c r="E1406" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1406" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1406" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1406" s="75">
+        <v>4987</v>
+      </c>
+      <c r="J1406" s="61"/>
+      <c r="K1406" s="24">
+        <v>163</v>
+      </c>
+      <c r="L1406" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:12" ht="15.75">
+      <c r="A1407" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1407" s="2" t="str">
+        <f t="shared" ref="C1407:E1407" si="1401">C1406</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1407" s="30">
+        <f t="shared" si="1401"/>
+        <v>43947</v>
+      </c>
+      <c r="E1407" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1407" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1407" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1407" s="24">
+        <v>53</v>
+      </c>
+      <c r="J1407" s="61"/>
+      <c r="K1407" s="24">
+        <v>3</v>
+      </c>
+      <c r="L1407" s="24"/>
+    </row>
+    <row r="1408" spans="1:12" ht="15.75">
+      <c r="A1408" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1408" s="2" t="str">
+        <f t="shared" ref="C1408:E1408" si="1402">C1407</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1408" s="30">
+        <f t="shared" si="1402"/>
+        <v>43947</v>
+      </c>
+      <c r="E1408" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1408" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1408" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1408" s="24">
+        <v>133</v>
+      </c>
+      <c r="J1408" s="61"/>
+      <c r="K1408" s="24">
+        <v>6</v>
+      </c>
+      <c r="L1408" s="24"/>
+    </row>
+    <row r="1409" spans="1:12" ht="15.75">
+      <c r="A1409" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1409" s="2" t="str">
+        <f t="shared" ref="C1409:E1409" si="1403">C1408</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1409" s="30">
+        <f t="shared" si="1403"/>
+        <v>43947</v>
+      </c>
+      <c r="E1409" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1409" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1409" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1409" s="24">
+        <v>16</v>
+      </c>
+      <c r="J1409" s="61"/>
+      <c r="K1409" s="24"/>
+      <c r="L1409" s="24"/>
+    </row>
+    <row r="1410" spans="1:12" ht="15.75">
+      <c r="A1410" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1410" s="2" t="str">
+        <f t="shared" ref="C1410:E1410" si="1404">C1409</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1410" s="30">
+        <f t="shared" si="1404"/>
+        <v>43947</v>
+      </c>
+      <c r="E1410" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1410" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1410" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1410" s="24">
+        <v>34</v>
+      </c>
+      <c r="J1410" s="61"/>
+      <c r="K1410" s="24">
+        <v>1</v>
+      </c>
+      <c r="L1410" s="24"/>
+    </row>
+    <row r="1411" spans="1:12" ht="15.75">
+      <c r="A1411" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1411" s="2" t="str">
+        <f t="shared" ref="C1411:E1411" si="1405">C1410</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1411" s="30">
+        <f t="shared" si="1405"/>
+        <v>43947</v>
+      </c>
+      <c r="E1411" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1411" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1411" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1411" s="24">
+        <v>173</v>
+      </c>
+      <c r="J1411" s="61"/>
+      <c r="K1411" s="24">
+        <v>3</v>
+      </c>
+      <c r="L1411" s="24"/>
+    </row>
+    <row r="1412" spans="1:12" ht="15.75">
+      <c r="A1412" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1412" s="2" t="str">
+        <f t="shared" ref="C1412:E1412" si="1406">C1411</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1412" s="30">
+        <f t="shared" si="1406"/>
+        <v>43947</v>
+      </c>
+      <c r="E1412" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1412" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1412" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1412" s="24">
+        <v>270</v>
+      </c>
+      <c r="J1412" s="61"/>
+      <c r="K1412" s="24">
+        <v>4</v>
+      </c>
+      <c r="L1412" s="24"/>
+    </row>
+    <row r="1413" spans="1:12" ht="15.75">
+      <c r="A1413" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1413" s="2" t="str">
+        <f t="shared" ref="C1413:E1413" si="1407">C1412</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1413" s="30">
+        <f t="shared" si="1407"/>
+        <v>43947</v>
+      </c>
+      <c r="E1413" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1413" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1413" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1413" s="24">
+        <v>48</v>
+      </c>
+      <c r="J1413" s="61"/>
+      <c r="K1413" s="24"/>
+      <c r="L1413" s="24"/>
+    </row>
+    <row r="1414" spans="1:12" ht="15.75">
+      <c r="A1414" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1414" s="2" t="str">
+        <f t="shared" ref="C1414:E1414" si="1408">C1413</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1414" s="30">
+        <f t="shared" si="1408"/>
+        <v>43947</v>
+      </c>
+      <c r="E1414" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1414" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1414" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1414" s="24"/>
+      <c r="J1414" s="61"/>
+      <c r="K1414" s="24">
+        <v>132</v>
+      </c>
+      <c r="L1414" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:12" ht="15.75">
+      <c r="A1415" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1415" s="2" t="str">
+        <f t="shared" ref="C1415:E1415" si="1409">C1414</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1415" s="30">
+        <f t="shared" si="1409"/>
+        <v>43947</v>
+      </c>
+      <c r="E1415" s="2"/>
+      <c r="F1415" s="26"/>
+      <c r="H1415" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1415" s="51"/>
+      <c r="J1415" s="51"/>
+      <c r="L1415" s="51"/>
+    </row>
+    <row r="1416" spans="1:12" ht="15.75">
+      <c r="A1416" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1416" s="2" t="str">
+        <f t="shared" ref="C1416:E1416" si="1410">C1415</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1416" s="30">
+        <f t="shared" si="1410"/>
+        <v>43947</v>
+      </c>
+      <c r="E1416" s="2"/>
+      <c r="F1416" s="26"/>
+      <c r="H1416" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1416" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1416" s="61"/>
+      <c r="L1416" s="24"/>
+    </row>
+    <row r="1417" spans="1:12">
+      <c r="A1417" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1417" s="2" t="str">
+        <f t="shared" ref="C1417:E1417" si="1411">C1416</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1417" s="30">
+        <f t="shared" si="1411"/>
+        <v>43947</v>
+      </c>
+      <c r="E1417" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1417" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1417" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1417" s="24">
+        <v>212</v>
+      </c>
+      <c r="J1417" s="61"/>
+      <c r="L1417" s="24"/>
+    </row>
+    <row r="1418" spans="1:12">
+      <c r="A1418" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1418" s="2" t="str">
+        <f t="shared" ref="C1418:E1418" si="1412">C1417</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1418" s="30">
+        <f t="shared" si="1412"/>
+        <v>43947</v>
+      </c>
+      <c r="E1418" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1418" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1418" s="62">
+        <v>44123</v>
+      </c>
+      <c r="I1418" s="24">
+        <v>463</v>
+      </c>
+      <c r="J1418" s="61"/>
+      <c r="L1418" s="24"/>
+    </row>
+    <row r="1419" spans="1:12">
+      <c r="A1419" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1419" s="2" t="str">
+        <f t="shared" ref="C1419:E1419" si="1413">C1418</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1419" s="30">
+        <f t="shared" si="1413"/>
+        <v>43947</v>
+      </c>
+      <c r="E1419" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1419" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1419" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1419" s="75">
+        <v>2097</v>
+      </c>
+      <c r="J1419" s="61"/>
+      <c r="K1419" s="24">
+        <v>4</v>
+      </c>
+      <c r="L1419" s="24"/>
+    </row>
+    <row r="1420" spans="1:12">
+      <c r="A1420" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1420" s="2" t="str">
+        <f t="shared" ref="C1420:E1420" si="1414">C1419</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1420" s="30">
+        <f t="shared" si="1414"/>
+        <v>43947</v>
+      </c>
+      <c r="E1420" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1420" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1420" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1420" s="75">
+        <v>3109</v>
+      </c>
+      <c r="J1420" s="61"/>
+      <c r="K1420" s="24">
+        <v>12</v>
+      </c>
+      <c r="L1420" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:12">
+      <c r="A1421" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1421" s="2" t="str">
+        <f t="shared" ref="C1421:E1421" si="1415">C1420</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1421" s="30">
+        <f t="shared" si="1415"/>
+        <v>43947</v>
+      </c>
+      <c r="E1421" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1421" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1421" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1421" s="75">
+        <v>3270</v>
+      </c>
+      <c r="J1421" s="61"/>
+      <c r="K1421" s="24">
+        <v>18</v>
+      </c>
+      <c r="L1421" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:12">
+      <c r="A1422" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1422" s="2" t="str">
+        <f t="shared" ref="C1422:E1422" si="1416">C1421</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1422" s="30">
+        <f t="shared" si="1416"/>
+        <v>43947</v>
+      </c>
+      <c r="E1422" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1422" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1422" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1422" s="75">
+        <v>3414</v>
+      </c>
+      <c r="J1422" s="61"/>
+      <c r="K1422" s="24">
+        <v>54</v>
+      </c>
+      <c r="L1422" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:12">
+      <c r="A1423" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1423" s="2" t="str">
+        <f t="shared" ref="C1423:E1423" si="1417">C1422</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1423" s="30">
+        <f t="shared" si="1417"/>
+        <v>43947</v>
+      </c>
+      <c r="E1423" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1423" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1423" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1423" s="75">
+        <v>2651</v>
+      </c>
+      <c r="J1423" s="61"/>
+      <c r="K1423" s="24">
+        <v>117</v>
+      </c>
+      <c r="L1423" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:12">
+      <c r="A1424" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1424" s="2" t="str">
+        <f t="shared" ref="C1424:E1424" si="1418">C1423</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1424" s="30">
+        <f t="shared" si="1418"/>
+        <v>43947</v>
+      </c>
+      <c r="E1424" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1424" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1424" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1424" s="75">
+        <v>1837</v>
+      </c>
+      <c r="J1424" s="61"/>
+      <c r="K1424" s="24">
+        <v>185</v>
+      </c>
+      <c r="L1424" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:12">
+      <c r="A1425" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1425" s="2" t="str">
+        <f t="shared" ref="C1425:E1425" si="1419">C1424</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1425" s="30">
+        <f t="shared" si="1419"/>
+        <v>43947</v>
+      </c>
+      <c r="E1425" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1425" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1425" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1425" s="75">
+        <v>1528</v>
+      </c>
+      <c r="J1425" s="61"/>
+      <c r="K1425" s="24">
+        <v>305</v>
+      </c>
+      <c r="L1425" s="24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:12" ht="15.75">
+      <c r="A1426" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1426" s="2" t="str">
+        <f t="shared" ref="C1426:E1426" si="1420">C1425</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1426" s="30">
+        <f t="shared" si="1420"/>
+        <v>43947</v>
+      </c>
+      <c r="E1426" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1426" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1426" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1426" s="24"/>
+      <c r="J1426" s="61"/>
+      <c r="K1426" s="24">
+        <v>132</v>
+      </c>
+      <c r="L1426" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:12">
+      <c r="A1427" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1427" s="2" t="str">
+        <f t="shared" ref="C1427:E1427" si="1421">C1426</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1427" s="30">
+        <f t="shared" si="1421"/>
+        <v>43947</v>
+      </c>
+      <c r="E1427" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1427" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1427" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1427" s="75">
+        <v>9963</v>
+      </c>
+      <c r="J1427" s="61"/>
+      <c r="K1427" s="24">
+        <v>400</v>
+      </c>
+      <c r="L1427" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:12">
+      <c r="A1428" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1428" s="2" t="str">
+        <f t="shared" ref="C1428:E1428" si="1422">C1427</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1428" s="30">
+        <f t="shared" si="1422"/>
+        <v>43947</v>
+      </c>
+      <c r="E1428" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1428" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1428" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1428" s="75">
+        <v>8618</v>
+      </c>
+      <c r="J1428" s="61"/>
+      <c r="K1428" s="24">
+        <v>427</v>
+      </c>
+      <c r="L1428" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:12" ht="15.75">
+      <c r="A1429" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1429" s="2" t="str">
+        <f t="shared" ref="C1429:E1429" si="1423">C1428</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1429" s="30">
+        <f t="shared" si="1423"/>
+        <v>43947</v>
+      </c>
+      <c r="E1429" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1429" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1429" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1429" s="24"/>
+      <c r="J1429" s="61"/>
+      <c r="L1429" s="24"/>
+    </row>
+    <row r="1430" spans="1:12" ht="15.75">
+      <c r="A1430" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1430" s="2" t="str">
+        <f t="shared" ref="C1430:E1430" si="1424">C1429</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1430" s="30">
+        <f t="shared" si="1424"/>
+        <v>43947</v>
+      </c>
+      <c r="E1430" s="2"/>
+      <c r="F1430" s="5"/>
+      <c r="H1430" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1430" s="51"/>
+      <c r="J1430" s="51"/>
+      <c r="L1430" s="51"/>
+    </row>
+    <row r="1431" spans="1:12">
+      <c r="A1431" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1431" s="2" t="str">
+        <f t="shared" ref="C1431:E1431" si="1425">C1430</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1431" s="30">
+        <f t="shared" si="1425"/>
+        <v>43947</v>
+      </c>
+      <c r="H1431" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1431" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1431" s="61"/>
+      <c r="L1431" s="24"/>
+    </row>
+    <row r="1432" spans="1:12">
+      <c r="A1432" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1432" s="2" t="str">
+        <f t="shared" ref="C1432:E1432" si="1426">C1431</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1432" s="30">
+        <f t="shared" si="1426"/>
+        <v>43947</v>
+      </c>
+      <c r="E1432" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1432" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1432" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1432" s="75">
+        <v>6742</v>
+      </c>
+      <c r="J1432" s="61"/>
+      <c r="K1432" s="24">
+        <v>305</v>
+      </c>
+      <c r="L1432" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:12">
+      <c r="A1433" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1433" s="2" t="str">
+        <f t="shared" ref="C1433:E1433" si="1427">C1432</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1433" s="30">
+        <f t="shared" si="1427"/>
+        <v>43947</v>
+      </c>
+      <c r="E1433" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1433" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1433" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1433" s="24">
+        <v>363</v>
+      </c>
+      <c r="J1433" s="61"/>
+      <c r="K1433" s="24">
+        <v>30</v>
+      </c>
+      <c r="L1433" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:12">
+      <c r="A1434" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1434" s="2" t="str">
+        <f t="shared" ref="C1434:E1434" si="1428">C1433</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1434" s="30">
+        <f t="shared" si="1428"/>
+        <v>43947</v>
+      </c>
+      <c r="E1434" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1434" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1434" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1434" s="24">
+        <v>4276</v>
+      </c>
+      <c r="J1434" s="61"/>
+      <c r="K1434" s="24">
+        <v>301</v>
+      </c>
+      <c r="L1434" s="24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:12">
+      <c r="A1435" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1435" s="2" t="str">
+        <f t="shared" ref="C1435:E1435" si="1429">C1434</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1435" s="30">
+        <f t="shared" si="1429"/>
+        <v>43947</v>
+      </c>
+      <c r="E1435" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1435" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1435" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1435" s="75">
+        <v>2841</v>
+      </c>
+      <c r="J1435" s="61"/>
+      <c r="K1435" s="24">
+        <v>46</v>
+      </c>
+      <c r="L1435" s="24"/>
+    </row>
+    <row r="1436" spans="1:12">
+      <c r="A1436" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1436" s="2" t="str">
+        <f t="shared" ref="C1436:E1436" si="1430">C1435</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1436" s="30">
+        <f t="shared" si="1430"/>
+        <v>43947</v>
+      </c>
+      <c r="E1436" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1436" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1436" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1436" s="24">
+        <v>707</v>
+      </c>
+      <c r="J1436" s="61"/>
+      <c r="K1436" s="24">
+        <v>11</v>
+      </c>
+      <c r="L1436" s="24"/>
+    </row>
+    <row r="1437" spans="1:12">
+      <c r="A1437" s="29">
+        <f t="shared" si="1368"/>
+        <v>43947</v>
+      </c>
+      <c r="C1437" s="2" t="str">
+        <f t="shared" ref="C1437:E1437" si="1431">C1436</f>
+        <v>2:42PM</v>
+      </c>
+      <c r="D1437" s="30">
+        <f t="shared" si="1431"/>
+        <v>43947</v>
+      </c>
+      <c r="E1437" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1437" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1437" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1437" s="75">
+        <v>3652</v>
+      </c>
+      <c r="J1437" s="61"/>
+      <c r="K1437" s="24">
+        <v>134</v>
+      </c>
+      <c r="L1437" s="24">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
